--- a/2021-22 Wartburg COVID Tracing.xlsx
+++ b/2021-22 Wartburg COVID Tracing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2021-2022\IowaCOVID19\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7271351F-F925-4D4D-AF5F-8095F02B94EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A855F347-8801-4F50-AD3F-602299A0DE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{DC7C837F-5F10-4144-B236-1FECA5F0EA08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{DC7C837F-5F10-4144-B236-1FECA5F0EA08}"/>
   </bookViews>
   <sheets>
     <sheet name="Infected Students" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="147">
   <si>
     <t>Preston Rochford</t>
   </si>
@@ -375,13 +375,139 @@
   </si>
   <si>
     <t>9/7 - emailed</t>
+  </si>
+  <si>
+    <t>Kade Munkel</t>
+  </si>
+  <si>
+    <t>563-203-2947</t>
+  </si>
+  <si>
+    <t>Wartburg Antigen</t>
+  </si>
+  <si>
+    <t>Postive</t>
+  </si>
+  <si>
+    <t>Baseball</t>
+  </si>
+  <si>
+    <t>Owen Hatcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None </t>
+  </si>
+  <si>
+    <t xml:space="preserve">none </t>
+  </si>
+  <si>
+    <t>Complex: Heb 371</t>
+  </si>
+  <si>
+    <t>Bassam Bassam</t>
+  </si>
+  <si>
+    <t>Roomate- Kade Munkel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/10/21 Wartburg </t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>Cassie H.</t>
+  </si>
+  <si>
+    <t>960)771-4998 - does not work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/15/2021 Wartburg </t>
+  </si>
+  <si>
+    <t>Roommate- Kade Munkel</t>
+  </si>
+  <si>
+    <t>Hebron Apartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan </t>
+  </si>
+  <si>
+    <t>Courtney TS</t>
+  </si>
+  <si>
+    <t>9/15 - fever; cough; sore eyes/nose;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Pork, </t>
+  </si>
+  <si>
+    <t>Maria Carlson</t>
+  </si>
+  <si>
+    <t>(952)454-4903</t>
+  </si>
+  <si>
+    <t>Hyvee - 9/14</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown </t>
+  </si>
+  <si>
+    <t>CENT 004</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>9/15 - slight runny nose, slight cough;</t>
+  </si>
+  <si>
+    <t>Wilson (Chiefy() Loma</t>
+  </si>
+  <si>
+    <t>HEB 189</t>
+  </si>
+  <si>
+    <t>9/15 - email sent</t>
+  </si>
+  <si>
+    <t>Robert Saylor</t>
+  </si>
+  <si>
+    <t>(319)530-7724</t>
+  </si>
+  <si>
+    <t>CLNN 336</t>
+  </si>
+  <si>
+    <t>Carter Hayden</t>
+  </si>
+  <si>
+    <t>(319)210-8111</t>
+  </si>
+  <si>
+    <t>FDS 211</t>
+  </si>
+  <si>
+    <t>Elizabeth Donohue</t>
+  </si>
+  <si>
+    <t>(319)855-2133</t>
+  </si>
+  <si>
+    <t>CLNS 109</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +529,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -528,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -573,6 +705,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B7C922-39ED-4AAC-B544-0C25322ECB9A}">
-  <dimension ref="A1:AM6"/>
+  <dimension ref="A1:AM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1436,6 +1570,158 @@
       </c>
       <c r="T6" s="1"/>
     </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1250699</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="1" t="str" cm="1">
+        <f t="array" ref="C7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!C$1,Ipaste!$1:$1,0))</f>
+        <v>563-203-2947</v>
+      </c>
+      <c r="D7" s="4" cm="1">
+        <f t="array" ref="D7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="str" cm="1">
+        <f t="array" ref="E7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))</f>
+        <v xml:space="preserve">9/10/21 Wartburg </v>
+      </c>
+      <c r="F7" s="1" t="str" cm="1">
+        <f t="array" ref="F7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))</f>
+        <v>Postive</v>
+      </c>
+      <c r="G7" s="1" t="str" cm="1">
+        <f t="array" ref="G7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="H7" s="1" t="str" cm="1">
+        <f t="array" ref="H7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="I7" s="4" cm="1">
+        <f t="array" ref="I7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))</f>
+        <v>44449</v>
+      </c>
+      <c r="J7" s="1" t="str" cm="1">
+        <f t="array" ref="J7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))</f>
+        <v>HOME</v>
+      </c>
+      <c r="K7" s="4" cm="1">
+        <f t="array" ref="K7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))</f>
+        <v>44459</v>
+      </c>
+      <c r="L7" s="1" t="str" cm="1">
+        <f t="array" ref="L7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))</f>
+        <v>Danny</v>
+      </c>
+      <c r="M7" s="1" t="str" cm="1">
+        <f t="array" ref="M7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))</f>
+        <v>YES</v>
+      </c>
+      <c r="N7" s="1" cm="1">
+        <f t="array" ref="N7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))</f>
+        <v>44459</v>
+      </c>
+      <c r="O7" s="1" t="str" cm="1">
+        <f t="array" ref="O7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))</f>
+        <v>Cassie H.</v>
+      </c>
+      <c r="P7" s="1" cm="1">
+        <f t="array" ref="P7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" cm="1">
+        <f t="array" ref="Q7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" cm="1">
+        <f t="array" ref="R7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" cm="1">
+        <f t="array" ref="S7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1244320</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="1" t="str" cm="1">
+        <f t="array" ref="C8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!C$1,Ipaste!$1:$1,0))</f>
+        <v>960)771-4998 - does not work</v>
+      </c>
+      <c r="D8" s="4" cm="1">
+        <f t="array" ref="D8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="str" cm="1">
+        <f t="array" ref="E8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))</f>
+        <v xml:space="preserve">9/15/2021 Wartburg </v>
+      </c>
+      <c r="F8" s="1" t="str" cm="1">
+        <f t="array" ref="F8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))</f>
+        <v>Positive</v>
+      </c>
+      <c r="G8" s="1" cm="1">
+        <f t="array" ref="G8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))</f>
+        <v>44449</v>
+      </c>
+      <c r="H8" s="1" t="str" cm="1">
+        <f t="array" ref="H8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))</f>
+        <v>Roommate- Kade Munkel</v>
+      </c>
+      <c r="I8" s="4" cm="1">
+        <f t="array" ref="I8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))</f>
+        <v>44450</v>
+      </c>
+      <c r="J8" s="1" t="str" cm="1">
+        <f t="array" ref="J8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))</f>
+        <v>Hebron Apartment</v>
+      </c>
+      <c r="K8" s="4" cm="1">
+        <f t="array" ref="K8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))</f>
+        <v>44248</v>
+      </c>
+      <c r="L8" s="1" t="str" cm="1">
+        <f t="array" ref="L8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))</f>
+        <v xml:space="preserve">Ryan </v>
+      </c>
+      <c r="M8" s="1" t="str" cm="1">
+        <f t="array" ref="M8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))</f>
+        <v>YES</v>
+      </c>
+      <c r="N8" s="1" cm="1">
+        <f t="array" ref="N8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))</f>
+        <v>44460</v>
+      </c>
+      <c r="O8" s="1" t="str" cm="1">
+        <f t="array" ref="O8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))</f>
+        <v>Courtney TS</v>
+      </c>
+      <c r="P8" s="1" t="str" cm="1">
+        <f t="array" ref="P8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))</f>
+        <v>9/15 - fever; cough; sore eyes/nose;</v>
+      </c>
+      <c r="Q8" s="1" t="str" cm="1">
+        <f t="array" ref="Q8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))</f>
+        <v xml:space="preserve">No Pork, </v>
+      </c>
+      <c r="R8" s="1" cm="1">
+        <f t="array" ref="R8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" cm="1">
+        <f t="array" ref="S8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1443,13 +1729,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC357540-4F5F-4E17-B510-319E9A338038}">
-  <dimension ref="A1:AM6"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="19.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
@@ -1531,53 +1820,51 @@
       <c r="AM1" s="14"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1235116</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="4">
-        <v>44425</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="6">
-        <v>44435</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="A2">
+        <v>1250699</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44449</v>
+      </c>
+      <c r="J2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="3">
+        <v>44459</v>
+      </c>
+      <c r="L2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="1"/>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="3">
+        <v>44459</v>
+      </c>
+      <c r="O2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T2" t="s">
+        <v>109</v>
+      </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1598,49 +1885,54 @@
       <c r="AM2" s="2"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="4">
-        <v>44427</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="6">
-        <v>44437</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="A3">
+        <v>1244320</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44449</v>
+      </c>
+      <c r="H3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="3">
+        <v>44450</v>
+      </c>
+      <c r="J3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44248</v>
+      </c>
+      <c r="L3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="3">
+        <v>44460</v>
+      </c>
+      <c r="O3" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>126</v>
+      </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1662,22 +1954,18 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>1232227</v>
+        <v>1235116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4">
-        <v>36695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>3</v>
@@ -1686,16 +1974,16 @@
         <v>4</v>
       </c>
       <c r="I4" s="4">
-        <v>44428</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>11</v>
+        <v>44425</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="K4" s="6">
-        <v>44438</v>
+        <v>44435</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>6</v>
@@ -1709,7 +1997,7 @@
       <c r="R4" s="10"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="2"/>
@@ -1732,44 +2020,38 @@
       <c r="AM4" s="2"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>1233601</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4">
-        <v>37013</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="4">
-        <v>44428</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>19</v>
+        <v>44427</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="K5" s="6">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="1" t="s">
@@ -1779,9 +2061,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="10"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -1803,50 +2083,200 @@
       <c r="AM5" s="2"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+      <c r="A6" s="1">
+        <v>1232227</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4">
+        <v>36695</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>44428</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="6">
+        <v>44438</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>1233601</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4">
+        <v>37013</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4">
+        <v>44428</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="6">
+        <v>44438</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D8" s="3">
         <v>37763</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G8" s="3">
         <v>44434</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H8" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I8" s="3">
         <v>44438</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J8" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K8" s="3">
         <v>44448</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L8" t="s">
         <v>15</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M8" t="s">
         <v>20</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O8" t="s">
         <v>45</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P8" t="s">
         <v>46</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T8" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="4">
+        <v>44449</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="6">
+        <v>44459</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1856,10 +2286,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6164E72-0B31-4D07-B897-5E56341DD845}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D6" sqref="A6:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2250,6 +2680,486 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.45">
+      <c r="A6" s="28">
+        <v>1249163</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="e">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D6">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))</f>
+        <v>44452</v>
+      </c>
+      <c r="G6" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))</f>
+        <v xml:space="preserve">None </v>
+      </c>
+      <c r="H6" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))</f>
+        <v xml:space="preserve">none </v>
+      </c>
+      <c r="I6">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))</f>
+        <v>44452</v>
+      </c>
+      <c r="J6" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))</f>
+        <v>Complex: Heb 371</v>
+      </c>
+      <c r="K6" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))</f>
+        <v xml:space="preserve">Pending </v>
+      </c>
+      <c r="L6">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1245755</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
+        <v>(952)454-4903</v>
+      </c>
+      <c r="D7">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))</f>
+        <v>Hyvee - 9/14</v>
+      </c>
+      <c r="G7" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))</f>
+        <v>none</v>
+      </c>
+      <c r="H7" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))</f>
+        <v xml:space="preserve">Unknown </v>
+      </c>
+      <c r="I7">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))</f>
+        <v>44454</v>
+      </c>
+      <c r="J7" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))</f>
+        <v>CENT 004</v>
+      </c>
+      <c r="K7" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))</f>
+        <v>Pending</v>
+      </c>
+      <c r="L7">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))</f>
+        <v>YES</v>
+      </c>
+      <c r="N7" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))</f>
+        <v>Pending</v>
+      </c>
+      <c r="O7" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))</f>
+        <v>Courtney TS</v>
+      </c>
+      <c r="P7" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))</f>
+        <v>9/15 - slight runny nose, slight cough;</v>
+      </c>
+      <c r="Q7">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1244590</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))</f>
+        <v>44454</v>
+      </c>
+      <c r="G8" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))</f>
+        <v>none</v>
+      </c>
+      <c r="H8" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))</f>
+        <v xml:space="preserve">Unknown </v>
+      </c>
+      <c r="I8">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))</f>
+        <v>44454</v>
+      </c>
+      <c r="J8" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))</f>
+        <v>HEB 189</v>
+      </c>
+      <c r="K8" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))</f>
+        <v>Pending</v>
+      </c>
+      <c r="L8">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M8" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))</f>
+        <v>YES</v>
+      </c>
+      <c r="N8" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))</f>
+        <v>Pending</v>
+      </c>
+      <c r="O8" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))</f>
+        <v>Courtney TS</v>
+      </c>
+      <c r="P8" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))</f>
+        <v>9/15 - email sent</v>
+      </c>
+      <c r="Q8">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1248196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
+        <v>(319)530-7724</v>
+      </c>
+      <c r="D9">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))</f>
+        <v>44455</v>
+      </c>
+      <c r="G9" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))</f>
+        <v>none</v>
+      </c>
+      <c r="H9" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))</f>
+        <v xml:space="preserve">Unknown </v>
+      </c>
+      <c r="I9">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))</f>
+        <v>44455</v>
+      </c>
+      <c r="J9" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))</f>
+        <v>CLNN 336</v>
+      </c>
+      <c r="K9" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))</f>
+        <v>Pending</v>
+      </c>
+      <c r="L9">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M9" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))</f>
+        <v>YES</v>
+      </c>
+      <c r="N9" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))</f>
+        <v>Pending</v>
+      </c>
+      <c r="O9">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1235078</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
+        <v>(319)210-8111</v>
+      </c>
+      <c r="D10">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))</f>
+        <v>44455</v>
+      </c>
+      <c r="G10" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))</f>
+        <v>none</v>
+      </c>
+      <c r="H10" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))</f>
+        <v xml:space="preserve">Unknown </v>
+      </c>
+      <c r="I10">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))</f>
+        <v>44455</v>
+      </c>
+      <c r="J10" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))</f>
+        <v>FDS 211</v>
+      </c>
+      <c r="K10" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))</f>
+        <v>Pending</v>
+      </c>
+      <c r="L10">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))</f>
+        <v>YES</v>
+      </c>
+      <c r="N10" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))</f>
+        <v>Pending</v>
+      </c>
+      <c r="O10">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1245967</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
+        <v>(319)855-2133</v>
+      </c>
+      <c r="D11">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))</f>
+        <v>44455</v>
+      </c>
+      <c r="G11" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))</f>
+        <v>none</v>
+      </c>
+      <c r="H11" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))</f>
+        <v xml:space="preserve">Unknown </v>
+      </c>
+      <c r="I11">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))</f>
+        <v>44455</v>
+      </c>
+      <c r="J11" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))</f>
+        <v>CLNS 109</v>
+      </c>
+      <c r="K11" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))</f>
+        <v>Pending</v>
+      </c>
+      <c r="L11">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))</f>
+        <v>YES</v>
+      </c>
+      <c r="N11" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))</f>
+        <v>Pending</v>
+      </c>
+      <c r="O11">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2257,10 +3167,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B86344-DAFC-46AC-8F96-5F97879FB6E3}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2328,354 +3238,426 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
-        <v>1248095</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="4">
-        <v>37619</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="21">
-        <v>44434</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="4">
-        <v>44434</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="6">
-        <v>44442</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="A2">
+        <v>1245755</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44454</v>
+      </c>
+      <c r="J2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="22">
-        <v>44448</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="1" t="s">
-        <v>47</v>
+      <c r="N2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1248351</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="4">
-        <v>37668</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="21">
-        <v>44434</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="4">
-        <v>44434</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="6">
-        <v>44442</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="A3">
+        <v>1244590</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44454</v>
+      </c>
+      <c r="G3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="3">
+        <v>44454</v>
+      </c>
+      <c r="J3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="22">
-        <v>44448</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="1" t="s">
-        <v>47</v>
+      <c r="N3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O3" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>1246184</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="4">
-        <v>37536</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="21">
-        <v>44434</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="4">
-        <v>44434</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="6">
-        <v>44442</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="A4">
+        <v>1248196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44455</v>
+      </c>
+      <c r="G4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="3">
+        <v>44455</v>
+      </c>
+      <c r="J4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M4" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="22">
-        <v>44448</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="1" t="s">
-        <v>47</v>
+      <c r="N4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>1240577</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="4">
-        <v>44445</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="1" t="s">
+      <c r="A5">
+        <v>1235078</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44455</v>
+      </c>
+      <c r="G5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="3">
+        <v>44455</v>
+      </c>
+      <c r="J5" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M5" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="1"/>
+      <c r="N5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1248095</v>
+        <v>1245967</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="3">
-        <v>37619</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="3">
-        <v>44434</v>
+        <v>145</v>
+      </c>
+      <c r="F6" s="3">
+        <v>44455</v>
+      </c>
+      <c r="G6" t="s">
+        <v>130</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="I6" s="3">
-        <v>44434</v>
+        <v>44455</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="3">
-        <v>44442</v>
-      </c>
-      <c r="L6" t="s">
-        <v>62</v>
+        <v>146</v>
+      </c>
+      <c r="K6" t="s">
+        <v>133</v>
       </c>
       <c r="M6" t="s">
         <v>20</v>
       </c>
-      <c r="O6" t="s">
+      <c r="N6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>1248095</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="4">
+        <v>37619</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="21">
+        <v>44434</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="4">
+        <v>44434</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="6">
+        <v>44442</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="22">
+        <v>44448</v>
+      </c>
+      <c r="O7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="T6" t="s">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>1248351</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="3">
+      <c r="D8" s="20"/>
+      <c r="E8" s="4">
         <v>37668</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="21">
         <v>44434</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I8" s="4">
         <v>44434</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K8" s="6">
         <v>44442</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O7" t="s">
+      <c r="N8" s="22">
+        <v>44448</v>
+      </c>
+      <c r="O8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="T7" t="s">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>1246184</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="3">
+      <c r="D9" s="20"/>
+      <c r="E9" s="4">
         <v>37536</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="21">
         <v>44434</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I9" s="4">
         <v>44434</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K9" s="6">
         <v>44442</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O8" t="s">
+      <c r="N9" s="22">
+        <v>44448</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="T8" t="s">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>1240577</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="4">
+        <v>44445</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1249163</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F11">
+        <v>44452</v>
+      </c>
+      <c r="G11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11">
+        <v>44452</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2685,13 +3667,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697DB29A-8071-4245-AA70-F84BFB7723B1}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2896,6 +3882,20 @@
         <v>95</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="29">
+        <v>44454</v>
+      </c>
+      <c r="F11" s="3">
+        <v>44449</v>
+      </c>
+      <c r="G11" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2021-22 Wartburg COVID Tracing.xlsx
+++ b/2021-22 Wartburg COVID Tracing.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2021-2022\IowaCOVID19\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A855F347-8801-4F50-AD3F-602299A0DE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B8B7C8-ECE7-40C9-A9AC-51962D014558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{DC7C837F-5F10-4144-B236-1FECA5F0EA08}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="6" xr2:uid="{DC7C837F-5F10-4144-B236-1FECA5F0EA08}"/>
   </bookViews>
   <sheets>
     <sheet name="Infected Students" sheetId="1" r:id="rId1"/>
     <sheet name="Ipaste" sheetId="5" r:id="rId2"/>
     <sheet name="Quarantined Students" sheetId="2" r:id="rId3"/>
     <sheet name="Qpaste" sheetId="4" r:id="rId4"/>
-    <sheet name="Vaccinated Students" sheetId="3" r:id="rId5"/>
+    <sheet name="Clean Clear" sheetId="7" r:id="rId5"/>
+    <sheet name="Cleared Students" sheetId="6" r:id="rId6"/>
+    <sheet name="Vaccinated Students" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="198">
   <si>
     <t>Preston Rochford</t>
   </si>
@@ -383,9 +385,6 @@
     <t>563-203-2947</t>
   </si>
   <si>
-    <t>Wartburg Antigen</t>
-  </si>
-  <si>
     <t>Postive</t>
   </si>
   <si>
@@ -437,9 +436,6 @@
     <t>Courtney TS</t>
   </si>
   <si>
-    <t>9/15 - fever; cough; sore eyes/nose;</t>
-  </si>
-  <si>
     <t xml:space="preserve">No Pork, </t>
   </si>
   <si>
@@ -501,6 +497,165 @@
   </si>
   <si>
     <t>CLNS 109</t>
+  </si>
+  <si>
+    <t>9/15 - Positive</t>
+  </si>
+  <si>
+    <t>Vaccinated</t>
+  </si>
+  <si>
+    <t>no communication returned</t>
+  </si>
+  <si>
+    <t>Fever; cough, sore eyes/nose - 9/16; Cough, losing taste/smell - 9/17;</t>
+  </si>
+  <si>
+    <t>Vaccine Status</t>
+  </si>
+  <si>
+    <t>9/6 Noah - negative</t>
+  </si>
+  <si>
+    <t>9/7 - emailed, negative test</t>
+  </si>
+  <si>
+    <t>Collin Meisenburg</t>
+  </si>
+  <si>
+    <t>(309)207-5220</t>
+  </si>
+  <si>
+    <t>Positive (8/26/21)</t>
+  </si>
+  <si>
+    <t>HOME 8/27</t>
+  </si>
+  <si>
+    <t>Kaiden</t>
+  </si>
+  <si>
+    <t>8/27 - delivered his books prior to leaving campus 8/28 not feeling great - getting OTC meds 8/29 still feeling ill 8/30 no change in symptoms 8/31 Collin has started to feel better / Collin has checked in everyday  - he is slowly starting to feel beter.</t>
+  </si>
+  <si>
+    <t>Communicated with Griffin several times as he is in my IS 101. He is doing well. KTT</t>
+  </si>
+  <si>
+    <t>Remington Johnson</t>
+  </si>
+  <si>
+    <t>641-330-1138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/8/2021 Noah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEB 264 </t>
+  </si>
+  <si>
+    <t>9/8 negative test, released from quarantine (JO)</t>
+  </si>
+  <si>
+    <t>Claire Strauel</t>
+  </si>
+  <si>
+    <t>319-243-0618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/10/2021 Noah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fully vaccinated.  </t>
+  </si>
+  <si>
+    <t>(563)564-9415</t>
+  </si>
+  <si>
+    <t>9/13/2021 - negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daemon (Destiny) Moran </t>
+  </si>
+  <si>
+    <t>(262)343-6946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown </t>
+  </si>
+  <si>
+    <t>FDS 319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/15 - email sent; </t>
+  </si>
+  <si>
+    <t>Complex: HEB 189</t>
+  </si>
+  <si>
+    <t>No symptoms 9/15; 9/16;</t>
+  </si>
+  <si>
+    <t>9/16 - email sent</t>
+  </si>
+  <si>
+    <t>9/16/2021 - negative</t>
+  </si>
+  <si>
+    <t>9/16 - sore throat, mild chest congestion, cough</t>
+  </si>
+  <si>
+    <t>Elizabeth Donohoe</t>
+  </si>
+  <si>
+    <t>9/16 - mild sore throat</t>
+  </si>
+  <si>
+    <t>Michael Elshahat</t>
+  </si>
+  <si>
+    <t>no phone</t>
+  </si>
+  <si>
+    <t>Complex: Heb 075</t>
+  </si>
+  <si>
+    <t>Carter Bussanmas</t>
+  </si>
+  <si>
+    <t>GRO 208C</t>
+  </si>
+  <si>
+    <t>Brady Fox</t>
+  </si>
+  <si>
+    <t>(580)564-5354</t>
+  </si>
+  <si>
+    <t>KV 503C</t>
+  </si>
+  <si>
+    <t>Charlie Otto</t>
+  </si>
+  <si>
+    <t>(630)207-6735</t>
+  </si>
+  <si>
+    <t>Manors: CORN 015</t>
+  </si>
+  <si>
+    <t>Sidney Baumgardner</t>
+  </si>
+  <si>
+    <t>Off campus</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -660,13 +815,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -707,6 +861,21 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,177 +1190,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B7C922-39ED-4AAC-B544-0C25322ECB9A}">
-  <dimension ref="A1:AM8"/>
+  <dimension ref="A1:AN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:40" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="T1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="B2" s="1">
         <v>1235116</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" cm="1">
-        <f t="array" ref="C2">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A2&gt;0,MATCH('Infected Students'!$A2,Ipaste!$A:$A,0), MATCH('Infected Students'!$B2,Ipaste!$B:$B,0)), MATCH('Infected Students'!C$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" cm="1">
-        <f t="array" ref="D2">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A2&gt;0,MATCH('Infected Students'!$A2,Ipaste!$A:$A,0), MATCH('Infected Students'!$B2,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="str" cm="1">
+        <f t="array" ref="D2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
+        <v/>
       </c>
       <c r="E2" s="1" t="str" cm="1">
-        <f t="array" ref="E2">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A2&gt;0,MATCH('Infected Students'!$A2,Ipaste!$A:$A,0), MATCH('Infected Students'!$B2,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))</f>
+        <f t="array" ref="E2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F2" s="1" t="str" cm="1">
+        <f t="array" ref="F2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
         <v>Wartburg</v>
       </c>
-      <c r="F2" s="1" t="str" cm="1">
-        <f t="array" ref="F2">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A2&gt;0,MATCH('Infected Students'!$A2,Ipaste!$A:$A,0), MATCH('Infected Students'!$B2,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))</f>
+      <c r="G2" s="1" t="str" cm="1">
+        <f t="array" ref="G2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
         <v>Positive</v>
       </c>
-      <c r="G2" s="1" t="str" cm="1">
-        <f t="array" ref="G2">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A2&gt;0,MATCH('Infected Students'!$A2,Ipaste!$A:$A,0), MATCH('Infected Students'!$B2,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))</f>
+      <c r="H2" s="1" t="str" cm="1">
+        <f t="array" ref="H2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
-      <c r="H2" s="1" t="str" cm="1">
-        <f t="array" ref="H2">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A2&gt;0,MATCH('Infected Students'!$A2,Ipaste!$A:$A,0), MATCH('Infected Students'!$B2,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))</f>
+      <c r="I2" s="1" t="str" cm="1">
+        <f t="array" ref="I2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
         <v>Off-campus</v>
       </c>
-      <c r="I2" s="4" cm="1">
-        <f t="array" ref="I2">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A2&gt;0,MATCH('Infected Students'!$A2,Ipaste!$A:$A,0), MATCH('Infected Students'!$B2,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))</f>
+      <c r="J2" s="1" cm="1">
+        <f t="array" ref="J2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
         <v>44425</v>
       </c>
-      <c r="J2" s="1" t="str" cm="1">
-        <f t="array" ref="J2">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A2&gt;0,MATCH('Infected Students'!$A2,Ipaste!$A:$A,0), MATCH('Infected Students'!$B2,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))</f>
+      <c r="K2" s="1" t="str" cm="1">
+        <f t="array" ref="K2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
         <v>Off-campus</v>
       </c>
-      <c r="K2" s="4" cm="1">
-        <f t="array" ref="K2">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A2&gt;0,MATCH('Infected Students'!$A2,Ipaste!$A:$A,0), MATCH('Infected Students'!$B2,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))</f>
+      <c r="L2" s="1" cm="1">
+        <f t="array" ref="L2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
         <v>44435</v>
       </c>
-      <c r="L2" s="1" t="str" cm="1">
-        <f t="array" ref="L2">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A2&gt;0,MATCH('Infected Students'!$A2,Ipaste!$A:$A,0), MATCH('Infected Students'!$B2,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))</f>
+      <c r="M2" s="1" t="str" cm="1">
+        <f t="array" ref="M2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
         <v>Danny</v>
       </c>
-      <c r="M2" s="1" t="str" cm="1">
-        <f t="array" ref="M2">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A2&gt;0,MATCH('Infected Students'!$A2,Ipaste!$A:$A,0), MATCH('Infected Students'!$B2,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))</f>
+      <c r="N2" s="1" t="str" cm="1">
+        <f t="array" ref="N2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
         <v>N/A</v>
       </c>
-      <c r="N2" s="1" cm="1">
-        <f t="array" ref="N2">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A2&gt;0,MATCH('Infected Students'!$A2,Ipaste!$A:$A,0), MATCH('Infected Students'!$B2,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
       <c r="O2" s="1" t="str" cm="1">
-        <f t="array" ref="O2">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A2&gt;0,MATCH('Infected Students'!$A2,Ipaste!$A:$A,0), MATCH('Infected Students'!$B2,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))</f>
+        <f t="array" ref="O2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P2" s="1" t="str" cm="1">
+        <f t="array" ref="P2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
         <v>Danny</v>
       </c>
-      <c r="P2" s="1" cm="1">
-        <f t="array" ref="P2">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A2&gt;0,MATCH('Infected Students'!$A2,Ipaste!$A:$A,0), MATCH('Infected Students'!$B2,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1" cm="1">
-        <f t="array" ref="Q2">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A2&gt;0,MATCH('Infected Students'!$A2,Ipaste!$A:$A,0), MATCH('Infected Students'!$B2,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" cm="1">
-        <f t="array" ref="R2">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A2&gt;0,MATCH('Infected Students'!$A2,Ipaste!$A:$A,0), MATCH('Infected Students'!$B2,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" cm="1">
-        <f t="array" ref="S2">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A2&gt;0,MATCH('Infected Students'!$A2,Ipaste!$A:$A,0), MATCH('Infected Students'!$B2,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="1"/>
+      <c r="Q2" s="1" t="str" cm="1">
+        <f t="array" ref="Q2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R2" s="1" t="str" cm="1">
+        <f t="array" ref="R2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S2" s="1" t="str" cm="1">
+        <f t="array" ref="S2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T2" s="1" t="str" cm="1">
+        <f t="array" ref="T2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
       <c r="U2" s="1"/>
-      <c r="V2" s="2"/>
+      <c r="V2" s="1"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
@@ -1209,83 +1380,83 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="AN2" s="2"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" cm="1">
-        <f t="array" ref="C3">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A3&gt;0,MATCH('Infected Students'!$A3,Ipaste!$A:$A,0), MATCH('Infected Students'!$B3,Ipaste!$B:$B,0)), MATCH('Infected Students'!C$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" cm="1">
-        <f t="array" ref="D3">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A3&gt;0,MATCH('Infected Students'!$A3,Ipaste!$A:$A,0), MATCH('Infected Students'!$B3,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
+      <c r="D3" s="1" t="str" cm="1">
+        <f t="array" ref="D3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
+        <v/>
       </c>
       <c r="E3" s="1" t="str" cm="1">
-        <f t="array" ref="E3">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A3&gt;0,MATCH('Infected Students'!$A3,Ipaste!$A:$A,0), MATCH('Infected Students'!$B3,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))</f>
+        <f t="array" ref="E3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F3" s="1" t="str" cm="1">
+        <f t="array" ref="F3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
         <v>wartburg</v>
       </c>
-      <c r="F3" s="1" t="str" cm="1">
-        <f t="array" ref="F3">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A3&gt;0,MATCH('Infected Students'!$A3,Ipaste!$A:$A,0), MATCH('Infected Students'!$B3,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))</f>
+      <c r="G3" s="1" t="str" cm="1">
+        <f t="array" ref="G3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
         <v>postive</v>
       </c>
-      <c r="G3" s="1" t="str" cm="1">
-        <f t="array" ref="G3">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A3&gt;0,MATCH('Infected Students'!$A3,Ipaste!$A:$A,0), MATCH('Infected Students'!$B3,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))</f>
+      <c r="H3" s="1" t="str" cm="1">
+        <f t="array" ref="H3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
-      <c r="H3" s="1" t="str" cm="1">
-        <f t="array" ref="H3">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A3&gt;0,MATCH('Infected Students'!$A3,Ipaste!$A:$A,0), MATCH('Infected Students'!$B3,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))</f>
+      <c r="I3" s="1" t="str" cm="1">
+        <f t="array" ref="I3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
-      <c r="I3" s="4" cm="1">
-        <f t="array" ref="I3">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A3&gt;0,MATCH('Infected Students'!$A3,Ipaste!$A:$A,0), MATCH('Infected Students'!$B3,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))</f>
+      <c r="J3" s="1" cm="1">
+        <f t="array" ref="J3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
         <v>44427</v>
       </c>
-      <c r="J3" s="1" t="str" cm="1">
-        <f t="array" ref="J3">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A3&gt;0,MATCH('Infected Students'!$A3,Ipaste!$A:$A,0), MATCH('Infected Students'!$B3,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))</f>
+      <c r="K3" s="1" t="str" cm="1">
+        <f t="array" ref="K3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
         <v>Home</v>
       </c>
-      <c r="K3" s="4" cm="1">
-        <f t="array" ref="K3">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A3&gt;0,MATCH('Infected Students'!$A3,Ipaste!$A:$A,0), MATCH('Infected Students'!$B3,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))</f>
+      <c r="L3" s="1" cm="1">
+        <f t="array" ref="L3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
         <v>44437</v>
       </c>
-      <c r="L3" s="1" t="str" cm="1">
-        <f t="array" ref="L3">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A3&gt;0,MATCH('Infected Students'!$A3,Ipaste!$A:$A,0), MATCH('Infected Students'!$B3,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))</f>
+      <c r="M3" s="1" t="str" cm="1">
+        <f t="array" ref="M3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
         <v>Danny</v>
       </c>
-      <c r="M3" s="1" t="str" cm="1">
-        <f t="array" ref="M3">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A3&gt;0,MATCH('Infected Students'!$A3,Ipaste!$A:$A,0), MATCH('Infected Students'!$B3,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))</f>
+      <c r="N3" s="1" t="str" cm="1">
+        <f t="array" ref="N3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
         <v>N/A</v>
       </c>
-      <c r="N3" s="1" cm="1">
-        <f t="array" ref="N3">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A3&gt;0,MATCH('Infected Students'!$A3,Ipaste!$A:$A,0), MATCH('Infected Students'!$B3,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
       <c r="O3" s="1" t="str" cm="1">
-        <f t="array" ref="O3">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A3&gt;0,MATCH('Infected Students'!$A3,Ipaste!$A:$A,0), MATCH('Infected Students'!$B3,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))</f>
+        <f t="array" ref="O3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P3" s="1" t="str" cm="1">
+        <f t="array" ref="P3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
         <v>Danny</v>
       </c>
-      <c r="P3" s="1" cm="1">
-        <f t="array" ref="P3">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A3&gt;0,MATCH('Infected Students'!$A3,Ipaste!$A:$A,0), MATCH('Infected Students'!$B3,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1" cm="1">
-        <f t="array" ref="Q3">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A3&gt;0,MATCH('Infected Students'!$A3,Ipaste!$A:$A,0), MATCH('Infected Students'!$B3,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="1" cm="1">
-        <f t="array" ref="R3">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A3&gt;0,MATCH('Infected Students'!$A3,Ipaste!$A:$A,0), MATCH('Infected Students'!$B3,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" cm="1">
-        <f t="array" ref="S3">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A3&gt;0,MATCH('Infected Students'!$A3,Ipaste!$A:$A,0), MATCH('Infected Students'!$B3,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="1"/>
+      <c r="Q3" s="1" t="str" cm="1">
+        <f t="array" ref="Q3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R3" s="1" t="str" cm="1">
+        <f t="array" ref="R3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S3" s="1" t="str" cm="1">
+        <f t="array" ref="S3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T3" s="1" t="str" cm="1">
+        <f t="array" ref="T3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
       <c r="U3" s="1"/>
-      <c r="V3" s="2"/>
+      <c r="V3" s="1"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -1303,84 +1474,678 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
+        <v>1232227</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="str" cm="1">
+        <f t="array" ref="D4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
+        <v>309-912-3637</v>
+      </c>
+      <c r="E4" s="1" cm="1">
+        <f t="array" ref="E4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
+        <v>36695</v>
+      </c>
+      <c r="F4" s="1" t="str" cm="1">
+        <f t="array" ref="F4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
+        <v>Wartburg</v>
+      </c>
+      <c r="G4" s="1" t="str" cm="1">
+        <f t="array" ref="G4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
+        <v>Positive (8/20/21)</v>
+      </c>
+      <c r="H4" s="1" t="str" cm="1">
+        <f t="array" ref="H4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="I4" s="1" t="str" cm="1">
+        <f t="array" ref="I4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+        <v>Off-campus</v>
+      </c>
+      <c r="J4" s="1" cm="1">
+        <f t="array" ref="J4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+        <v>44428</v>
+      </c>
+      <c r="K4" s="1" t="str" cm="1">
+        <f t="array" ref="K4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+        <v>Home</v>
+      </c>
+      <c r="L4" s="1" cm="1">
+        <f t="array" ref="L4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+        <v>44438</v>
+      </c>
+      <c r="M4" s="1" t="str" cm="1">
+        <f t="array" ref="M4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+        <v>David</v>
+      </c>
+      <c r="N4" s="1" t="str" cm="1">
+        <f t="array" ref="N4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+        <v>N/A</v>
+      </c>
+      <c r="O4" s="1" t="str" cm="1">
+        <f t="array" ref="O4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P4" s="1" t="str" cm="1">
+        <f t="array" ref="P4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+        <v>Danny</v>
+      </c>
+      <c r="Q4" s="1" t="str" cm="1">
+        <f t="array" ref="Q4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R4" s="1" t="str" cm="1">
+        <f t="array" ref="R4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S4" s="1" t="str" cm="1">
+        <f t="array" ref="S4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T4" s="1" t="str" cm="1">
+        <f t="array" ref="T4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
+        <v>1233601</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="str" cm="1">
+        <f t="array" ref="D5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
+        <v>515-205-6696</v>
+      </c>
+      <c r="E5" s="1" cm="1">
+        <f t="array" ref="E5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
+        <v>37013</v>
+      </c>
+      <c r="F5" s="1" t="str" cm="1">
+        <f t="array" ref="F5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
+        <v>Wartburg</v>
+      </c>
+      <c r="G5" s="1" t="str" cm="1">
+        <f t="array" ref="G5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
+        <v>Positive (8/20/21)</v>
+      </c>
+      <c r="H5" s="1" t="str" cm="1">
+        <f t="array" ref="H5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="I5" s="1" t="str" cm="1">
+        <f t="array" ref="I5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+        <v>Off-campus</v>
+      </c>
+      <c r="J5" s="1" cm="1">
+        <f t="array" ref="J5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+        <v>44428</v>
+      </c>
+      <c r="K5" s="1" t="str" cm="1">
+        <f t="array" ref="K5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+        <v>FOUNDERS APARTMENT</v>
+      </c>
+      <c r="L5" s="1" cm="1">
+        <f t="array" ref="L5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+        <v>44438</v>
+      </c>
+      <c r="M5" s="1" t="str" cm="1">
+        <f t="array" ref="M5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+        <v>David</v>
+      </c>
+      <c r="N5" s="1" t="str" cm="1">
+        <f t="array" ref="N5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="O5" s="1" t="str" cm="1">
+        <f t="array" ref="O5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P5" s="1" t="str" cm="1">
+        <f t="array" ref="P5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+        <v>Danny</v>
+      </c>
+      <c r="Q5" s="1" t="str" cm="1">
+        <f t="array" ref="Q5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R5" s="1" t="str" cm="1">
+        <f t="array" ref="R5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S5" s="1" t="str" cm="1">
+        <f t="array" ref="S5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T5" s="1" t="str" cm="1">
+        <f t="array" ref="T5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="str" cm="1">
+        <f t="array" ref="D6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
+        <v>(651)447-3716</v>
+      </c>
+      <c r="E6" s="1" cm="1">
+        <f t="array" ref="E6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
+        <v>37763</v>
+      </c>
+      <c r="F6" s="1" t="str" cm="1">
+        <f t="array" ref="F6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
+        <v xml:space="preserve">8/30 - Wartburg </v>
+      </c>
+      <c r="G6" s="1" t="str" cm="1">
+        <f t="array" ref="G6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
+        <v>Positive</v>
+      </c>
+      <c r="H6" s="1" cm="1">
+        <f t="array" ref="H6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
+        <v>44434</v>
+      </c>
+      <c r="I6" s="1" t="str" cm="1">
+        <f t="array" ref="I6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+        <v>Off Campus - Collin Meisenburg</v>
+      </c>
+      <c r="J6" s="1" cm="1">
+        <f t="array" ref="J6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+        <v>44438</v>
+      </c>
+      <c r="K6" s="1" t="str" cm="1">
+        <f t="array" ref="K6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+        <v>Home 8/30</v>
+      </c>
+      <c r="L6" s="1" cm="1">
+        <f t="array" ref="L6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+        <v>44448</v>
+      </c>
+      <c r="M6" s="1" t="str" cm="1">
+        <f t="array" ref="M6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+        <v>David</v>
+      </c>
+      <c r="N6" s="1" t="str" cm="1">
+        <f t="array" ref="N6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="O6" s="1" t="str" cm="1">
+        <f t="array" ref="O6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P6" s="1" t="str" cm="1">
+        <f t="array" ref="P6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+        <v>Kristin TT.</v>
+      </c>
+      <c r="Q6" s="1" t="str" cm="1">
+        <f t="array" ref="Q6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v>8/29 - congestion</v>
+      </c>
+      <c r="R6" s="1" t="str" cm="1">
+        <f t="array" ref="R6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S6" s="1" t="str" cm="1">
+        <f t="array" ref="S6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T6" s="1" t="str" cm="1">
+        <f t="array" ref="T6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>1250699</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="1" t="str" cm="1">
+        <f t="array" ref="D7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
+        <v>563-203-2947</v>
+      </c>
+      <c r="E7" s="1" t="str" cm="1">
+        <f t="array" ref="E7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F7" s="1" t="str" cm="1">
+        <f t="array" ref="F7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
+        <v xml:space="preserve">9/10/21 Wartburg </v>
+      </c>
+      <c r="G7" s="1" t="str" cm="1">
+        <f t="array" ref="G7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
+        <v>Postive</v>
+      </c>
+      <c r="H7" s="1" t="str" cm="1">
+        <f t="array" ref="H7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="I7" s="1" t="str" cm="1">
+        <f t="array" ref="I7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="J7" s="1" cm="1">
+        <f t="array" ref="J7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+        <v>44449</v>
+      </c>
+      <c r="K7" s="1" t="str" cm="1">
+        <f t="array" ref="K7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+        <v>HOME</v>
+      </c>
+      <c r="L7" s="1" cm="1">
+        <f t="array" ref="L7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+        <v>44459</v>
+      </c>
+      <c r="M7" s="1" t="str" cm="1">
+        <f t="array" ref="M7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+        <v>Danny</v>
+      </c>
+      <c r="N7" s="1" t="str" cm="1">
+        <f t="array" ref="N7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="O7" s="1" cm="1">
+        <f t="array" ref="O7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+        <v>44459</v>
+      </c>
+      <c r="P7" s="1" t="str" cm="1">
+        <f t="array" ref="P7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+        <v>Cassie H.</v>
+      </c>
+      <c r="Q7" s="1" t="str" cm="1">
+        <f t="array" ref="Q7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v>no communication returned</v>
+      </c>
+      <c r="R7" s="1" t="str" cm="1">
+        <f t="array" ref="R7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S7" s="1" t="str" cm="1">
+        <f t="array" ref="S7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T7" s="1" t="str" cm="1">
+        <f t="array" ref="T7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8">
+        <v>1244320</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="1" t="str" cm="1">
+        <f t="array" ref="D8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
+        <v>960)771-4998 - does not work</v>
+      </c>
+      <c r="E8" s="1" t="str" cm="1">
+        <f t="array" ref="E8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F8" s="1" t="str" cm="1">
+        <f t="array" ref="F8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
+        <v xml:space="preserve">9/15/2021 Wartburg </v>
+      </c>
+      <c r="G8" s="1" t="str" cm="1">
+        <f t="array" ref="G8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
+        <v>Positive</v>
+      </c>
+      <c r="H8" s="1" cm="1">
+        <f t="array" ref="H8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
+        <v>44449</v>
+      </c>
+      <c r="I8" s="1" t="str" cm="1">
+        <f t="array" ref="I8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+        <v>Roommate- Kade Munkel</v>
+      </c>
+      <c r="J8" s="1" cm="1">
+        <f t="array" ref="J8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+        <v>44450</v>
+      </c>
+      <c r="K8" s="1" t="str" cm="1">
+        <f t="array" ref="K8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+        <v>Hebron Apartment</v>
+      </c>
+      <c r="L8" s="1" cm="1">
+        <f t="array" ref="L8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+        <v>44248</v>
+      </c>
+      <c r="M8" s="1" t="str" cm="1">
+        <f t="array" ref="M8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Ryan </v>
+      </c>
+      <c r="N8" s="1" t="str" cm="1">
+        <f t="array" ref="N8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="O8" s="1" cm="1">
+        <f t="array" ref="O8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+        <v>44460</v>
+      </c>
+      <c r="P8" s="1" t="str" cm="1">
+        <f t="array" ref="P8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+        <v>Courtney TS</v>
+      </c>
+      <c r="Q8" s="1" t="str" cm="1">
+        <f t="array" ref="Q8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v>Fever; cough, sore eyes/nose - 9/16; Cough, losing taste/smell - 9/17;</v>
+      </c>
+      <c r="R8" s="1" t="str" cm="1">
+        <f t="array" ref="R8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+        <v xml:space="preserve">No Pork, </v>
+      </c>
+      <c r="S8" s="1" t="str" cm="1">
+        <f t="array" ref="S8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T8" s="1" t="str" cm="1">
+        <f t="array" ref="T8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC357540-4F5F-4E17-B510-319E9A338038}">
+  <dimension ref="A1:AM9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="19.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1250699</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44449</v>
+      </c>
+      <c r="J2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="3">
+        <v>44459</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="3">
+        <v>44459</v>
+      </c>
+      <c r="O2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1244320</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44449</v>
+      </c>
+      <c r="H3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="3">
+        <v>44450</v>
+      </c>
+      <c r="J3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44248</v>
+      </c>
+      <c r="L3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="3">
+        <v>44460</v>
+      </c>
+      <c r="O3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>1232227</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="str" cm="1">
-        <f t="array" ref="C4">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A4&gt;0,MATCH('Infected Students'!$A4,Ipaste!$A:$A,0), MATCH('Infected Students'!$B4,Ipaste!$B:$B,0)), MATCH('Infected Students'!C$1,Ipaste!$1:$1,0))</f>
-        <v>309-912-3637</v>
-      </c>
-      <c r="D4" s="4" cm="1">
-        <f t="array" ref="D4">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A4&gt;0,MATCH('Infected Students'!$A4,Ipaste!$A:$A,0), MATCH('Infected Students'!$B4,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))</f>
-        <v>36695</v>
-      </c>
-      <c r="E4" s="1" t="str" cm="1">
-        <f t="array" ref="E4">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A4&gt;0,MATCH('Infected Students'!$A4,Ipaste!$A:$A,0), MATCH('Infected Students'!$B4,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))</f>
-        <v>Wartburg</v>
-      </c>
-      <c r="F4" s="1" t="str" cm="1">
-        <f t="array" ref="F4">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A4&gt;0,MATCH('Infected Students'!$A4,Ipaste!$A:$A,0), MATCH('Infected Students'!$B4,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))</f>
-        <v>Positive (8/20/21)</v>
-      </c>
-      <c r="G4" s="1" t="str" cm="1">
-        <f t="array" ref="G4">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A4&gt;0,MATCH('Infected Students'!$A4,Ipaste!$A:$A,0), MATCH('Infected Students'!$B4,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))</f>
-        <v>unknown</v>
-      </c>
-      <c r="H4" s="1" t="str" cm="1">
-        <f t="array" ref="H4">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A4&gt;0,MATCH('Infected Students'!$A4,Ipaste!$A:$A,0), MATCH('Infected Students'!$B4,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))</f>
-        <v>Off-campus</v>
-      </c>
-      <c r="I4" s="4" cm="1">
-        <f t="array" ref="I4">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A4&gt;0,MATCH('Infected Students'!$A4,Ipaste!$A:$A,0), MATCH('Infected Students'!$B4,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))</f>
-        <v>44428</v>
-      </c>
-      <c r="J4" s="1" t="str" cm="1">
-        <f t="array" ref="J4">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A4&gt;0,MATCH('Infected Students'!$A4,Ipaste!$A:$A,0), MATCH('Infected Students'!$B4,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))</f>
-        <v>Home</v>
-      </c>
-      <c r="K4" s="4" cm="1">
-        <f t="array" ref="K4">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A4&gt;0,MATCH('Infected Students'!$A4,Ipaste!$A:$A,0), MATCH('Infected Students'!$B4,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))</f>
-        <v>44438</v>
-      </c>
-      <c r="L4" s="1" t="str" cm="1">
-        <f t="array" ref="L4">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A4&gt;0,MATCH('Infected Students'!$A4,Ipaste!$A:$A,0), MATCH('Infected Students'!$B4,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))</f>
-        <v>David</v>
-      </c>
-      <c r="M4" s="1" t="str" cm="1">
-        <f t="array" ref="M4">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A4&gt;0,MATCH('Infected Students'!$A4,Ipaste!$A:$A,0), MATCH('Infected Students'!$B4,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))</f>
-        <v>N/A</v>
-      </c>
-      <c r="N4" s="1" cm="1">
-        <f t="array" ref="N4">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A4&gt;0,MATCH('Infected Students'!$A4,Ipaste!$A:$A,0), MATCH('Infected Students'!$B4,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="str" cm="1">
-        <f t="array" ref="O4">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A4&gt;0,MATCH('Infected Students'!$A4,Ipaste!$A:$A,0), MATCH('Infected Students'!$B4,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))</f>
-        <v>Danny</v>
-      </c>
-      <c r="P4" s="1" cm="1">
-        <f t="array" ref="P4">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A4&gt;0,MATCH('Infected Students'!$A4,Ipaste!$A:$A,0), MATCH('Infected Students'!$B4,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1" cm="1">
-        <f t="array" ref="Q4">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A4&gt;0,MATCH('Infected Students'!$A4,Ipaste!$A:$A,0), MATCH('Infected Students'!$B4,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" cm="1">
-        <f t="array" ref="R4">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A4&gt;0,MATCH('Infected Students'!$A4,Ipaste!$A:$A,0), MATCH('Infected Students'!$B4,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="1" cm="1">
-        <f t="array" ref="S4">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A4&gt;0,MATCH('Infected Students'!$A4,Ipaste!$A:$A,0), MATCH('Infected Students'!$B4,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="A4" s="29">
+        <v>1235116</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="32">
+        <v>44425</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="35">
+        <v>44435</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="37"/>
+      <c r="O4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29" t="s">
+        <v>7</v>
+      </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1401,82 +2166,48 @@
       <c r="AM4" s="2"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>1233601</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="str" cm="1">
-        <f t="array" ref="C5">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A5&gt;0,MATCH('Infected Students'!$A5,Ipaste!$A:$A,0), MATCH('Infected Students'!$B5,Ipaste!$B:$B,0)), MATCH('Infected Students'!C$1,Ipaste!$1:$1,0))</f>
-        <v>515-205-6696</v>
-      </c>
-      <c r="D5" s="4" cm="1">
-        <f t="array" ref="D5">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A5&gt;0,MATCH('Infected Students'!$A5,Ipaste!$A:$A,0), MATCH('Infected Students'!$B5,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))</f>
-        <v>37013</v>
-      </c>
-      <c r="E5" s="1" t="str" cm="1">
-        <f t="array" ref="E5">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A5&gt;0,MATCH('Infected Students'!$A5,Ipaste!$A:$A,0), MATCH('Infected Students'!$B5,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))</f>
-        <v>Wartburg</v>
-      </c>
-      <c r="F5" s="1" t="str" cm="1">
-        <f t="array" ref="F5">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A5&gt;0,MATCH('Infected Students'!$A5,Ipaste!$A:$A,0), MATCH('Infected Students'!$B5,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))</f>
-        <v>Positive (8/20/21)</v>
-      </c>
-      <c r="G5" s="1" t="str" cm="1">
-        <f t="array" ref="G5">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A5&gt;0,MATCH('Infected Students'!$A5,Ipaste!$A:$A,0), MATCH('Infected Students'!$B5,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))</f>
-        <v>unknown</v>
-      </c>
-      <c r="H5" s="1" t="str" cm="1">
-        <f t="array" ref="H5">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A5&gt;0,MATCH('Infected Students'!$A5,Ipaste!$A:$A,0), MATCH('Infected Students'!$B5,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))</f>
-        <v>Off-campus</v>
-      </c>
-      <c r="I5" s="4" cm="1">
-        <f t="array" ref="I5">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A5&gt;0,MATCH('Infected Students'!$A5,Ipaste!$A:$A,0), MATCH('Infected Students'!$B5,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))</f>
-        <v>44428</v>
-      </c>
-      <c r="J5" s="1" t="str" cm="1">
-        <f t="array" ref="J5">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A5&gt;0,MATCH('Infected Students'!$A5,Ipaste!$A:$A,0), MATCH('Infected Students'!$B5,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))</f>
-        <v>FOUNDERS APARTMENT</v>
-      </c>
-      <c r="K5" s="4" cm="1">
-        <f t="array" ref="K5">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A5&gt;0,MATCH('Infected Students'!$A5,Ipaste!$A:$A,0), MATCH('Infected Students'!$B5,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))</f>
-        <v>44438</v>
-      </c>
-      <c r="L5" s="1" t="str" cm="1">
-        <f t="array" ref="L5">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A5&gt;0,MATCH('Infected Students'!$A5,Ipaste!$A:$A,0), MATCH('Infected Students'!$B5,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))</f>
-        <v>David</v>
-      </c>
-      <c r="M5" s="1" t="str" cm="1">
-        <f t="array" ref="M5">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A5&gt;0,MATCH('Infected Students'!$A5,Ipaste!$A:$A,0), MATCH('Infected Students'!$B5,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))</f>
-        <v>YES</v>
-      </c>
-      <c r="N5" s="1" cm="1">
-        <f t="array" ref="N5">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A5&gt;0,MATCH('Infected Students'!$A5,Ipaste!$A:$A,0), MATCH('Infected Students'!$B5,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="str" cm="1">
-        <f t="array" ref="O5">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A5&gt;0,MATCH('Infected Students'!$A5,Ipaste!$A:$A,0), MATCH('Infected Students'!$B5,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))</f>
-        <v>Danny</v>
-      </c>
-      <c r="P5" s="1" cm="1">
-        <f t="array" ref="P5">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A5&gt;0,MATCH('Infected Students'!$A5,Ipaste!$A:$A,0), MATCH('Infected Students'!$B5,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1" cm="1">
-        <f t="array" ref="Q5">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A5&gt;0,MATCH('Infected Students'!$A5,Ipaste!$A:$A,0), MATCH('Infected Students'!$B5,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="1" cm="1">
-        <f t="array" ref="R5">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A5&gt;0,MATCH('Infected Students'!$A5,Ipaste!$A:$A,0), MATCH('Infected Students'!$B5,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="1" cm="1">
-        <f t="array" ref="S5">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A5&gt;0,MATCH('Infected Students'!$A5,Ipaste!$A:$A,0), MATCH('Infected Students'!$B5,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="32">
+        <v>44427</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="35">
+        <v>44437</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="37"/>
+      <c r="O5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1497,592 +2228,6 @@
       <c r="AM5" s="2"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="str" cm="1">
-        <f t="array" ref="C6">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A6&gt;0,MATCH('Infected Students'!$A6,Ipaste!$A:$A,0), MATCH('Infected Students'!$B6,Ipaste!$B:$B,0)), MATCH('Infected Students'!C$1,Ipaste!$1:$1,0))</f>
-        <v>(651)447-3716</v>
-      </c>
-      <c r="D6" s="4" cm="1">
-        <f t="array" ref="D6">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A6&gt;0,MATCH('Infected Students'!$A6,Ipaste!$A:$A,0), MATCH('Infected Students'!$B6,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))</f>
-        <v>37763</v>
-      </c>
-      <c r="E6" s="1" t="str" cm="1">
-        <f t="array" ref="E6">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A6&gt;0,MATCH('Infected Students'!$A6,Ipaste!$A:$A,0), MATCH('Infected Students'!$B6,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))</f>
-        <v xml:space="preserve">8/30 - Wartburg </v>
-      </c>
-      <c r="F6" s="1" t="str" cm="1">
-        <f t="array" ref="F6">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A6&gt;0,MATCH('Infected Students'!$A6,Ipaste!$A:$A,0), MATCH('Infected Students'!$B6,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))</f>
-        <v>Positive</v>
-      </c>
-      <c r="G6" s="1" cm="1">
-        <f t="array" ref="G6">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A6&gt;0,MATCH('Infected Students'!$A6,Ipaste!$A:$A,0), MATCH('Infected Students'!$B6,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))</f>
-        <v>44434</v>
-      </c>
-      <c r="H6" s="1" t="str" cm="1">
-        <f t="array" ref="H6">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A6&gt;0,MATCH('Infected Students'!$A6,Ipaste!$A:$A,0), MATCH('Infected Students'!$B6,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))</f>
-        <v>Off Campus - Collin Meisenburg</v>
-      </c>
-      <c r="I6" s="4" cm="1">
-        <f t="array" ref="I6">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A6&gt;0,MATCH('Infected Students'!$A6,Ipaste!$A:$A,0), MATCH('Infected Students'!$B6,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))</f>
-        <v>44438</v>
-      </c>
-      <c r="J6" s="1" t="str" cm="1">
-        <f t="array" ref="J6">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A6&gt;0,MATCH('Infected Students'!$A6,Ipaste!$A:$A,0), MATCH('Infected Students'!$B6,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))</f>
-        <v>Home 8/30</v>
-      </c>
-      <c r="K6" s="4" cm="1">
-        <f t="array" ref="K6">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A6&gt;0,MATCH('Infected Students'!$A6,Ipaste!$A:$A,0), MATCH('Infected Students'!$B6,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))</f>
-        <v>44448</v>
-      </c>
-      <c r="L6" s="1" t="str" cm="1">
-        <f t="array" ref="L6">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A6&gt;0,MATCH('Infected Students'!$A6,Ipaste!$A:$A,0), MATCH('Infected Students'!$B6,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))</f>
-        <v>David</v>
-      </c>
-      <c r="M6" s="1" t="str" cm="1">
-        <f t="array" ref="M6">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A6&gt;0,MATCH('Infected Students'!$A6,Ipaste!$A:$A,0), MATCH('Infected Students'!$B6,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))</f>
-        <v>YES</v>
-      </c>
-      <c r="N6" s="1" cm="1">
-        <f t="array" ref="N6">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A6&gt;0,MATCH('Infected Students'!$A6,Ipaste!$A:$A,0), MATCH('Infected Students'!$B6,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="1" t="str" cm="1">
-        <f t="array" ref="O6">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A6&gt;0,MATCH('Infected Students'!$A6,Ipaste!$A:$A,0), MATCH('Infected Students'!$B6,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))</f>
-        <v>Kristin TT.</v>
-      </c>
-      <c r="P6" s="1" t="str" cm="1">
-        <f t="array" ref="P6">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A6&gt;0,MATCH('Infected Students'!$A6,Ipaste!$A:$A,0), MATCH('Infected Students'!$B6,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))</f>
-        <v>8/29 - congestion</v>
-      </c>
-      <c r="Q6" s="1" cm="1">
-        <f t="array" ref="Q6">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A6&gt;0,MATCH('Infected Students'!$A6,Ipaste!$A:$A,0), MATCH('Infected Students'!$B6,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="1" cm="1">
-        <f t="array" ref="R6">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A6&gt;0,MATCH('Infected Students'!$A6,Ipaste!$A:$A,0), MATCH('Infected Students'!$B6,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="1" cm="1">
-        <f t="array" ref="S6">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A6&gt;0,MATCH('Infected Students'!$A6,Ipaste!$A:$A,0), MATCH('Infected Students'!$B6,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>1250699</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="1" t="str" cm="1">
-        <f t="array" ref="C7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!C$1,Ipaste!$1:$1,0))</f>
-        <v>563-203-2947</v>
-      </c>
-      <c r="D7" s="4" cm="1">
-        <f t="array" ref="D7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="str" cm="1">
-        <f t="array" ref="E7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))</f>
-        <v xml:space="preserve">9/10/21 Wartburg </v>
-      </c>
-      <c r="F7" s="1" t="str" cm="1">
-        <f t="array" ref="F7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))</f>
-        <v>Postive</v>
-      </c>
-      <c r="G7" s="1" t="str" cm="1">
-        <f t="array" ref="G7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))</f>
-        <v>Unknown</v>
-      </c>
-      <c r="H7" s="1" t="str" cm="1">
-        <f t="array" ref="H7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))</f>
-        <v>Unknown</v>
-      </c>
-      <c r="I7" s="4" cm="1">
-        <f t="array" ref="I7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))</f>
-        <v>44449</v>
-      </c>
-      <c r="J7" s="1" t="str" cm="1">
-        <f t="array" ref="J7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))</f>
-        <v>HOME</v>
-      </c>
-      <c r="K7" s="4" cm="1">
-        <f t="array" ref="K7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))</f>
-        <v>44459</v>
-      </c>
-      <c r="L7" s="1" t="str" cm="1">
-        <f t="array" ref="L7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))</f>
-        <v>Danny</v>
-      </c>
-      <c r="M7" s="1" t="str" cm="1">
-        <f t="array" ref="M7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))</f>
-        <v>YES</v>
-      </c>
-      <c r="N7" s="1" cm="1">
-        <f t="array" ref="N7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))</f>
-        <v>44459</v>
-      </c>
-      <c r="O7" s="1" t="str" cm="1">
-        <f t="array" ref="O7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))</f>
-        <v>Cassie H.</v>
-      </c>
-      <c r="P7" s="1" cm="1">
-        <f t="array" ref="P7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1" cm="1">
-        <f t="array" ref="Q7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="1" cm="1">
-        <f t="array" ref="R7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="1" cm="1">
-        <f t="array" ref="S7">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A7&gt;0,MATCH('Infected Students'!$A7,Ipaste!$A:$A,0), MATCH('Infected Students'!$B7,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>1244320</v>
-      </c>
-      <c r="B8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="1" t="str" cm="1">
-        <f t="array" ref="C8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!C$1,Ipaste!$1:$1,0))</f>
-        <v>960)771-4998 - does not work</v>
-      </c>
-      <c r="D8" s="4" cm="1">
-        <f t="array" ref="D8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="str" cm="1">
-        <f t="array" ref="E8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))</f>
-        <v xml:space="preserve">9/15/2021 Wartburg </v>
-      </c>
-      <c r="F8" s="1" t="str" cm="1">
-        <f t="array" ref="F8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))</f>
-        <v>Positive</v>
-      </c>
-      <c r="G8" s="1" cm="1">
-        <f t="array" ref="G8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))</f>
-        <v>44449</v>
-      </c>
-      <c r="H8" s="1" t="str" cm="1">
-        <f t="array" ref="H8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))</f>
-        <v>Roommate- Kade Munkel</v>
-      </c>
-      <c r="I8" s="4" cm="1">
-        <f t="array" ref="I8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))</f>
-        <v>44450</v>
-      </c>
-      <c r="J8" s="1" t="str" cm="1">
-        <f t="array" ref="J8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))</f>
-        <v>Hebron Apartment</v>
-      </c>
-      <c r="K8" s="4" cm="1">
-        <f t="array" ref="K8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))</f>
-        <v>44248</v>
-      </c>
-      <c r="L8" s="1" t="str" cm="1">
-        <f t="array" ref="L8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))</f>
-        <v xml:space="preserve">Ryan </v>
-      </c>
-      <c r="M8" s="1" t="str" cm="1">
-        <f t="array" ref="M8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))</f>
-        <v>YES</v>
-      </c>
-      <c r="N8" s="1" cm="1">
-        <f t="array" ref="N8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))</f>
-        <v>44460</v>
-      </c>
-      <c r="O8" s="1" t="str" cm="1">
-        <f t="array" ref="O8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))</f>
-        <v>Courtney TS</v>
-      </c>
-      <c r="P8" s="1" t="str" cm="1">
-        <f t="array" ref="P8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))</f>
-        <v>9/15 - fever; cough; sore eyes/nose;</v>
-      </c>
-      <c r="Q8" s="1" t="str" cm="1">
-        <f t="array" ref="Q8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))</f>
-        <v xml:space="preserve">No Pork, </v>
-      </c>
-      <c r="R8" s="1" cm="1">
-        <f t="array" ref="R8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" cm="1">
-        <f t="array" ref="S8">INDEX(Ipaste!$A:$T,IF('Infected Students'!$A8&gt;0,MATCH('Infected Students'!$A8,Ipaste!$A:$A,0), MATCH('Infected Students'!$B8,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC357540-4F5F-4E17-B510-319E9A338038}">
-  <dimension ref="A1:AM9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="8" max="8" width="19.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1250699</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="3">
-        <v>44449</v>
-      </c>
-      <c r="J2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="3">
-        <v>44459</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="3">
-        <v>44459</v>
-      </c>
-      <c r="O2" t="s">
-        <v>118</v>
-      </c>
-      <c r="T2" t="s">
-        <v>109</v>
-      </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1244320</v>
-      </c>
-      <c r="B3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3">
-        <v>44449</v>
-      </c>
-      <c r="H3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" s="3">
-        <v>44450</v>
-      </c>
-      <c r="J3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="3">
-        <v>44248</v>
-      </c>
-      <c r="L3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="3">
-        <v>44460</v>
-      </c>
-      <c r="O3" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>126</v>
-      </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>1235116</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="4">
-        <v>44425</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="6">
-        <v>44435</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <v>44427</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="6">
-        <v>44437</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1232227</v>
       </c>
@@ -2110,30 +2255,48 @@
       <c r="I6" s="4">
         <v>44428</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>44438</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="8"/>
+      <c r="N6" s="7"/>
       <c r="O6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="9"/>
+      <c r="P6" s="8"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="10"/>
+      <c r="R6" s="9"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="U6" s="1"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -2163,121 +2326,124 @@
       <c r="I7" s="4">
         <v>44428</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>44438</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="8"/>
+      <c r="N7" s="7"/>
       <c r="O7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="9"/>
+      <c r="P7" s="8"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="10"/>
+      <c r="R7" s="9"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="U7" s="1"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="31">
         <v>37763</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="31">
         <v>44434</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="31">
         <v>44438</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="31">
         <v>44448</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="O8" t="s">
+      <c r="N8" s="30"/>
+      <c r="O8" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="T8" t="s">
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30" t="s">
         <v>47</v>
       </c>
+      <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="4">
-        <v>44449</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="6">
-        <v>44459</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="8"/>
+      <c r="N9" s="7"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="9"/>
+      <c r="P9" s="8"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="10"/>
+      <c r="R9" s="9"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2357,7 +2523,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1248095</v>
       </c>
       <c r="B2" t="str">
@@ -2681,11 +2847,11 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.45">
-      <c r="A6" s="28">
+      <c r="A6" s="27">
         <v>1249163</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>110</v>
+      <c r="B6" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="C6" t="e">
         <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
@@ -2765,7 +2931,7 @@
         <v>1245755</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" t="str">
         <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
@@ -2845,7 +3011,7 @@
         <v>1244590</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C8">
         <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
@@ -2925,7 +3091,7 @@
         <v>1248196</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" t="str">
         <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
@@ -3005,7 +3171,7 @@
         <v>1235078</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" t="str">
         <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
@@ -3085,7 +3251,7 @@
         <v>1245967</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C11" t="str">
         <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
@@ -3242,40 +3408,40 @@
         <v>1245755</v>
       </c>
       <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
         <v>127</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>128</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>129</v>
-      </c>
-      <c r="G2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" t="s">
-        <v>131</v>
       </c>
       <c r="I2" s="3">
         <v>44454</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
@@ -3283,37 +3449,37 @@
         <v>1244590</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F3" s="3">
         <v>44454</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I3" s="3">
         <v>44454</v>
       </c>
       <c r="J3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -3321,34 +3487,34 @@
         <v>1248196</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" s="3">
         <v>44455</v>
       </c>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I4" s="3">
         <v>44455</v>
       </c>
       <c r="J4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M4" t="s">
         <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
@@ -3356,34 +3522,34 @@
         <v>1235078</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F5" s="3">
         <v>44455</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I5" s="3">
         <v>44455</v>
       </c>
       <c r="J5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M5" t="s">
         <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
@@ -3391,54 +3557,54 @@
         <v>1245967</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F6" s="3">
         <v>44455</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I6" s="3">
         <v>44455</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M6" t="s">
         <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>1248095</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="4">
         <v>37619</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>44434</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -3447,30 +3613,30 @@
       <c r="I7" s="4">
         <v>44434</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>44442</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>62</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="21">
         <v>44448</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="24"/>
+      <c r="S7" s="23"/>
       <c r="T7" s="1" t="s">
         <v>47</v>
       </c>
@@ -3479,20 +3645,20 @@
       <c r="A8" s="1">
         <v>1248351</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="4">
         <v>37668</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>44434</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -3501,30 +3667,30 @@
       <c r="I8" s="4">
         <v>44434</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>44442</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>62</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="21">
         <v>44448</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="7" t="s">
         <v>67</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="24"/>
+      <c r="S8" s="23"/>
       <c r="T8" s="1" t="s">
         <v>47</v>
       </c>
@@ -3533,20 +3699,20 @@
       <c r="A9" s="1">
         <v>1246184</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="4">
         <v>37536</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>44434</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -3555,30 +3721,30 @@
       <c r="I9" s="4">
         <v>44434</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>44442</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>62</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="21">
         <v>44448</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="O9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="7" t="s">
         <v>70</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="24"/>
+      <c r="S9" s="23"/>
       <c r="T9" s="1" t="s">
         <v>47</v>
       </c>
@@ -3587,18 +3753,18 @@
       <c r="A10" s="1">
         <v>1240577</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>99</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -3610,25 +3776,25 @@
       <c r="J10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="O10" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="7" t="s">
         <v>104</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="24"/>
+      <c r="S10" s="23"/>
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
@@ -3636,7 +3802,7 @@
         <v>1249163</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" t="e">
         <v>#N/A</v>
@@ -3645,16 +3811,16 @@
         <v>44452</v>
       </c>
       <c r="G11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" t="s">
         <v>111</v>
-      </c>
-      <c r="H11" t="s">
-        <v>112</v>
       </c>
       <c r="I11">
         <v>44452</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
         <v>101</v>
@@ -3666,11 +3832,3029 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A10FFB-DB3F-470D-B9BC-87C08C3BCAF7}">
+  <dimension ref="A1:U25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.453125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1235116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Wartburg</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Positive</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Off-campus</v>
+      </c>
+      <c r="K2">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44425</v>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Off-campus</v>
+      </c>
+      <c r="M2">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44435</v>
+      </c>
+      <c r="N2" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Danny</v>
+      </c>
+      <c r="O2" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>N/A</v>
+      </c>
+      <c r="P2" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q2" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Danny</v>
+      </c>
+      <c r="R2" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S2" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T2" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>wartburg</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>postive</v>
+      </c>
+      <c r="I3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="J3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="K3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44427</v>
+      </c>
+      <c r="L3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Home</v>
+      </c>
+      <c r="M3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44437</v>
+      </c>
+      <c r="N3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Danny</v>
+      </c>
+      <c r="O3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>N/A</v>
+      </c>
+      <c r="P3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Danny</v>
+      </c>
+      <c r="R3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1232227</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>309-912-3637</v>
+      </c>
+      <c r="D4">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>36695</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Wartburg</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="28">
+        <v>44428</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Positive (8/20/21)</v>
+      </c>
+      <c r="I4" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="J4" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Off-campus</v>
+      </c>
+      <c r="K4">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44428</v>
+      </c>
+      <c r="L4" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Home</v>
+      </c>
+      <c r="M4">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44438</v>
+      </c>
+      <c r="N4" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>David</v>
+      </c>
+      <c r="O4" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>N/A</v>
+      </c>
+      <c r="P4" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Danny</v>
+      </c>
+      <c r="R4" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1233601</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>515-205-6696</v>
+      </c>
+      <c r="D5">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>37013</v>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Wartburg</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="28">
+        <v>44428</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Positive (8/20/21)</v>
+      </c>
+      <c r="I5" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="J5" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Off-campus</v>
+      </c>
+      <c r="K5">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44428</v>
+      </c>
+      <c r="L5" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>FOUNDERS APARTMENT</v>
+      </c>
+      <c r="M5">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44438</v>
+      </c>
+      <c r="N5" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>David</v>
+      </c>
+      <c r="O5" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P5" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Danny</v>
+      </c>
+      <c r="R5" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1240577</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>(641) 530-9068</v>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="28">
+        <v>44445</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>9/6 Noah - negative</v>
+      </c>
+      <c r="I6" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="J6" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="K6">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44445</v>
+      </c>
+      <c r="L6" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>LOH 355C</v>
+      </c>
+      <c r="M6" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">Pending </v>
+      </c>
+      <c r="N6" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P6" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>pending</v>
+      </c>
+      <c r="Q6" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Josh B.</v>
+      </c>
+      <c r="R6" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>9/7 - emailed, negative test</v>
+      </c>
+      <c r="S6" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1246930</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>(309)207-5220</v>
+      </c>
+      <c r="D7">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>37783</v>
+      </c>
+      <c r="E7" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Wartburg</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="28">
+        <v>44434</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Positive (8/26/21)</v>
+      </c>
+      <c r="I7" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="J7" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Off-campus</v>
+      </c>
+      <c r="K7">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44434</v>
+      </c>
+      <c r="L7" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>HOME 8/27</v>
+      </c>
+      <c r="M7">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44444</v>
+      </c>
+      <c r="N7" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Kaiden</v>
+      </c>
+      <c r="O7" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P7" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Kristin TT.</v>
+      </c>
+      <c r="R7" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>8/27 - delivered his books prior to leaving campus 8/28 not feeling great - getting OTC meds 8/29 still feeling ill 8/30 no change in symptoms 8/31 Collin has started to feel better / Collin has checked in everyday  - he is slowly starting to feel beter.</v>
+      </c>
+      <c r="S7" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1248095</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>(815)514-5259</v>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E8">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>37619</v>
+      </c>
+      <c r="F8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="28">
+        <v>44440</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>9/1 - Antigen - Negative</v>
+      </c>
+      <c r="I8">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44434</v>
+      </c>
+      <c r="J8" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Off-campus/Collin Meisenburg</v>
+      </c>
+      <c r="K8">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44434</v>
+      </c>
+      <c r="L8" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Home</v>
+      </c>
+      <c r="M8">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44442</v>
+      </c>
+      <c r="N8" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>DK</v>
+      </c>
+      <c r="O8" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P8">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44448</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Kristin TT.</v>
+      </c>
+      <c r="R8" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>8/27 enail sent - no symptoms</v>
+      </c>
+      <c r="S8" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1248351</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>(319)560-8928</v>
+      </c>
+      <c r="D9" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E9">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>37668</v>
+      </c>
+      <c r="F9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="28">
+        <v>44441</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>9/2 - Wartburg - Antigen - Negative</v>
+      </c>
+      <c r="I9">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44434</v>
+      </c>
+      <c r="J9" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Off-campus/Collin Meisenburg</v>
+      </c>
+      <c r="K9">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44434</v>
+      </c>
+      <c r="L9" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Home</v>
+      </c>
+      <c r="M9">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44442</v>
+      </c>
+      <c r="N9" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>DK</v>
+      </c>
+      <c r="O9" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P9">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44448</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Kristin TT.</v>
+      </c>
+      <c r="R9" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>8/27 email sent - no symptoms</v>
+      </c>
+      <c r="S9" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>(515)236-0414</v>
+      </c>
+      <c r="D10" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E10">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>37536</v>
+      </c>
+      <c r="F10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="28">
+        <v>44440</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>9/1 - Antigen - Negative</v>
+      </c>
+      <c r="I10">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44434</v>
+      </c>
+      <c r="J10" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Off-campus/Collin Meisenburg</v>
+      </c>
+      <c r="K10">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44434</v>
+      </c>
+      <c r="L10" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Home</v>
+      </c>
+      <c r="M10">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44442</v>
+      </c>
+      <c r="N10" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>DK</v>
+      </c>
+      <c r="O10" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P10">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44448</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Kristin TT.</v>
+      </c>
+      <c r="R10" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">8/27 email sent  </v>
+      </c>
+      <c r="S10" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>(651)447-3716</v>
+      </c>
+      <c r="D11">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>37763</v>
+      </c>
+      <c r="E11" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">8/30 - Wartburg </v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Positive</v>
+      </c>
+      <c r="I11">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44434</v>
+      </c>
+      <c r="J11" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Off Campus - Collin Meisenburg</v>
+      </c>
+      <c r="K11">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44438</v>
+      </c>
+      <c r="L11" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Home 8/30</v>
+      </c>
+      <c r="M11">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44448</v>
+      </c>
+      <c r="N11" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>David</v>
+      </c>
+      <c r="O11" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P11" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Kristin TT.</v>
+      </c>
+      <c r="R11" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Communicated with Griffin several times as he is in my IS 101. He is doing well. KTT</v>
+      </c>
+      <c r="S11" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>641-330-1138</v>
+      </c>
+      <c r="D12" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F12"/>
+      <c r="G12" s="28">
+        <v>44447</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">9/8/2021 Noah </v>
+      </c>
+      <c r="I12" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="J12" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="K12">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44447</v>
+      </c>
+      <c r="L12" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">HEB 264 </v>
+      </c>
+      <c r="M12">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44447</v>
+      </c>
+      <c r="N12" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R12" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>9/8 negative test, released from quarantine (JO)</v>
+      </c>
+      <c r="S12" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>319-243-0618</v>
+      </c>
+      <c r="D13" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F13"/>
+      <c r="G13" s="28">
+        <v>44449</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">9/10/2021 Noah </v>
+      </c>
+      <c r="I13" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="J13" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="K13">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44449</v>
+      </c>
+      <c r="L13" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Pending</v>
+      </c>
+      <c r="N13" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R13" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">Fully vaccinated.  </v>
+      </c>
+      <c r="U13" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1249163</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>(563)564-9415</v>
+      </c>
+      <c r="D14" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="28">
+        <v>44452</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>9/13/2021 - negative</v>
+      </c>
+      <c r="I14" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">None </v>
+      </c>
+      <c r="J14" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">none </v>
+      </c>
+      <c r="K14">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44452</v>
+      </c>
+      <c r="L14" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Complex: Heb 371</v>
+      </c>
+      <c r="M14">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44454</v>
+      </c>
+      <c r="N14" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P14" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>pending</v>
+      </c>
+      <c r="Q14" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Cassie H.</v>
+      </c>
+      <c r="R14" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U14" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1239366</v>
+      </c>
+      <c r="B15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>(262)343-6946</v>
+      </c>
+      <c r="D15" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F15"/>
+      <c r="G15" s="28">
+        <v>44453</v>
+      </c>
+      <c r="H15" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44453</v>
+      </c>
+      <c r="I15" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>none</v>
+      </c>
+      <c r="J15" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">unknown </v>
+      </c>
+      <c r="K15">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44453</v>
+      </c>
+      <c r="L15" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>FDS 319</v>
+      </c>
+      <c r="M15">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44454</v>
+      </c>
+      <c r="N15" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P15" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Courtney TS</v>
+      </c>
+      <c r="R15" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">9/15 - email sent; </v>
+      </c>
+      <c r="S15" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U15" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1245755</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>(952)454-4903</v>
+      </c>
+      <c r="D16" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F16"/>
+      <c r="G16" s="28">
+        <v>44453</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Hyvee - 9/14</v>
+      </c>
+      <c r="I16" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>none</v>
+      </c>
+      <c r="J16" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">Unknown </v>
+      </c>
+      <c r="K16">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44454</v>
+      </c>
+      <c r="L16" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>CENT 004</v>
+      </c>
+      <c r="M16">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="N16" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P16" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Pending</v>
+      </c>
+      <c r="Q16" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Courtney TS</v>
+      </c>
+      <c r="R16" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>9/15 - slight runny nose, slight cough;</v>
+      </c>
+      <c r="S16" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1244590</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F17"/>
+      <c r="G17" s="28">
+        <v>44454</v>
+      </c>
+      <c r="H17" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44454</v>
+      </c>
+      <c r="I17" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>none</v>
+      </c>
+      <c r="J17" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">Unknown </v>
+      </c>
+      <c r="K17">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44454</v>
+      </c>
+      <c r="L17" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Complex: HEB 189</v>
+      </c>
+      <c r="M17">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="N17" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P17" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Pending</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Courtney TS</v>
+      </c>
+      <c r="R17" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>No symptoms 9/15; 9/16;</v>
+      </c>
+      <c r="S17" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1248196</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>(319)530-7724</v>
+      </c>
+      <c r="D18" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F18"/>
+      <c r="G18" s="28">
+        <v>44455</v>
+      </c>
+      <c r="H18" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="I18" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>none</v>
+      </c>
+      <c r="J18" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">Unknown </v>
+      </c>
+      <c r="K18">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="L18" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>CLNN 336</v>
+      </c>
+      <c r="M18">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="N18" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P18" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Pending</v>
+      </c>
+      <c r="Q18" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Cassie H.</v>
+      </c>
+      <c r="R18" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>9/16 - email sent</v>
+      </c>
+      <c r="S18" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1235078</v>
+      </c>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>(319)210-8111</v>
+      </c>
+      <c r="D19" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="28">
+        <v>44455</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>9/16/2021 - negative</v>
+      </c>
+      <c r="I19" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>none</v>
+      </c>
+      <c r="J19" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">Unknown </v>
+      </c>
+      <c r="K19">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="L19" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>FDS 211</v>
+      </c>
+      <c r="M19">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="N19" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P19" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Pending</v>
+      </c>
+      <c r="Q19" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Cassie H.</v>
+      </c>
+      <c r="R19" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>9/16 - sore throat, mild chest congestion, cough</v>
+      </c>
+      <c r="S19" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U19" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1245967</v>
+      </c>
+      <c r="B20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>(319)855-2133</v>
+      </c>
+      <c r="D20" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="28">
+        <v>44455</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>9/16/2021 - negative</v>
+      </c>
+      <c r="I20" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>none</v>
+      </c>
+      <c r="J20" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">Unknown </v>
+      </c>
+      <c r="K20">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="L20" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>CLNS 109</v>
+      </c>
+      <c r="M20">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="N20" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P20" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Pending</v>
+      </c>
+      <c r="Q20" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Cassie H.</v>
+      </c>
+      <c r="R20" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>9/16 - mild sore throat</v>
+      </c>
+      <c r="S20" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T20" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U20" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1243914</v>
+      </c>
+      <c r="B21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>no phone</v>
+      </c>
+      <c r="D21" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" s="28">
+        <v>44455</v>
+      </c>
+      <c r="H21" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>9/16/2021 - negative</v>
+      </c>
+      <c r="I21" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>none</v>
+      </c>
+      <c r="J21" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">Unknown </v>
+      </c>
+      <c r="K21">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="L21" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Complex: Heb 075</v>
+      </c>
+      <c r="M21">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="N21" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P21" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Pending</v>
+      </c>
+      <c r="Q21" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Cassie H.</v>
+      </c>
+      <c r="R21" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>9/16 - email sent</v>
+      </c>
+      <c r="S21" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T21" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U21" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F22"/>
+      <c r="G22" s="28">
+        <v>44455</v>
+      </c>
+      <c r="H22" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="I22" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>none</v>
+      </c>
+      <c r="J22" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">none </v>
+      </c>
+      <c r="K22">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="L22" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>GRO 208C</v>
+      </c>
+      <c r="M22">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44456</v>
+      </c>
+      <c r="N22" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P22" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q22" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R22" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S22" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T22" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U22" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1237558</v>
+      </c>
+      <c r="B23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>(580)564-5354</v>
+      </c>
+      <c r="D23" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F23"/>
+      <c r="G23" s="28">
+        <v>44456</v>
+      </c>
+      <c r="H23" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44456</v>
+      </c>
+      <c r="I23" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>none</v>
+      </c>
+      <c r="J23" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">none </v>
+      </c>
+      <c r="K23">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44456</v>
+      </c>
+      <c r="L23" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>KV 503C</v>
+      </c>
+      <c r="M23">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44456</v>
+      </c>
+      <c r="N23" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P23" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q23" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R23" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S23" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T23" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U23" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1212744</v>
+      </c>
+      <c r="B24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>(630)207-6735</v>
+      </c>
+      <c r="D24" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F24"/>
+      <c r="G24" s="28">
+        <v>44456</v>
+      </c>
+      <c r="H24" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44456</v>
+      </c>
+      <c r="I24" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>none</v>
+      </c>
+      <c r="J24" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">none </v>
+      </c>
+      <c r="K24">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44456</v>
+      </c>
+      <c r="L24" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Manors: CORN 015</v>
+      </c>
+      <c r="M24">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44456</v>
+      </c>
+      <c r="N24" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P24" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q24" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R24" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S24" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T24" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U24" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F25"/>
+      <c r="G25" s="28">
+        <v>44456</v>
+      </c>
+      <c r="H25" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44456</v>
+      </c>
+      <c r="I25" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>none</v>
+      </c>
+      <c r="J25" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">none </v>
+      </c>
+      <c r="K25">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44456</v>
+      </c>
+      <c r="L25" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Off campus</v>
+      </c>
+      <c r="M25">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44456</v>
+      </c>
+      <c r="N25" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P25" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R25" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S25" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T25" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U25" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B33359F-1ECB-4015-A969-E5B4078CAA66}">
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1235116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44425</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3">
+        <v>44435</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>44427</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44437</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1232227</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
+        <v>36695</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3">
+        <v>44428</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="3">
+        <v>44438</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1233601</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3">
+        <v>37013</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3">
+        <v>44428</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="3">
+        <v>44438</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1240577</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="3">
+        <v>44445</v>
+      </c>
+      <c r="J6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1246930</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="3">
+        <v>37783</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3">
+        <v>44434</v>
+      </c>
+      <c r="J7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="3">
+        <v>44444</v>
+      </c>
+      <c r="L7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" t="s">
+        <v>157</v>
+      </c>
+      <c r="T7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1248095</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="3">
+        <v>37619</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44434</v>
+      </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44434</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="3">
+        <v>44442</v>
+      </c>
+      <c r="L8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="3">
+        <v>44448</v>
+      </c>
+      <c r="O8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1248351</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="3">
+        <v>37668</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="3">
+        <v>44434</v>
+      </c>
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="3">
+        <v>44434</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="3">
+        <v>44442</v>
+      </c>
+      <c r="L9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="3">
+        <v>44448</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="3">
+        <v>37536</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="3">
+        <v>44434</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="3">
+        <v>44434</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="3">
+        <v>44442</v>
+      </c>
+      <c r="L10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="3">
+        <v>44448</v>
+      </c>
+      <c r="O10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3">
+        <v>37763</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>44434</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="3">
+        <v>44438</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="3">
+        <v>44448</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="3">
+        <v>44447</v>
+      </c>
+      <c r="J12" t="s">
+        <v>162</v>
+      </c>
+      <c r="K12" s="3">
+        <v>44447</v>
+      </c>
+      <c r="P12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="3">
+        <v>44449</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="R13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1249163</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="3">
+        <v>44452</v>
+      </c>
+      <c r="J14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="3">
+        <v>44454</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1239366</v>
+      </c>
+      <c r="B15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="3">
+        <v>44453</v>
+      </c>
+      <c r="G15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" s="3">
+        <v>44453</v>
+      </c>
+      <c r="J15" t="s">
+        <v>173</v>
+      </c>
+      <c r="K15" s="3">
+        <v>44454</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" t="s">
+        <v>123</v>
+      </c>
+      <c r="P15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1245755</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="3">
+        <v>44454</v>
+      </c>
+      <c r="J16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="3">
+        <v>44455</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" t="s">
+        <v>123</v>
+      </c>
+      <c r="P16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1244590</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="3">
+        <v>44454</v>
+      </c>
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="3">
+        <v>44454</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" s="3">
+        <v>44455</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>131</v>
+      </c>
+      <c r="O17" t="s">
+        <v>123</v>
+      </c>
+      <c r="P17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1248196</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="3">
+        <v>44455</v>
+      </c>
+      <c r="G18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="3">
+        <v>44455</v>
+      </c>
+      <c r="J18" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" s="3">
+        <v>44455</v>
+      </c>
+      <c r="M18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" t="s">
+        <v>131</v>
+      </c>
+      <c r="O18" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1235078</v>
+      </c>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="3">
+        <v>44455</v>
+      </c>
+      <c r="J19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K19" s="3">
+        <v>44455</v>
+      </c>
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" t="s">
+        <v>131</v>
+      </c>
+      <c r="O19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1245967</v>
+      </c>
+      <c r="B20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="3">
+        <v>44455</v>
+      </c>
+      <c r="J20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="3">
+        <v>44455</v>
+      </c>
+      <c r="M20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" t="s">
+        <v>131</v>
+      </c>
+      <c r="O20" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1243914</v>
+      </c>
+      <c r="B21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="3">
+        <v>44455</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" s="3">
+        <v>44455</v>
+      </c>
+      <c r="M21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" t="s">
+        <v>117</v>
+      </c>
+      <c r="P21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="3">
+        <v>44455</v>
+      </c>
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="3">
+        <v>44455</v>
+      </c>
+      <c r="J22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" s="3">
+        <v>44456</v>
+      </c>
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1237558</v>
+      </c>
+      <c r="B23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="3">
+        <v>44456</v>
+      </c>
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="3">
+        <v>44456</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" s="3">
+        <v>44456</v>
+      </c>
+      <c r="M23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1212744</v>
+      </c>
+      <c r="B24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" s="3">
+        <v>44456</v>
+      </c>
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="3">
+        <v>44456</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" s="3">
+        <v>44456</v>
+      </c>
+      <c r="M24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="3">
+        <v>44456</v>
+      </c>
+      <c r="G25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="3">
+        <v>44456</v>
+      </c>
+      <c r="J25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" s="3">
+        <v>44456</v>
+      </c>
+      <c r="M25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697DB29A-8071-4245-AA70-F84BFB7723B1}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3884,16 +7068,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="29">
-        <v>44454</v>
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
+        <v>145</v>
       </c>
       <c r="F11" s="3">
         <v>44449</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/2021-22 Wartburg COVID Tracing.xlsx
+++ b/2021-22 Wartburg COVID Tracing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2021-2022\IowaCOVID19\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B8B7C8-ECE7-40C9-A9AC-51962D014558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46042815-339D-4B3E-946D-68672E18B79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="6" xr2:uid="{DC7C837F-5F10-4144-B236-1FECA5F0EA08}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="4" xr2:uid="{DC7C837F-5F10-4144-B236-1FECA5F0EA08}"/>
   </bookViews>
   <sheets>
     <sheet name="Infected Students" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="229">
   <si>
     <t>Preston Rochford</t>
   </si>
@@ -656,13 +656,106 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Kjirsten Zahn</t>
+  </si>
+  <si>
+    <t>(507)460-2235</t>
+  </si>
+  <si>
+    <t>On campus - Natalie Keenan</t>
+  </si>
+  <si>
+    <t>Manors: WIED 006</t>
+  </si>
+  <si>
+    <t>Natalie Keenan</t>
+  </si>
+  <si>
+    <t>515-230-9859</t>
+  </si>
+  <si>
+    <t>9/20 Noah clinic</t>
+  </si>
+  <si>
+    <t>Uknown</t>
+  </si>
+  <si>
+    <t>Founders Apartment</t>
+  </si>
+  <si>
+    <t>symptoms started 9/16</t>
+  </si>
+  <si>
+    <t>Morgan Schlichting</t>
+  </si>
+  <si>
+    <t>Elizabeth Barrett</t>
+  </si>
+  <si>
+    <t>Olivia Ramaekers</t>
+  </si>
+  <si>
+    <t>Kaitlyn Feldman</t>
+  </si>
+  <si>
+    <t>Danae Taylor</t>
+  </si>
+  <si>
+    <t>Grace Becker</t>
+  </si>
+  <si>
+    <t>Katriela Caspari</t>
+  </si>
+  <si>
+    <t>Kennedy Hiles</t>
+  </si>
+  <si>
+    <t>Amelia Ouverson</t>
+  </si>
+  <si>
+    <t>Olivia Walsh</t>
+  </si>
+  <si>
+    <t>Lydia Weippert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phillip Field </t>
+  </si>
+  <si>
+    <t>Savanna Richardson</t>
+  </si>
+  <si>
+    <t>Travis Errthum</t>
+  </si>
+  <si>
+    <t>Natalie Segura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cole Anderson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting for test results from doctor </t>
+  </si>
+  <si>
+    <t>Email sent, called but voicemail is full - 9/22; slightly congested, slight cough, runny nose - 9/23;</t>
+  </si>
+  <si>
+    <t>Not a Student??</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fever; cough, sore eyes/nose - 9/16; Cough, losing taste/smell - 9/17; 9/18; low-grade fever, cough; no smell/taste - 9/19; No smell/taste, nausea - 9/20; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,8 +784,14 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,8 +840,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -811,11 +922,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -876,6 +1000,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,16 +1327,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B7C922-39ED-4AAC-B544-0C25322ECB9A}">
-  <dimension ref="A1:AN8"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:T8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="20.7265625" customWidth="1"/>
     <col min="5" max="5" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.54296875" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.6328125" style="3" customWidth="1"/>
   </cols>
@@ -1226,7 +1364,7 @@
       <c r="G1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="26" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="13" t="s">
@@ -1309,7 +1447,7 @@
         <f t="array" ref="G2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
         <v>Positive</v>
       </c>
-      <c r="H2" s="1" t="str" cm="1">
+      <c r="H2" s="4" t="str" cm="1">
         <f t="array" ref="H2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
@@ -1317,7 +1455,7 @@
         <f t="array" ref="I2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
         <v>Off-campus</v>
       </c>
-      <c r="J2" s="1" cm="1">
+      <c r="J2" s="4" cm="1">
         <f t="array" ref="J2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
         <v>44425</v>
       </c>
@@ -1325,7 +1463,7 @@
         <f t="array" ref="K2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
         <v>Off-campus</v>
       </c>
-      <c r="L2" s="1" cm="1">
+      <c r="L2" s="4" cm="1">
         <f t="array" ref="L2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
         <v>44435</v>
       </c>
@@ -1403,7 +1541,7 @@
         <f t="array" ref="G3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
         <v>postive</v>
       </c>
-      <c r="H3" s="1" t="str" cm="1">
+      <c r="H3" s="4" t="str" cm="1">
         <f t="array" ref="H3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
@@ -1411,7 +1549,7 @@
         <f t="array" ref="I3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
-      <c r="J3" s="1" cm="1">
+      <c r="J3" s="4" cm="1">
         <f t="array" ref="J3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
         <v>44427</v>
       </c>
@@ -1419,7 +1557,7 @@
         <f t="array" ref="K3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
         <v>Home</v>
       </c>
-      <c r="L3" s="1" cm="1">
+      <c r="L3" s="4" cm="1">
         <f t="array" ref="L3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
         <v>44437</v>
       </c>
@@ -1499,7 +1637,7 @@
         <f t="array" ref="G4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
         <v>Positive (8/20/21)</v>
       </c>
-      <c r="H4" s="1" t="str" cm="1">
+      <c r="H4" s="4" t="str" cm="1">
         <f t="array" ref="H4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
@@ -1507,7 +1645,7 @@
         <f t="array" ref="I4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
         <v>Off-campus</v>
       </c>
-      <c r="J4" s="1" cm="1">
+      <c r="J4" s="4" cm="1">
         <f t="array" ref="J4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
         <v>44428</v>
       </c>
@@ -1515,7 +1653,7 @@
         <f t="array" ref="K4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
         <v>Home</v>
       </c>
-      <c r="L4" s="1" cm="1">
+      <c r="L4" s="4" cm="1">
         <f t="array" ref="L4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
         <v>44438</v>
       </c>
@@ -1595,7 +1733,7 @@
         <f t="array" ref="G5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
         <v>Positive (8/20/21)</v>
       </c>
-      <c r="H5" s="1" t="str" cm="1">
+      <c r="H5" s="4" t="str" cm="1">
         <f t="array" ref="H5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
@@ -1603,7 +1741,7 @@
         <f t="array" ref="I5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
         <v>Off-campus</v>
       </c>
-      <c r="J5" s="1" cm="1">
+      <c r="J5" s="4" cm="1">
         <f t="array" ref="J5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
         <v>44428</v>
       </c>
@@ -1611,7 +1749,7 @@
         <f t="array" ref="K5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
         <v>FOUNDERS APARTMENT</v>
       </c>
-      <c r="L5" s="1" cm="1">
+      <c r="L5" s="4" cm="1">
         <f t="array" ref="L5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
         <v>44438</v>
       </c>
@@ -1691,7 +1829,7 @@
         <f t="array" ref="G6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
         <v>Positive</v>
       </c>
-      <c r="H6" s="1" cm="1">
+      <c r="H6" s="4" cm="1">
         <f t="array" ref="H6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
         <v>44434</v>
       </c>
@@ -1699,7 +1837,7 @@
         <f t="array" ref="I6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
         <v>Off Campus - Collin Meisenburg</v>
       </c>
-      <c r="J6" s="1" cm="1">
+      <c r="J6" s="4" cm="1">
         <f t="array" ref="J6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
         <v>44438</v>
       </c>
@@ -1707,7 +1845,7 @@
         <f t="array" ref="K6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
         <v>Home 8/30</v>
       </c>
-      <c r="L6" s="1" cm="1">
+      <c r="L6" s="4" cm="1">
         <f t="array" ref="L6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
         <v>44448</v>
       </c>
@@ -1768,7 +1906,7 @@
         <f t="array" ref="G7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
         <v>Postive</v>
       </c>
-      <c r="H7" s="1" t="str" cm="1">
+      <c r="H7" s="4" t="str" cm="1">
         <f t="array" ref="H7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
         <v>Unknown</v>
       </c>
@@ -1776,7 +1914,7 @@
         <f t="array" ref="I7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
         <v>Unknown</v>
       </c>
-      <c r="J7" s="1" cm="1">
+      <c r="J7" s="4" cm="1">
         <f t="array" ref="J7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
         <v>44449</v>
       </c>
@@ -1784,7 +1922,7 @@
         <f t="array" ref="K7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
         <v>HOME</v>
       </c>
-      <c r="L7" s="1" cm="1">
+      <c r="L7" s="4" cm="1">
         <f t="array" ref="L7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
         <v>44459</v>
       </c>
@@ -1821,14 +1959,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" ht="16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>146</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="27">
         <v>1244320</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="1" t="str" cm="1">
@@ -1847,7 +1985,7 @@
         <f t="array" ref="G8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
         <v>Positive</v>
       </c>
-      <c r="H8" s="1" cm="1">
+      <c r="H8" s="4" cm="1">
         <f t="array" ref="H8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
         <v>44449</v>
       </c>
@@ -1855,7 +1993,7 @@
         <f t="array" ref="I8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
         <v>Roommate- Kade Munkel</v>
       </c>
-      <c r="J8" s="1" cm="1">
+      <c r="J8" s="4" cm="1">
         <f t="array" ref="J8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
         <v>44450</v>
       </c>
@@ -1863,7 +2001,7 @@
         <f t="array" ref="K8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
         <v>Hebron Apartment</v>
       </c>
-      <c r="L8" s="1" cm="1">
+      <c r="L8" s="4" cm="1">
         <f t="array" ref="L8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
         <v>44248</v>
       </c>
@@ -1897,6 +2035,80 @@
       </c>
       <c r="T8" s="1" t="str" cm="1">
         <f t="array" ref="T8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="1" t="str" cm="1">
+        <f t="array" ref="D9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
+        <v>515-230-9859</v>
+      </c>
+      <c r="E9" s="1" t="str" cm="1">
+        <f t="array" ref="E9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F9" s="1" t="str" cm="1">
+        <f t="array" ref="F9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
+        <v>9/20 Noah clinic</v>
+      </c>
+      <c r="G9" s="1" t="str" cm="1">
+        <f t="array" ref="G9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
+        <v>Positive</v>
+      </c>
+      <c r="H9" s="4" t="str" cm="1">
+        <f t="array" ref="H9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="I9" s="1" t="str" cm="1">
+        <f t="array" ref="I9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="J9" s="4" cm="1">
+        <f t="array" ref="J9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+        <v>44459</v>
+      </c>
+      <c r="K9" s="1" t="str" cm="1">
+        <f t="array" ref="K9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+        <v>Founders Apartment</v>
+      </c>
+      <c r="L9" s="4" cm="1">
+        <f t="array" ref="L9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+        <v>44465</v>
+      </c>
+      <c r="M9" s="1" t="str" cm="1">
+        <f t="array" ref="M9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+        <v>Danny</v>
+      </c>
+      <c r="N9" s="1" t="str" cm="1">
+        <f t="array" ref="N9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="O9" s="1" t="str" cm="1">
+        <f t="array" ref="O9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P9" s="1" t="str" cm="1">
+        <f t="array" ref="P9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+        <v>Courtney TS</v>
+      </c>
+      <c r="Q9" s="1" t="str" cm="1">
+        <f t="array" ref="Q9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v>Email sent, called but voicemail is full - 9/22; slightly congested, slight cough, runny nose - 9/23;</v>
+      </c>
+      <c r="R9" s="1" t="str" cm="1">
+        <f t="array" ref="R9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S9" s="1" t="str" cm="1">
+        <f t="array" ref="S9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+        <v>symptoms started 9/16</v>
+      </c>
+      <c r="T9" s="1" t="str" cm="1">
+        <f t="array" ref="T9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
     </row>
@@ -1907,15 +2119,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC357540-4F5F-4E17-B510-319E9A338038}">
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A2" sqref="A2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="4" max="4" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.26953125" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="58" x14ac:dyDescent="0.35">
@@ -1928,7 +2144,7 @@
       <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="13" t="s">
@@ -1937,19 +2153,19 @@
       <c r="F1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="26" t="s">
         <v>27</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="26" t="s">
         <v>29</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="26" t="s">
         <v>31</v>
       </c>
       <c r="L1" s="13" t="s">
@@ -1997,359 +2213,360 @@
       <c r="AL1" s="13"/>
       <c r="AM1" s="13"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:39" ht="204" x14ac:dyDescent="0.45">
+      <c r="A2" s="27">
+        <v>1227963</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="4">
+        <v>44459</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" s="5">
+        <v>44465</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+    </row>
+    <row r="3" spans="1:39" ht="131.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="27">
+        <v>1244320</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>44449</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="4">
+        <v>44450</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="5">
+        <v>44248</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="41">
+        <v>44460</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="9"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+    </row>
+    <row r="4" spans="1:39" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" s="4">
+        <v>44459</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K4" s="5">
+        <v>44465</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>1250699</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>105</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" t="s">
+      <c r="E5" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H5" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I5" s="3">
         <v>44449</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J5" t="s">
         <v>116</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K5" s="3">
         <v>44459</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L5" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M5" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N5" s="3">
         <v>44459</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O5" t="s">
         <v>117</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P5" t="s">
         <v>147</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>1244320</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>113</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" t="s">
+      <c r="E6" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G6" s="3">
         <v>44449</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H6" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I6" s="3">
         <v>44450</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J6" t="s">
         <v>121</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K6" s="3">
         <v>44248</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L6" t="s">
         <v>122</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M6" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N6" s="3">
         <v>44460</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O6" t="s">
         <v>123</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P6" t="s">
         <v>148</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A4" s="29">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A7" s="29">
         <v>1235116</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F7" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I7" s="32">
         <v>44425</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K7" s="35">
         <v>44435</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="29" t="s">
+      <c r="N7" s="37"/>
+      <c r="O7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29" t="s">
+      <c r="P7" s="38"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="32">
-        <v>44427</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="35">
-        <v>44437</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="37"/>
-      <c r="O5" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>1232227</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4">
-        <v>36695</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4">
-        <v>44428</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="5">
-        <v>44438</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>1233601</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4">
-        <v>37013</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="4">
-        <v>44428</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="5">
-        <v>44438</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U7" s="1"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2370,80 +2587,284 @@
       <c r="AM7" s="2"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="31">
-        <v>37763</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="31">
-        <v>44434</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="31">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="32">
+        <v>44427</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="35">
+        <v>44437</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="37"/>
+      <c r="O8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>1232227</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4">
+        <v>36695</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
+        <v>44428</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="5">
         <v>44438</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="31">
-        <v>44448</v>
-      </c>
-      <c r="L8" s="30" t="s">
+      <c r="L9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="9"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="T9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="U9" s="1"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>1233601</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4">
+        <v>37013</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="4">
+        <v>44428</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="5">
+        <v>44438</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="31">
+        <v>37763</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="31">
+        <v>44434</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="31">
+        <v>44438</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="31">
+        <v>44448</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2452,10 +2873,1058 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6164E72-0B31-4D07-B897-5E56341DD845}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:U13"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:U13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="3"/>
+    <col min="15" max="15" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B2" s="17">
+        <v>1248095</v>
+      </c>
+      <c r="C2" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0), MATCH(Qpaste!B$1,Qpaste!$1:$1,0))</f>
+        <v>Carson Collet</v>
+      </c>
+      <c r="D2" t="str" cm="1">
+        <f t="array" ref="D2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
+        <v>(815)514-5259</v>
+      </c>
+      <c r="E2" t="str" cm="1">
+        <f t="array" ref="E2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v>37619</v>
+      </c>
+      <c r="G2" t="str" cm="1">
+        <f t="array" ref="G2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v>9/1 - Antigen - Negative</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v>44434</v>
+      </c>
+      <c r="I2" t="str" cm="1">
+        <f t="array" ref="I2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v>Off-campus/Collin Meisenburg</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44434</v>
+      </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v>Home</v>
+      </c>
+      <c r="L2" cm="1">
+        <f t="array" ref="L2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v>44442</v>
+      </c>
+      <c r="M2" t="str" cm="1">
+        <f t="array" ref="M2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v>DK</v>
+      </c>
+      <c r="N2" t="str" cm="1">
+        <f t="array" ref="N2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="O2" cm="1">
+        <f t="array" ref="O2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v>44448</v>
+      </c>
+      <c r="P2" t="str" cm="1">
+        <f t="array" ref="P2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v>Kristin TT.</v>
+      </c>
+      <c r="Q2" t="str" cm="1">
+        <f t="array" ref="Q2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v>8/27 enail sent - no symptoms</v>
+      </c>
+      <c r="R2" t="str" cm="1">
+        <f t="array" ref="R2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S2" t="str" cm="1">
+        <f t="array" ref="S2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T2" t="str" cm="1">
+        <f t="array" ref="T2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U2" t="str" cm="1">
+        <f t="array" ref="U2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v>XC</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B3" s="1">
+        <v>1248351</v>
+      </c>
+      <c r="C3" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0), MATCH(Qpaste!B$1,Qpaste!$1:$1,0))</f>
+        <v>Hunter Kalous</v>
+      </c>
+      <c r="D3" t="str" cm="1">
+        <f t="array" ref="D3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
+        <v>(319)560-8928</v>
+      </c>
+      <c r="E3" t="str" cm="1">
+        <f t="array" ref="E3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v>37668</v>
+      </c>
+      <c r="G3" t="str" cm="1">
+        <f t="array" ref="G3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v>9/2 - Wartburg - Antigen - Negative</v>
+      </c>
+      <c r="H3" cm="1">
+        <f t="array" ref="H3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v>44434</v>
+      </c>
+      <c r="I3" t="str" cm="1">
+        <f t="array" ref="I3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v>Off-campus/Collin Meisenburg</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44434</v>
+      </c>
+      <c r="K3" t="str" cm="1">
+        <f t="array" ref="K3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v>Home</v>
+      </c>
+      <c r="L3" cm="1">
+        <f t="array" ref="L3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v>44442</v>
+      </c>
+      <c r="M3" t="str" cm="1">
+        <f t="array" ref="M3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v>DK</v>
+      </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" ref="N3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="O3" cm="1">
+        <f t="array" ref="O3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v>44448</v>
+      </c>
+      <c r="P3" t="str" cm="1">
+        <f t="array" ref="P3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v>Kristin TT.</v>
+      </c>
+      <c r="Q3" t="str" cm="1">
+        <f t="array" ref="Q3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v>8/27 email sent - no symptoms</v>
+      </c>
+      <c r="R3" t="str" cm="1">
+        <f t="array" ref="R3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S3" t="str" cm="1">
+        <f t="array" ref="S3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T3" t="str" cm="1">
+        <f t="array" ref="T3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U3" t="str" cm="1">
+        <f t="array" ref="U3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v>XC</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
+        <v>1246184</v>
+      </c>
+      <c r="C4" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0), MATCH(Qpaste!B$1,Qpaste!$1:$1,0))</f>
+        <v>Clay Pehl</v>
+      </c>
+      <c r="D4" t="str" cm="1">
+        <f t="array" ref="D4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
+        <v>(515)236-0414</v>
+      </c>
+      <c r="E4" t="str" cm="1">
+        <f t="array" ref="E4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v>37536</v>
+      </c>
+      <c r="G4" t="str" cm="1">
+        <f t="array" ref="G4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v>9/1 - Antigen - Negative</v>
+      </c>
+      <c r="H4" cm="1">
+        <f t="array" ref="H4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v>44434</v>
+      </c>
+      <c r="I4" t="str" cm="1">
+        <f t="array" ref="I4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v>Off-campus/Collin Meisenburg</v>
+      </c>
+      <c r="J4" cm="1">
+        <f t="array" ref="J4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44434</v>
+      </c>
+      <c r="K4" t="str" cm="1">
+        <f t="array" ref="K4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v>Home</v>
+      </c>
+      <c r="L4" cm="1">
+        <f t="array" ref="L4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v>44442</v>
+      </c>
+      <c r="M4" t="str" cm="1">
+        <f t="array" ref="M4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v>DK</v>
+      </c>
+      <c r="N4" t="str" cm="1">
+        <f t="array" ref="N4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="O4" cm="1">
+        <f t="array" ref="O4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v>44448</v>
+      </c>
+      <c r="P4" t="str" cm="1">
+        <f t="array" ref="P4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v>Kristin TT.</v>
+      </c>
+      <c r="Q4" t="str" cm="1">
+        <f t="array" ref="Q4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">8/27 email sent  </v>
+      </c>
+      <c r="R4" t="str" cm="1">
+        <f t="array" ref="R4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S4" t="str" cm="1">
+        <f t="array" ref="S4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T4" t="str" cm="1">
+        <f t="array" ref="T4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U4" t="str" cm="1">
+        <f t="array" ref="U4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v>XC</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
+        <v>1240577</v>
+      </c>
+      <c r="C5" t="str">
+        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0), MATCH(Qpaste!B$1,Qpaste!$1:$1,0))</f>
+        <v>Adam Dettmer</v>
+      </c>
+      <c r="D5" t="str" cm="1">
+        <f t="array" ref="D5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
+        <v>(641) 530-9068</v>
+      </c>
+      <c r="E5" t="str" cm="1">
+        <f t="array" ref="E5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F5" t="str" cm="1">
+        <f t="array" ref="F5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G5" t="str" cm="1">
+        <f t="array" ref="G5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">9/6 Noah </v>
+      </c>
+      <c r="H5" t="str" cm="1">
+        <f t="array" ref="H5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="I5" t="str" cm="1">
+        <f t="array" ref="I5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" ref="J5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44445</v>
+      </c>
+      <c r="K5" t="str" cm="1">
+        <f t="array" ref="K5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v>LOH 355C</v>
+      </c>
+      <c r="L5" t="str" cm="1">
+        <f t="array" ref="L5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Pending </v>
+      </c>
+      <c r="M5" t="str" cm="1">
+        <f t="array" ref="M5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="N5" t="str" cm="1">
+        <f t="array" ref="N5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="O5" t="str" cm="1">
+        <f t="array" ref="O5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v>pending</v>
+      </c>
+      <c r="P5" t="str" cm="1">
+        <f t="array" ref="P5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v>Josh B.</v>
+      </c>
+      <c r="Q5" t="str" cm="1">
+        <f t="array" ref="Q5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v>9/7 - emailed</v>
+      </c>
+      <c r="R5" t="str" cm="1">
+        <f t="array" ref="R5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S5" t="str" cm="1">
+        <f t="array" ref="S5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T5" t="str" cm="1">
+        <f t="array" ref="T5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U5" t="str" cm="1">
+        <f t="array" ref="U5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="16" x14ac:dyDescent="0.45">
+      <c r="B6" s="27">
+        <v>1249163</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="e" cm="1">
+        <f t="array" ref="D6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E6" t="str" cm="1">
+        <f t="array" ref="E6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F6" t="str" cm="1">
+        <f t="array" ref="F6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v>44452</v>
+      </c>
+      <c r="H6" t="str" cm="1">
+        <f t="array" ref="H6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">None </v>
+      </c>
+      <c r="I6" t="str" cm="1">
+        <f t="array" ref="I6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">none </v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44452</v>
+      </c>
+      <c r="K6" t="str" cm="1">
+        <f t="array" ref="K6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v>Complex: Heb 371</v>
+      </c>
+      <c r="L6" t="str" cm="1">
+        <f t="array" ref="L6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Pending </v>
+      </c>
+      <c r="M6" t="str" cm="1">
+        <f t="array" ref="M6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="N6" t="str" cm="1">
+        <f t="array" ref="N6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O6" t="str" cm="1">
+        <f t="array" ref="O6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P6" t="str" cm="1">
+        <f t="array" ref="P6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q6" t="str" cm="1">
+        <f t="array" ref="Q6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R6" t="str" cm="1">
+        <f t="array" ref="R6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S6" t="str" cm="1">
+        <f t="array" ref="S6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T6" t="str" cm="1">
+        <f t="array" ref="T6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U6" t="str" cm="1">
+        <f t="array" ref="U6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>1245755</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="str" cm="1">
+        <f t="array" ref="D7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
+        <v>(952)454-4903</v>
+      </c>
+      <c r="E7" t="str" cm="1">
+        <f t="array" ref="E7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F7" t="str" cm="1">
+        <f t="array" ref="F7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G7" t="str" cm="1">
+        <f t="array" ref="G7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v>Hyvee - 9/14</v>
+      </c>
+      <c r="H7" t="str" cm="1">
+        <f t="array" ref="H7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v>none</v>
+      </c>
+      <c r="I7" t="str" cm="1">
+        <f t="array" ref="I7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Unknown </v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44454</v>
+      </c>
+      <c r="K7" t="str" cm="1">
+        <f t="array" ref="K7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v>CENT 004</v>
+      </c>
+      <c r="L7" t="str" cm="1">
+        <f t="array" ref="L7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v>Pending</v>
+      </c>
+      <c r="M7" t="str" cm="1">
+        <f t="array" ref="M7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="N7" t="str" cm="1">
+        <f t="array" ref="N7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="O7" t="str" cm="1">
+        <f t="array" ref="O7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v>Pending</v>
+      </c>
+      <c r="P7" t="str" cm="1">
+        <f t="array" ref="P7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v>Courtney TS</v>
+      </c>
+      <c r="Q7" t="str" cm="1">
+        <f t="array" ref="Q7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v>9/15 - slight runny nose, slight cough;</v>
+      </c>
+      <c r="R7" t="str" cm="1">
+        <f t="array" ref="R7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S7" t="str" cm="1">
+        <f t="array" ref="S7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T7" t="str" cm="1">
+        <f t="array" ref="T7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U7" t="str" cm="1">
+        <f t="array" ref="U7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>1244590</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" t="str" cm="1">
+        <f t="array" ref="D8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E8" t="str" cm="1">
+        <f t="array" ref="E8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F8" t="str" cm="1">
+        <f t="array" ref="F8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v>44454</v>
+      </c>
+      <c r="H8" t="str" cm="1">
+        <f t="array" ref="H8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v>none</v>
+      </c>
+      <c r="I8" t="str" cm="1">
+        <f t="array" ref="I8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Unknown </v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44454</v>
+      </c>
+      <c r="K8" t="str" cm="1">
+        <f t="array" ref="K8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v>HEB 189</v>
+      </c>
+      <c r="L8" t="str" cm="1">
+        <f t="array" ref="L8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v>Pending</v>
+      </c>
+      <c r="M8" t="str" cm="1">
+        <f t="array" ref="M8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="N8" t="str" cm="1">
+        <f t="array" ref="N8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="O8" t="str" cm="1">
+        <f t="array" ref="O8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v>Pending</v>
+      </c>
+      <c r="P8" t="str" cm="1">
+        <f t="array" ref="P8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v>Courtney TS</v>
+      </c>
+      <c r="Q8" t="str" cm="1">
+        <f t="array" ref="Q8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v>9/15 - email sent</v>
+      </c>
+      <c r="R8" t="str" cm="1">
+        <f t="array" ref="R8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S8" t="str" cm="1">
+        <f t="array" ref="S8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T8" t="str" cm="1">
+        <f t="array" ref="T8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U8" t="str" cm="1">
+        <f t="array" ref="U8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>1248196</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="str" cm="1">
+        <f t="array" ref="D9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
+        <v>(319)530-7724</v>
+      </c>
+      <c r="E9" t="str" cm="1">
+        <f t="array" ref="E9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F9" t="str" cm="1">
+        <f t="array" ref="F9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="H9" t="str" cm="1">
+        <f t="array" ref="H9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v>none</v>
+      </c>
+      <c r="I9" t="str" cm="1">
+        <f t="array" ref="I9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Unknown </v>
+      </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="K9" t="str" cm="1">
+        <f t="array" ref="K9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v>CLNN 336</v>
+      </c>
+      <c r="L9" t="str" cm="1">
+        <f t="array" ref="L9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v>Pending</v>
+      </c>
+      <c r="M9" t="str" cm="1">
+        <f t="array" ref="M9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="N9" t="str" cm="1">
+        <f t="array" ref="N9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="O9" t="str" cm="1">
+        <f t="array" ref="O9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v>Pending</v>
+      </c>
+      <c r="P9" t="str" cm="1">
+        <f t="array" ref="P9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q9" t="str" cm="1">
+        <f t="array" ref="Q9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R9" t="str" cm="1">
+        <f t="array" ref="R9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S9" t="str" cm="1">
+        <f t="array" ref="S9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T9" t="str" cm="1">
+        <f t="array" ref="T9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U9" t="str" cm="1">
+        <f t="array" ref="U9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>1235078</v>
+      </c>
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="str" cm="1">
+        <f t="array" ref="D10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
+        <v>(319)210-8111</v>
+      </c>
+      <c r="E10" t="str" cm="1">
+        <f t="array" ref="E10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F10" t="str" cm="1">
+        <f t="array" ref="F10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="H10" t="str" cm="1">
+        <f t="array" ref="H10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v>none</v>
+      </c>
+      <c r="I10" t="str" cm="1">
+        <f t="array" ref="I10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Unknown </v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="K10" t="str" cm="1">
+        <f t="array" ref="K10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v>FDS 211</v>
+      </c>
+      <c r="L10" t="str" cm="1">
+        <f t="array" ref="L10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v>Pending</v>
+      </c>
+      <c r="M10" t="str" cm="1">
+        <f t="array" ref="M10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="N10" t="str" cm="1">
+        <f t="array" ref="N10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="O10" t="str" cm="1">
+        <f t="array" ref="O10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v>Pending</v>
+      </c>
+      <c r="P10" t="str" cm="1">
+        <f t="array" ref="P10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q10" t="str" cm="1">
+        <f t="array" ref="Q10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R10" t="str" cm="1">
+        <f t="array" ref="R10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S10" t="str" cm="1">
+        <f t="array" ref="S10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T10" t="str" cm="1">
+        <f t="array" ref="T10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U10" t="str" cm="1">
+        <f t="array" ref="U10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>1245967</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" t="str" cm="1">
+        <f t="array" ref="D11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
+        <v>(319)855-2133</v>
+      </c>
+      <c r="E11" t="str" cm="1">
+        <f t="array" ref="E11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F11" t="str" cm="1">
+        <f t="array" ref="F11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="H11" t="str" cm="1">
+        <f t="array" ref="H11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v>none</v>
+      </c>
+      <c r="I11" t="str" cm="1">
+        <f t="array" ref="I11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Unknown </v>
+      </c>
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44455</v>
+      </c>
+      <c r="K11" t="str" cm="1">
+        <f t="array" ref="K11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v>CLNS 109</v>
+      </c>
+      <c r="L11" t="str" cm="1">
+        <f t="array" ref="L11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v>Pending</v>
+      </c>
+      <c r="M11" t="str" cm="1">
+        <f t="array" ref="M11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="N11" t="str" cm="1">
+        <f t="array" ref="N11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="O11" t="str" cm="1">
+        <f t="array" ref="O11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v>Pending</v>
+      </c>
+      <c r="P11" t="str" cm="1">
+        <f t="array" ref="P11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q11" t="str" cm="1">
+        <f t="array" ref="Q11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R11" t="str" cm="1">
+        <f t="array" ref="R11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S11" t="str" cm="1">
+        <f t="array" ref="S11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T11" t="str" cm="1">
+        <f t="array" ref="T11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U11" t="str" cm="1">
+        <f t="array" ref="U11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1233381</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" t="str" cm="1">
+        <f t="array" ref="D12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
+        <v>(507)460-2235</v>
+      </c>
+      <c r="E12" t="str" cm="1">
+        <f t="array" ref="E12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F12" t="str" cm="1">
+        <f t="array" ref="F12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G12" t="str" cm="1">
+        <f t="array" ref="G12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="H12" t="str" cm="1">
+        <f t="array" ref="H12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="I12" t="str" cm="1">
+        <f t="array" ref="I12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v>On campus - Natalie Keenan</v>
+      </c>
+      <c r="J12" cm="1">
+        <f t="array" ref="J12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44459</v>
+      </c>
+      <c r="K12" t="str" cm="1">
+        <f t="array" ref="K12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v>Manors: WIED 006</v>
+      </c>
+      <c r="L12" t="str" cm="1">
+        <f t="array" ref="L12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="M12" t="str" cm="1">
+        <f t="array" ref="M12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" ref="N12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O12" t="str" cm="1">
+        <f t="array" ref="O12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P12" t="str" cm="1">
+        <f t="array" ref="P12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q12" t="str" cm="1">
+        <f t="array" ref="Q12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R12" t="str" cm="1">
+        <f t="array" ref="R12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S12" t="str" cm="1">
+        <f t="array" ref="S12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T12" t="str" cm="1">
+        <f t="array" ref="T12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U12" t="str" cm="1">
+        <f t="array" ref="U12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C13" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" t="str" cm="1">
+        <f t="array" ref="D13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E13" t="str" cm="1">
+        <f t="array" ref="E13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F13" t="str" cm="1">
+        <f t="array" ref="F13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v>44462</v>
+      </c>
+      <c r="H13" t="str" cm="1">
+        <f t="array" ref="H13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="I13" t="str" cm="1">
+        <f t="array" ref="I13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="J13" cm="1">
+        <f t="array" ref="J13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44462</v>
+      </c>
+      <c r="K13" t="str" cm="1">
+        <f t="array" ref="K13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="L13" t="str" cm="1">
+        <f t="array" ref="L13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Pending </v>
+      </c>
+      <c r="M13" t="str" cm="1">
+        <f t="array" ref="M13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" ref="N13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O13" t="str" cm="1">
+        <f t="array" ref="O13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P13" t="str" cm="1">
+        <f t="array" ref="P13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q13" t="str" cm="1">
+        <f t="array" ref="Q13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Waiting for test results from doctor </v>
+      </c>
+      <c r="R13" t="str" cm="1">
+        <f t="array" ref="R13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S13" t="str" cm="1">
+        <f t="array" ref="S13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T13" t="str" cm="1">
+        <f t="array" ref="T13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U13" t="str" cm="1">
+        <f t="array" ref="U13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B86344-DAFC-46AC-8F96-5F97879FB6E3}">
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2523,1191 +3992,272 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="17">
-        <v>1248095</v>
-      </c>
-      <c r="B2" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!B$1,Qpaste!$1:$1,0))</f>
-        <v>Carson Collet</v>
-      </c>
-      <c r="C2" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
-        <v>(815)514-5259</v>
-      </c>
-      <c r="D2">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))</f>
-        <v>37619</v>
-      </c>
-      <c r="F2" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))</f>
-        <v>9/1 - Antigen - Negative</v>
-      </c>
-      <c r="G2">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))</f>
-        <v>44434</v>
-      </c>
-      <c r="H2" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))</f>
-        <v>Off-campus/Collin Meisenburg</v>
-      </c>
-      <c r="I2">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))</f>
-        <v>44434</v>
-      </c>
-      <c r="J2" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))</f>
-        <v>Home</v>
-      </c>
-      <c r="K2">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))</f>
-        <v>44442</v>
-      </c>
-      <c r="L2" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))</f>
-        <v>DK</v>
-      </c>
-      <c r="M2" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))</f>
-        <v>YES</v>
-      </c>
-      <c r="N2">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))</f>
-        <v>44448</v>
-      </c>
-      <c r="O2" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))</f>
-        <v>Kristin TT.</v>
-      </c>
-      <c r="P2" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))</f>
-        <v>8/27 enail sent - no symptoms</v>
-      </c>
-      <c r="Q2">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T2" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A2,Qpaste!$A:$A,0), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))</f>
-        <v>XC</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4">
+        <v>44462</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4">
+        <v>44462</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>1248351</v>
-      </c>
-      <c r="B3" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!B$1,Qpaste!$1:$1,0))</f>
-        <v>Hunter Kalous</v>
-      </c>
-      <c r="C3" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
-        <v>(319)560-8928</v>
-      </c>
-      <c r="D3">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))</f>
-        <v>37668</v>
-      </c>
-      <c r="F3" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))</f>
-        <v>9/2 - Wartburg - Antigen - Negative</v>
-      </c>
-      <c r="G3">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))</f>
-        <v>44434</v>
-      </c>
-      <c r="H3" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))</f>
-        <v>Off-campus/Collin Meisenburg</v>
-      </c>
-      <c r="I3">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))</f>
-        <v>44434</v>
-      </c>
-      <c r="J3" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))</f>
-        <v>Home</v>
-      </c>
-      <c r="K3">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))</f>
-        <v>44442</v>
-      </c>
-      <c r="L3" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))</f>
-        <v>DK</v>
-      </c>
-      <c r="M3" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))</f>
-        <v>YES</v>
-      </c>
-      <c r="N3">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))</f>
-        <v>44448</v>
-      </c>
-      <c r="O3" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))</f>
-        <v>Kristin TT.</v>
-      </c>
-      <c r="P3" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))</f>
-        <v>8/27 email sent - no symptoms</v>
-      </c>
-      <c r="Q3">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T3" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A3,Qpaste!$A:$A,0), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))</f>
-        <v>XC</v>
-      </c>
+        <v>1233381</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" s="4">
+        <v>44459</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>1246184</v>
-      </c>
-      <c r="B4" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!B$1,Qpaste!$1:$1,0))</f>
-        <v>Clay Pehl</v>
-      </c>
-      <c r="C4" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
-        <v>(515)236-0414</v>
-      </c>
-      <c r="D4">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))</f>
-        <v>37536</v>
-      </c>
-      <c r="F4" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))</f>
-        <v>9/1 - Antigen - Negative</v>
-      </c>
-      <c r="G4">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))</f>
-        <v>44434</v>
-      </c>
-      <c r="H4" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))</f>
-        <v>Off-campus/Collin Meisenburg</v>
-      </c>
-      <c r="I4">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))</f>
-        <v>44434</v>
-      </c>
-      <c r="J4" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))</f>
-        <v>Home</v>
-      </c>
-      <c r="K4">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))</f>
-        <v>44442</v>
-      </c>
-      <c r="L4" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))</f>
-        <v>DK</v>
-      </c>
-      <c r="M4" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))</f>
-        <v>YES</v>
-      </c>
-      <c r="N4">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))</f>
-        <v>44448</v>
-      </c>
-      <c r="O4" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))</f>
-        <v>Kristin TT.</v>
-      </c>
-      <c r="P4" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))</f>
-        <v xml:space="preserve">8/27 email sent  </v>
-      </c>
-      <c r="Q4">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T4" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A4,Qpaste!$A:$A,0), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))</f>
-        <v>XC</v>
+      <c r="A4">
+        <v>1245755</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="3">
+        <v>44454</v>
+      </c>
+      <c r="J4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>1240577</v>
-      </c>
-      <c r="B5" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!B$1,Qpaste!$1:$1,0))</f>
-        <v>Adam Dettmer</v>
-      </c>
-      <c r="C5" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
-        <v>(641) 530-9068</v>
-      </c>
-      <c r="D5">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F5" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))</f>
-        <v xml:space="preserve">9/6 Noah </v>
-      </c>
-      <c r="G5" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))</f>
-        <v>Unknown</v>
-      </c>
-      <c r="H5" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))</f>
-        <v>Unknown</v>
-      </c>
-      <c r="I5">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))</f>
-        <v>44445</v>
-      </c>
-      <c r="J5" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))</f>
-        <v>LOH 355C</v>
-      </c>
-      <c r="K5" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))</f>
-        <v xml:space="preserve">Pending </v>
-      </c>
-      <c r="L5">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M5" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))</f>
-        <v>YES</v>
-      </c>
-      <c r="N5" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))</f>
-        <v>pending</v>
-      </c>
-      <c r="O5" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))</f>
-        <v>Josh B.</v>
-      </c>
-      <c r="P5" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))</f>
-        <v>9/7 - emailed</v>
-      </c>
-      <c r="Q5">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A5,Qpaste!$A:$A,0), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.45">
-      <c r="A6" s="27">
-        <v>1249163</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" t="e">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D6">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))</f>
-        <v>44452</v>
-      </c>
-      <c r="G6" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))</f>
-        <v xml:space="preserve">None </v>
-      </c>
-      <c r="H6" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))</f>
-        <v xml:space="preserve">none </v>
-      </c>
-      <c r="I6">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))</f>
-        <v>44452</v>
-      </c>
-      <c r="J6" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))</f>
-        <v>Complex: Heb 371</v>
-      </c>
-      <c r="K6" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))</f>
-        <v xml:space="preserve">Pending </v>
-      </c>
-      <c r="L6">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A6,Qpaste!$A:$A,0), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
+      <c r="A5">
+        <v>1244590</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44454</v>
+      </c>
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="3">
+        <v>44454</v>
+      </c>
+      <c r="J5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>131</v>
+      </c>
+      <c r="O5" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1248196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="3">
+        <v>44455</v>
+      </c>
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="3">
+        <v>44455</v>
+      </c>
+      <c r="J6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1245755</v>
+        <v>1235078</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
-        <v>(952)454-4903</v>
-      </c>
-      <c r="D7">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F7" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))</f>
-        <v>Hyvee - 9/14</v>
-      </c>
-      <c r="G7" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))</f>
-        <v>none</v>
-      </c>
-      <c r="H7" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))</f>
-        <v xml:space="preserve">Unknown </v>
-      </c>
-      <c r="I7">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))</f>
-        <v>44454</v>
-      </c>
-      <c r="J7" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))</f>
-        <v>CENT 004</v>
-      </c>
-      <c r="K7" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))</f>
-        <v>Pending</v>
-      </c>
-      <c r="L7">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M7" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))</f>
-        <v>YES</v>
-      </c>
-      <c r="N7" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))</f>
-        <v>Pending</v>
-      </c>
-      <c r="O7" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))</f>
-        <v>Courtney TS</v>
-      </c>
-      <c r="P7" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))</f>
-        <v>9/15 - slight runny nose, slight cough;</v>
-      </c>
-      <c r="Q7">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A7,Qpaste!$A:$A,0), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44455</v>
+      </c>
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="3">
+        <v>44455</v>
+      </c>
+      <c r="J7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1244590</v>
+        <v>1245967</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))</f>
-        <v>44454</v>
-      </c>
-      <c r="G8" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))</f>
-        <v>none</v>
-      </c>
-      <c r="H8" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))</f>
-        <v xml:space="preserve">Unknown </v>
-      </c>
-      <c r="I8">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))</f>
-        <v>44454</v>
-      </c>
-      <c r="J8" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))</f>
-        <v>HEB 189</v>
-      </c>
-      <c r="K8" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))</f>
-        <v>Pending</v>
-      </c>
-      <c r="L8">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M8" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))</f>
-        <v>YES</v>
-      </c>
-      <c r="N8" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))</f>
-        <v>Pending</v>
-      </c>
-      <c r="O8" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))</f>
-        <v>Courtney TS</v>
-      </c>
-      <c r="P8" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))</f>
-        <v>9/15 - email sent</v>
-      </c>
-      <c r="Q8">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A8,Qpaste!$A:$A,0), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="3">
+        <v>44455</v>
+      </c>
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44455</v>
+      </c>
+      <c r="J8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" t="s">
+        <v>131</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>1248196</v>
-      </c>
-      <c r="B9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
-        <v>(319)530-7724</v>
-      </c>
-      <c r="D9">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))</f>
-        <v>44455</v>
-      </c>
-      <c r="G9" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))</f>
-        <v>none</v>
-      </c>
-      <c r="H9" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))</f>
-        <v xml:space="preserve">Unknown </v>
-      </c>
-      <c r="I9">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))</f>
-        <v>44455</v>
-      </c>
-      <c r="J9" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))</f>
-        <v>CLNN 336</v>
-      </c>
-      <c r="K9" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))</f>
-        <v>Pending</v>
-      </c>
-      <c r="L9">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M9" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))</f>
-        <v>YES</v>
-      </c>
-      <c r="N9" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))</f>
-        <v>Pending</v>
-      </c>
-      <c r="O9">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A9,Qpaste!$A:$A,0), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>1235078</v>
-      </c>
-      <c r="B10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
-        <v>(319)210-8111</v>
-      </c>
-      <c r="D10">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))</f>
-        <v>44455</v>
-      </c>
-      <c r="G10" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))</f>
-        <v>none</v>
-      </c>
-      <c r="H10" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))</f>
-        <v xml:space="preserve">Unknown </v>
-      </c>
-      <c r="I10">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))</f>
-        <v>44455</v>
-      </c>
-      <c r="J10" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))</f>
-        <v>FDS 211</v>
-      </c>
-      <c r="K10" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))</f>
-        <v>Pending</v>
-      </c>
-      <c r="L10">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M10" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))</f>
-        <v>YES</v>
-      </c>
-      <c r="N10" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))</f>
-        <v>Pending</v>
-      </c>
-      <c r="O10">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A10,Qpaste!$A:$A,0), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>1245967</v>
-      </c>
-      <c r="B11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))</f>
-        <v>(319)855-2133</v>
-      </c>
-      <c r="D11">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))</f>
-        <v>44455</v>
-      </c>
-      <c r="G11" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))</f>
-        <v>none</v>
-      </c>
-      <c r="H11" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))</f>
-        <v xml:space="preserve">Unknown </v>
-      </c>
-      <c r="I11">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))</f>
-        <v>44455</v>
-      </c>
-      <c r="J11" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))</f>
-        <v>CLNS 109</v>
-      </c>
-      <c r="K11" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))</f>
-        <v>Pending</v>
-      </c>
-      <c r="L11">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M11" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))</f>
-        <v>YES</v>
-      </c>
-      <c r="N11" t="str">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))</f>
-        <v>Pending</v>
-      </c>
-      <c r="O11">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <f>INDEX(Qpaste!$A:$T,MATCH('Quarantined Students'!$A11,Qpaste!$A:$A,0), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B86344-DAFC-46AC-8F96-5F97879FB6E3}">
-  <dimension ref="A1:T11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1245755</v>
-      </c>
-      <c r="B2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="3">
-        <v>44454</v>
-      </c>
-      <c r="J2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1244590</v>
-      </c>
-      <c r="B3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="3">
-        <v>44454</v>
-      </c>
-      <c r="G3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="3">
-        <v>44454</v>
-      </c>
-      <c r="J3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O3" t="s">
-        <v>123</v>
-      </c>
-      <c r="P3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1248196</v>
-      </c>
-      <c r="B4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="3">
-        <v>44455</v>
-      </c>
-      <c r="G4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="3">
-        <v>44455</v>
-      </c>
-      <c r="J4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1235078</v>
-      </c>
-      <c r="B5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="3">
-        <v>44455</v>
-      </c>
-      <c r="G5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" s="3">
-        <v>44455</v>
-      </c>
-      <c r="J5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" t="s">
-        <v>131</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1245967</v>
-      </c>
-      <c r="B6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="3">
-        <v>44455</v>
-      </c>
-      <c r="G6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" s="3">
-        <v>44455</v>
-      </c>
-      <c r="J6" t="s">
-        <v>144</v>
-      </c>
-      <c r="K6" t="s">
-        <v>131</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="17">
+      <c r="A9" s="17">
         <v>1248095</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B9" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C9" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="4">
-        <v>37619</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="20">
-        <v>44434</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="4">
-        <v>44434</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="5">
-        <v>44442</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="21">
-        <v>44448</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>1248351</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="4">
-        <v>37668</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="20">
-        <v>44434</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="4">
-        <v>44434</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="5">
-        <v>44442</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="21">
-        <v>44448</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>1246184</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="4">
-        <v>37536</v>
+        <v>37619</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>60</v>
@@ -3740,7 +4290,7 @@
         <v>45</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -3751,78 +4301,186 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>1240577</v>
+        <v>1248351</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="D10" s="19"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="4">
+        <v>37668</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>99</v>
+        <v>66</v>
+      </c>
+      <c r="G10" s="20">
+        <v>44434</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="I10" s="4">
-        <v>44445</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" s="6"/>
+        <v>44434</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="5">
+        <v>44442</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="M10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="O10" s="25" t="s">
-        <v>103</v>
+      <c r="N10" s="21">
+        <v>44448</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="23"/>
-      <c r="T10" s="1"/>
+      <c r="T10" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="1">
+        <v>1246184</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="4">
+        <v>37536</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="20">
+        <v>44434</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="4">
+        <v>44434</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="5">
+        <v>44442</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="21">
+        <v>44448</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>1240577</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="4">
+        <v>44445</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>1249163</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>109</v>
       </c>
-      <c r="C11" t="e">
+      <c r="C13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>44452</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G13" t="s">
         <v>110</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H13" t="s">
         <v>111</v>
       </c>
-      <c r="I11">
+      <c r="I13">
         <v>44452</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J13" t="s">
         <v>112</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3833,11 +4491,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A10FFB-DB3F-470D-B9BC-87C08C3BCAF7}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3846,6 +4504,8 @@
     <col min="6" max="7" width="9.453125" style="3" customWidth="1"/>
     <col min="8" max="8" width="30.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
@@ -3879,13 +4539,13 @@
       <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N1" t="s">
@@ -3940,7 +4600,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Positive</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
@@ -3948,7 +4608,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Off-campus</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44425</v>
       </c>
@@ -3956,7 +4616,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Off-campus</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B2,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44435</v>
       </c>
@@ -4017,7 +4677,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>postive</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
@@ -4025,7 +4685,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44427</v>
       </c>
@@ -4033,7 +4693,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Home</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B3,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44437</v>
       </c>
@@ -4099,7 +4759,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Positive (8/20/21)</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
@@ -4107,7 +4767,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Off-campus</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44428</v>
       </c>
@@ -4115,7 +4775,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Home</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B4,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44438</v>
       </c>
@@ -4181,7 +4841,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Positive (8/20/21)</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
@@ -4189,7 +4849,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Off-campus</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44428</v>
       </c>
@@ -4197,7 +4857,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>FOUNDERS APARTMENT</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B5,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44438</v>
       </c>
@@ -4263,7 +4923,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>9/6 Noah - negative</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Unknown</v>
       </c>
@@ -4271,7 +4931,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Unknown</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44445</v>
       </c>
@@ -4279,7 +4939,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>LOH 355C</v>
       </c>
-      <c r="M6" t="str">
+      <c r="M6" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B6,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">Pending </v>
       </c>
@@ -4345,7 +5005,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Positive (8/26/21)</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
@@ -4353,7 +5013,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Off-campus</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44434</v>
       </c>
@@ -4361,7 +5021,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>HOME 8/27</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B7,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44444</v>
       </c>
@@ -4427,7 +5087,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>9/1 - Antigen - Negative</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44434</v>
       </c>
@@ -4435,7 +5095,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Off-campus/Collin Meisenburg</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44434</v>
       </c>
@@ -4443,7 +5103,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Home</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B8,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44442</v>
       </c>
@@ -4509,7 +5169,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>9/2 - Wartburg - Antigen - Negative</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44434</v>
       </c>
@@ -4517,7 +5177,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Off-campus/Collin Meisenburg</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44434</v>
       </c>
@@ -4525,7 +5185,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Home</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B9,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44442</v>
       </c>
@@ -4588,7 +5248,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>9/1 - Antigen - Negative</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44434</v>
       </c>
@@ -4596,7 +5256,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Off-campus/Collin Meisenburg</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44434</v>
       </c>
@@ -4604,7 +5264,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Home</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B10,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44442</v>
       </c>
@@ -4665,7 +5325,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Positive</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44434</v>
       </c>
@@ -4673,7 +5333,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Off Campus - Collin Meisenburg</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44438</v>
       </c>
@@ -4681,7 +5341,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Home 8/30</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B11,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44448</v>
       </c>
@@ -4742,7 +5402,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">9/8/2021 Noah </v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Unknown</v>
       </c>
@@ -4750,7 +5410,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Unknown</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44447</v>
       </c>
@@ -4758,7 +5418,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">HEB 264 </v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B12,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44447</v>
       </c>
@@ -4819,7 +5479,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">9/10/2021 Noah </v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Unknown</v>
       </c>
@@ -4827,7 +5487,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Unknown</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44449</v>
       </c>
@@ -4835,7 +5495,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="M13" t="str">
+      <c r="M13" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B13,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Pending</v>
       </c>
@@ -4901,7 +5561,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>9/13/2021 - negative</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I14" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">None </v>
       </c>
@@ -4909,7 +5569,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">none </v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44452</v>
       </c>
@@ -4917,7 +5577,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Complex: Heb 371</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B14,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44454</v>
       </c>
@@ -4981,7 +5641,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44453</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>none</v>
       </c>
@@ -4989,7 +5649,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">unknown </v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44453</v>
       </c>
@@ -4997,7 +5657,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>FDS 319</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B15,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44454</v>
       </c>
@@ -5061,7 +5721,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Hyvee - 9/14</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>none</v>
       </c>
@@ -5069,7 +5729,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">Unknown </v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44454</v>
       </c>
@@ -5077,7 +5737,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>CENT 004</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B16,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44455</v>
       </c>
@@ -5141,7 +5801,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44454</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I17" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>none</v>
       </c>
@@ -5149,7 +5809,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">Unknown </v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44454</v>
       </c>
@@ -5157,7 +5817,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Complex: HEB 189</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B17,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44455</v>
       </c>
@@ -5221,7 +5881,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44455</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>none</v>
       </c>
@@ -5229,7 +5889,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">Unknown </v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44455</v>
       </c>
@@ -5237,7 +5897,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>CLNN 336</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B18,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44455</v>
       </c>
@@ -5303,7 +5963,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>9/16/2021 - negative</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I19" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>none</v>
       </c>
@@ -5311,7 +5971,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">Unknown </v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44455</v>
       </c>
@@ -5319,7 +5979,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>FDS 211</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B19,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44455</v>
       </c>
@@ -5385,7 +6045,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>9/16/2021 - negative</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>none</v>
       </c>
@@ -5393,7 +6053,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">Unknown </v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44455</v>
       </c>
@@ -5401,7 +6061,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>CLNS 109</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B20,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44455</v>
       </c>
@@ -5467,7 +6127,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>9/16/2021 - negative</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>none</v>
       </c>
@@ -5475,7 +6135,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">Unknown </v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44455</v>
       </c>
@@ -5483,7 +6143,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Complex: Heb 075</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B21,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44455</v>
       </c>
@@ -5544,7 +6204,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44455</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I22" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>none</v>
       </c>
@@ -5552,7 +6212,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">none </v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44455</v>
       </c>
@@ -5560,7 +6220,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>GRO 208C</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B22,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44456</v>
       </c>
@@ -5616,15 +6276,19 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="F23"/>
-      <c r="G23" s="28">
-        <v>44456</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="F23" t="e">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G23" t="e">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H23">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44456</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I23" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>none</v>
       </c>
@@ -5632,7 +6296,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">none </v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44456</v>
       </c>
@@ -5640,7 +6304,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>KV 503C</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44456</v>
       </c>
@@ -5696,15 +6360,19 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="F24"/>
-      <c r="G24" s="28">
-        <v>44456</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="F24" t="e">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G24" t="e">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H24">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44456</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I24" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>none</v>
       </c>
@@ -5712,7 +6380,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">none </v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44456</v>
       </c>
@@ -5720,7 +6388,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Manors: CORN 015</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44456</v>
       </c>
@@ -5757,8 +6425,11 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+    <row r="25" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="48" t="s">
         <v>193</v>
       </c>
       <c r="C25" t="str">
@@ -5773,15 +6444,19 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="F25"/>
-      <c r="G25" s="28">
-        <v>44456</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="F25" t="e">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G25" t="e">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H25">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44456</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I25" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
         <v>none</v>
       </c>
@@ -5789,7 +6464,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">none </v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44456</v>
       </c>
@@ -5797,7 +6472,7 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Off campus</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44456</v>
       </c>
@@ -5831,7 +6506,175 @@
       </c>
       <c r="U25" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
-        <v/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>1250699</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>563-203-2947</v>
+      </c>
+      <c r="D26" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">9/10/21 Wartburg </v>
+      </c>
+      <c r="F26" t="e">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" t="e">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H26" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Postive</v>
+      </c>
+      <c r="I26" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="J26" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="K26" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44449</v>
+      </c>
+      <c r="L26" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>HOME</v>
+      </c>
+      <c r="M26" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44459</v>
+      </c>
+      <c r="N26" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Danny</v>
+      </c>
+      <c r="O26" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P26">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44459</v>
+      </c>
+      <c r="Q26" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Cassie H.</v>
+      </c>
+      <c r="R26" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>no communication returned</v>
+      </c>
+      <c r="S26" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T26" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U26">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.45">
+      <c r="A27" s="27">
+        <v>1244320</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>960)771-4998 - does not work</v>
+      </c>
+      <c r="D27" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">9/15/2021 Wartburg </v>
+      </c>
+      <c r="F27" t="e">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G27" t="e">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H27" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Positive</v>
+      </c>
+      <c r="I27" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44449</v>
+      </c>
+      <c r="J27" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Roommate- Kade Munkel</v>
+      </c>
+      <c r="K27" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44450</v>
+      </c>
+      <c r="L27" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Hebron Apartment</v>
+      </c>
+      <c r="M27" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44460</v>
+      </c>
+      <c r="N27" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">Ryan </v>
+      </c>
+      <c r="O27" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P27">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44460</v>
+      </c>
+      <c r="Q27" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Courtney TS</v>
+      </c>
+      <c r="R27" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">Fever; cough, sore eyes/nose - 9/16; Cough, losing taste/smell - 9/17; 9/18; low-grade fever, cough; no smell/taste - 9/19; No smell/taste, nausea - 9/20; </v>
+      </c>
+      <c r="S27" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">No Pork, </v>
+      </c>
+      <c r="T27" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U27" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>n/a</v>
       </c>
     </row>
   </sheetData>
@@ -5841,10 +6684,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B33359F-1ECB-4015-A969-E5B4078CAA66}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2:AN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5909,146 +6752,155 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1235116</v>
+      <c r="A2" t="s">
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
+        <v>193</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44456</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="I2" s="3">
-        <v>44425</v>
+        <v>44456</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="K2" s="3">
-        <v>44435</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
+        <v>44456</v>
       </c>
       <c r="M2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="S2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1250699</v>
+      </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="I3" s="3">
-        <v>44427</v>
+        <v>44449</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="K3" s="3">
-        <v>44437</v>
+        <v>44459</v>
       </c>
       <c r="L3" t="s">
         <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="N3" s="3">
+        <v>44459</v>
       </c>
       <c r="O3" t="s">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="P3" t="s">
+        <v>147</v>
+      </c>
+      <c r="S3" s="3">
+        <v>44463</v>
+      </c>
+      <c r="T3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1232227</v>
+        <v>1244320</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3">
-        <v>36695</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44449</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="I4" s="3">
-        <v>44428</v>
+        <v>44450</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="K4" s="3">
-        <v>44438</v>
+        <v>44460</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="M4" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="N4" s="3">
+        <v>44460</v>
       </c>
       <c r="O4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T4" t="s">
-        <v>16</v>
+        <v>123</v>
+      </c>
+      <c r="P4" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>124</v>
+      </c>
+      <c r="S4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1233601</v>
+        <v>1235116</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3">
-        <v>37013</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -6057,86 +6909,80 @@
         <v>4</v>
       </c>
       <c r="I5" s="3">
-        <v>44428</v>
+        <v>44425</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K5" s="3">
-        <v>44438</v>
+        <v>44435</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O5" t="s">
         <v>5</v>
       </c>
       <c r="T5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1240577</v>
-      </c>
       <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>97</v>
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="I6" s="3">
-        <v>44445</v>
+        <v>44427</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>101</v>
+        <v>11</v>
+      </c>
+      <c r="K6" s="3">
+        <v>44437</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>103</v>
-      </c>
-      <c r="P6" t="s">
-        <v>151</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1246930</v>
+        <v>1232227</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3">
-        <v>37783</v>
+        <v>36695</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
@@ -6145,478 +6991,493 @@
         <v>4</v>
       </c>
       <c r="I7" s="3">
-        <v>44434</v>
+        <v>44428</v>
       </c>
       <c r="J7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="K7" s="3">
-        <v>44444</v>
+        <v>44438</v>
       </c>
       <c r="L7" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="T7" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1248095</v>
+        <v>1233601</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="3">
-        <v>37619</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
+        <v>37013</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="3">
-        <v>44434</v>
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="I8" s="3">
-        <v>44434</v>
+        <v>44428</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K8" s="3">
-        <v>44442</v>
+        <v>44438</v>
       </c>
       <c r="L8" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="3">
-        <v>44448</v>
-      </c>
       <c r="O8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" t="s">
-        <v>63</v>
+        <v>5</v>
+      </c>
+      <c r="T8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1248351</v>
+        <v>1240577</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="3">
-        <v>37668</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="3">
-        <v>44434</v>
+        <v>150</v>
+      </c>
+      <c r="G9" t="s">
+        <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="I9" s="3">
-        <v>44434</v>
+        <v>44445</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="3">
-        <v>44442</v>
-      </c>
-      <c r="L9" t="s">
-        <v>62</v>
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
       </c>
       <c r="M9" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="3">
-        <v>44448</v>
+      <c r="N9" t="s">
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="P9" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1246930</v>
+      </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="3">
-        <v>37536</v>
+        <v>153</v>
+      </c>
+      <c r="D10" s="3">
+        <v>37783</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="3">
-        <v>44434</v>
+        <v>154</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="I10" s="3">
         <v>44434</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="K10" s="3">
-        <v>44442</v>
+        <v>44444</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="M10" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="3">
-        <v>44448</v>
-      </c>
       <c r="O10" t="s">
         <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>70</v>
+        <v>157</v>
+      </c>
+      <c r="T10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1248095</v>
+      </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="3">
-        <v>37763</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
+        <v>59</v>
+      </c>
+      <c r="E11" s="3">
+        <v>37619</v>
       </c>
       <c r="F11" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G11" s="3">
         <v>44434</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I11" s="3">
-        <v>44438</v>
+        <v>44434</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K11" s="3">
-        <v>44448</v>
+        <v>44442</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="M11" t="s">
         <v>20</v>
       </c>
+      <c r="N11" s="3">
+        <v>44448</v>
+      </c>
       <c r="O11" t="s">
         <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
-      </c>
-      <c r="T11" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1248351</v>
+      </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>65</v>
+      </c>
+      <c r="E12" s="3">
+        <v>37668</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" t="s">
-        <v>99</v>
+        <v>66</v>
+      </c>
+      <c r="G12" s="3">
+        <v>44434</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="I12" s="3">
-        <v>44447</v>
+        <v>44434</v>
       </c>
       <c r="J12" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="K12" s="3">
-        <v>44447</v>
+        <v>44442</v>
+      </c>
+      <c r="L12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="3">
+        <v>44448</v>
+      </c>
+      <c r="O12" t="s">
+        <v>45</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>69</v>
+      </c>
+      <c r="E13" s="3">
+        <v>37536</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" t="s">
-        <v>99</v>
+        <v>60</v>
+      </c>
+      <c r="G13" s="3">
+        <v>44434</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="I13" s="3">
-        <v>44449</v>
-      </c>
-      <c r="K13" t="s">
-        <v>131</v>
-      </c>
-      <c r="R13" t="s">
-        <v>167</v>
+        <v>44434</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="3">
+        <v>44442</v>
+      </c>
+      <c r="L13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="3">
+        <v>44448</v>
+      </c>
+      <c r="O13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>1249163</v>
-      </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>41</v>
+      </c>
+      <c r="D14" s="3">
+        <v>37763</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" t="s">
-        <v>110</v>
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>44434</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="I14" s="3">
-        <v>44452</v>
+        <v>44438</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="K14" s="3">
-        <v>44454</v>
+        <v>44448</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
       </c>
       <c r="M14" t="s">
         <v>20</v>
       </c>
-      <c r="N14" t="s">
-        <v>102</v>
-      </c>
       <c r="O14" t="s">
-        <v>117</v>
+        <v>45</v>
+      </c>
+      <c r="P14" t="s">
+        <v>158</v>
+      </c>
+      <c r="T14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>1239366</v>
-      </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="3">
-        <v>44453</v>
+        <v>160</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="I15" s="3">
-        <v>44453</v>
+        <v>44447</v>
       </c>
       <c r="J15" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K15" s="3">
-        <v>44454</v>
-      </c>
-      <c r="M15" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" t="s">
-        <v>123</v>
+        <v>44447</v>
       </c>
       <c r="P15" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>1245755</v>
-      </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="I16" s="3">
-        <v>44454</v>
-      </c>
-      <c r="J16" t="s">
-        <v>130</v>
-      </c>
-      <c r="K16" s="3">
-        <v>44455</v>
-      </c>
-      <c r="M16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" t="s">
+        <v>44449</v>
+      </c>
+      <c r="K16" t="s">
         <v>131</v>
       </c>
-      <c r="O16" t="s">
-        <v>123</v>
-      </c>
-      <c r="P16" t="s">
-        <v>132</v>
+      <c r="R16" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1244590</v>
+        <v>1249163</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="3">
+        <v>109</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="3">
+        <v>44452</v>
+      </c>
+      <c r="J17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="3">
         <v>44454</v>
-      </c>
-      <c r="G17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" s="3">
-        <v>44454</v>
-      </c>
-      <c r="J17" t="s">
-        <v>175</v>
-      </c>
-      <c r="K17" s="3">
-        <v>44455</v>
       </c>
       <c r="M17" t="s">
         <v>20</v>
       </c>
       <c r="N17" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="O17" t="s">
-        <v>123</v>
-      </c>
-      <c r="P17" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1248196</v>
+        <v>1239366</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="F18" s="3">
-        <v>44455</v>
+        <v>44453</v>
       </c>
       <c r="G18" t="s">
         <v>128</v>
       </c>
       <c r="H18" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="I18" s="3">
-        <v>44455</v>
+        <v>44453</v>
       </c>
       <c r="J18" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="K18" s="3">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="M18" t="s">
         <v>20</v>
       </c>
-      <c r="N18" t="s">
-        <v>131</v>
-      </c>
       <c r="O18" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>1235078</v>
+        <v>1245755</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="G19" t="s">
         <v>128</v>
@@ -6625,10 +7486,10 @@
         <v>129</v>
       </c>
       <c r="I19" s="3">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="J19" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="K19" s="3">
         <v>44455</v>
@@ -6640,24 +7501,21 @@
         <v>131</v>
       </c>
       <c r="O19" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>1245967</v>
+        <v>1244590</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" t="s">
-        <v>178</v>
+        <v>133</v>
+      </c>
+      <c r="F20" s="3">
+        <v>44454</v>
       </c>
       <c r="G20" t="s">
         <v>128</v>
@@ -6666,10 +7524,10 @@
         <v>129</v>
       </c>
       <c r="I20" s="3">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="J20" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="K20" s="3">
         <v>44455</v>
@@ -6681,24 +7539,24 @@
         <v>131</v>
       </c>
       <c r="O20" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>1243914</v>
+        <v>1248196</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
-      </c>
-      <c r="F21" t="s">
-        <v>178</v>
+        <v>137</v>
+      </c>
+      <c r="F21" s="3">
+        <v>44455</v>
       </c>
       <c r="G21" t="s">
         <v>128</v>
@@ -6710,7 +7568,7 @@
         <v>44455</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="K21" s="3">
         <v>44455</v>
@@ -6729,101 +7587,134 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1235078</v>
+      </c>
       <c r="B22" t="s">
-        <v>185</v>
-      </c>
-      <c r="F22" s="3">
-        <v>44455</v>
+        <v>139</v>
+      </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
       </c>
       <c r="G22" t="s">
         <v>128</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="I22" s="3">
         <v>44455</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="K22" s="3">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="M22" t="s">
         <v>20</v>
       </c>
+      <c r="N22" t="s">
+        <v>131</v>
+      </c>
+      <c r="O22" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>1237558</v>
+        <v>1245967</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="3">
-        <v>44456</v>
+        <v>143</v>
+      </c>
+      <c r="F23" t="s">
+        <v>178</v>
       </c>
       <c r="G23" t="s">
         <v>128</v>
       </c>
       <c r="H23" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="I23" s="3">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="J23" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="K23" s="3">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="M23" t="s">
         <v>20</v>
       </c>
+      <c r="N23" t="s">
+        <v>131</v>
+      </c>
+      <c r="O23" t="s">
+        <v>117</v>
+      </c>
+      <c r="P23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>1212744</v>
+        <v>1243914</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
-      </c>
-      <c r="F24" s="3">
-        <v>44456</v>
+        <v>183</v>
+      </c>
+      <c r="F24" t="s">
+        <v>178</v>
       </c>
       <c r="G24" t="s">
         <v>128</v>
       </c>
       <c r="H24" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="I24" s="3">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K24" s="3">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="M24" t="s">
         <v>20</v>
       </c>
+      <c r="N24" t="s">
+        <v>131</v>
+      </c>
+      <c r="O24" t="s">
+        <v>117</v>
+      </c>
+      <c r="P24" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F25" s="3">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="G25" t="s">
         <v>128</v>
@@ -6832,15 +7723,105 @@
         <v>111</v>
       </c>
       <c r="I25" s="3">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="J25" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K25" s="3">
         <v>44456</v>
       </c>
       <c r="M25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1237558</v>
+      </c>
+      <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="3">
+        <v>44456</v>
+      </c>
+      <c r="G26" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="3">
+        <v>44456</v>
+      </c>
+      <c r="J26" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="3">
+        <v>44456</v>
+      </c>
+      <c r="M26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1212744</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="3">
+        <v>44456</v>
+      </c>
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="3">
+        <v>44456</v>
+      </c>
+      <c r="J27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" s="3">
+        <v>44456</v>
+      </c>
+      <c r="M27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="3">
+        <v>44456</v>
+      </c>
+      <c r="G28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="3">
+        <v>44456</v>
+      </c>
+      <c r="J28" t="s">
+        <v>194</v>
+      </c>
+      <c r="K28" s="3">
+        <v>44456</v>
+      </c>
+      <c r="M28" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6851,10 +7832,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697DB29A-8071-4245-AA70-F84BFB7723B1}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6887,198 +7868,397 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="44">
         <v>36648</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="44">
         <v>44428</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="44">
         <v>37180</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="44">
         <v>44428</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="44">
         <v>37513</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="44">
         <v>44428</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="44">
         <v>37221</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="44">
         <v>44428</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="44">
         <v>36313</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="44">
         <v>44428</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="44">
         <v>36852</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="44">
         <v>44428</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="44">
         <v>37573</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="44">
         <v>44434</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="44">
         <v>37763</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="44">
         <v>44434</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="44">
         <v>37754</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="44">
         <v>44438</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="44">
         <v>44449</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>114</v>
       </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="44">
+        <v>44461</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="44">
+        <v>44461</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="44">
+        <v>44461</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="44">
+        <v>44461</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="44">
+        <v>44461</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="44">
+        <v>44461</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="44">
+        <v>44461</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="44">
+        <v>44461</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="44">
+        <v>44461</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="44">
+        <v>44461</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="44">
+        <v>44461</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="44">
+        <v>44461</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="44">
+        <v>44461</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="44">
+        <v>44461</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="44">
+        <v>44461</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="44">
+        <v>44461</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2021-22 Wartburg COVID Tracing.xlsx
+++ b/2021-22 Wartburg COVID Tracing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2021-2022\IowaCOVID19\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46042815-339D-4B3E-946D-68672E18B79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F86D8DB-8811-48FA-8CC8-CF24C4113E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="4" xr2:uid="{DC7C837F-5F10-4144-B236-1FECA5F0EA08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" firstSheet="1" activeTab="6" xr2:uid="{DC7C837F-5F10-4144-B236-1FECA5F0EA08}"/>
   </bookViews>
   <sheets>
     <sheet name="Infected Students" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="235">
   <si>
     <t>Preston Rochford</t>
   </si>
@@ -749,6 +749,24 @@
   </si>
   <si>
     <t xml:space="preserve">Fever; cough, sore eyes/nose - 9/16; Cough, losing taste/smell - 9/17; 9/18; low-grade fever, cough; no smell/taste - 9/19; No smell/taste, nausea - 9/20; </t>
+  </si>
+  <si>
+    <t>Justin Hurd</t>
+  </si>
+  <si>
+    <t>(309)634-1378</t>
+  </si>
+  <si>
+    <t>Noah - 9/29</t>
+  </si>
+  <si>
+    <t>Test Location</t>
+  </si>
+  <si>
+    <t>Test Date</t>
+  </si>
+  <si>
+    <t>Noah</t>
   </si>
 </sst>
 </file>
@@ -791,18 +809,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -824,12 +836,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA54CCF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -837,12 +843,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -939,32 +939,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -975,44 +966,42 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1327,788 +1316,834 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B7C922-39ED-4AAC-B544-0C25322ECB9A}">
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AP10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="20.7265625" customWidth="1"/>
     <col min="5" max="5" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.6328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.6328125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:42" s="30" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="J1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="L1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="N1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="R1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="S1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="T1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="U1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="V1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B2" s="1">
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="B2">
         <v>1235116</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="str" cm="1">
+      <c r="D2" t="str" cm="1">
         <f t="array" ref="D2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="E2" s="1" t="str" cm="1">
+      <c r="E2" s="3" t="str" cm="1">
         <f t="array" ref="E2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="F2" s="1" t="str" cm="1">
+      <c r="F2" t="str" cm="1">
         <f t="array" ref="F2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
         <v>Wartburg</v>
       </c>
-      <c r="G2" s="1" t="str" cm="1">
-        <f t="array" ref="G2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="str" cm="1">
+        <f t="array" ref="I2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
         <v>Positive</v>
       </c>
-      <c r="H2" s="4" t="str" cm="1">
-        <f t="array" ref="H2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
+      <c r="J2" s="3" t="str" cm="1">
+        <f t="array" ref="J2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
-      <c r="I2" s="1" t="str" cm="1">
-        <f t="array" ref="I2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
-        <v>Off-campus</v>
-      </c>
-      <c r="J2" s="4" cm="1">
-        <f t="array" ref="J2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
-        <v>44425</v>
-      </c>
-      <c r="K2" s="1" t="str" cm="1">
+      <c r="K2" t="str" cm="1">
         <f t="array" ref="K2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
         <v>Off-campus</v>
       </c>
-      <c r="L2" s="4" cm="1">
+      <c r="L2" s="3" cm="1">
         <f t="array" ref="L2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+        <v>44425</v>
+      </c>
+      <c r="M2" t="str" cm="1">
+        <f t="array" ref="M2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+        <v>Off-campus</v>
+      </c>
+      <c r="N2" s="3" cm="1">
+        <f t="array" ref="N2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
         <v>44435</v>
       </c>
-      <c r="M2" s="1" t="str" cm="1">
-        <f t="array" ref="M2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+      <c r="O2" t="str" cm="1">
+        <f t="array" ref="O2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
         <v>Danny</v>
       </c>
-      <c r="N2" s="1" t="str" cm="1">
-        <f t="array" ref="N2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+      <c r="P2" t="str" cm="1">
+        <f t="array" ref="P2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
         <v>N/A</v>
       </c>
-      <c r="O2" s="1" t="str" cm="1">
-        <f t="array" ref="O2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="P2" s="1" t="str" cm="1">
-        <f t="array" ref="P2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+      <c r="Q2" s="3" t="str" cm="1">
+        <f t="array" ref="Q2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R2" t="str" cm="1">
+        <f t="array" ref="R2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v>Danny</v>
       </c>
-      <c r="Q2" s="1" t="str" cm="1">
-        <f t="array" ref="Q2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="R2" s="1" t="str" cm="1">
-        <f t="array" ref="R2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="S2" s="1" t="str" cm="1">
+      <c r="S2" t="str" cm="1">
         <f t="array" ref="S2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="T2" s="1" t="str" cm="1">
+      <c r="T2" t="str" cm="1">
         <f t="array" ref="T2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="U2" t="str" cm="1">
+        <f t="array" ref="U2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="V2" t="str" cm="1">
+        <f t="array" ref="V2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="str" cm="1">
+      <c r="D3" t="str" cm="1">
         <f t="array" ref="D3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="E3" s="1" t="str" cm="1">
+      <c r="E3" s="3" t="str" cm="1">
         <f t="array" ref="E3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="F3" s="1" t="str" cm="1">
+      <c r="F3" t="str" cm="1">
         <f t="array" ref="F3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
         <v>wartburg</v>
       </c>
-      <c r="G3" s="1" t="str" cm="1">
-        <f t="array" ref="G3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="str" cm="1">
+        <f t="array" ref="I3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
         <v>postive</v>
       </c>
-      <c r="H3" s="4" t="str" cm="1">
-        <f t="array" ref="H3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
+      <c r="J3" s="3" t="str" cm="1">
+        <f t="array" ref="J3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
-      <c r="I3" s="1" t="str" cm="1">
-        <f t="array" ref="I3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+      <c r="K3" t="str" cm="1">
+        <f t="array" ref="K3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
-      <c r="J3" s="4" cm="1">
-        <f t="array" ref="J3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+      <c r="L3" s="3" cm="1">
+        <f t="array" ref="L3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
         <v>44427</v>
       </c>
-      <c r="K3" s="1" t="str" cm="1">
-        <f t="array" ref="K3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+      <c r="M3" t="str" cm="1">
+        <f t="array" ref="M3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
         <v>Home</v>
       </c>
-      <c r="L3" s="4" cm="1">
-        <f t="array" ref="L3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+      <c r="N3" s="3" cm="1">
+        <f t="array" ref="N3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
         <v>44437</v>
       </c>
-      <c r="M3" s="1" t="str" cm="1">
-        <f t="array" ref="M3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+      <c r="O3" t="str" cm="1">
+        <f t="array" ref="O3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
         <v>Danny</v>
       </c>
-      <c r="N3" s="1" t="str" cm="1">
-        <f t="array" ref="N3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+      <c r="P3" t="str" cm="1">
+        <f t="array" ref="P3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
         <v>N/A</v>
       </c>
-      <c r="O3" s="1" t="str" cm="1">
-        <f t="array" ref="O3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="P3" s="1" t="str" cm="1">
-        <f t="array" ref="P3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+      <c r="Q3" s="3" t="str" cm="1">
+        <f t="array" ref="Q3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R3" t="str" cm="1">
+        <f t="array" ref="R3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v>Danny</v>
       </c>
-      <c r="Q3" s="1" t="str" cm="1">
-        <f t="array" ref="Q3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="R3" s="1" t="str" cm="1">
-        <f t="array" ref="R3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="S3" s="1" t="str" cm="1">
+      <c r="S3" t="str" cm="1">
         <f t="array" ref="S3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="T3" s="1" t="str" cm="1">
+      <c r="T3" t="str" cm="1">
         <f t="array" ref="T3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B4" s="1">
+      <c r="U3" t="str" cm="1">
+        <f t="array" ref="U3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="V3" t="str" cm="1">
+        <f t="array" ref="V3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="B4">
         <v>1232227</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="str" cm="1">
+      <c r="D4" t="str" cm="1">
         <f t="array" ref="D4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
         <v>309-912-3637</v>
       </c>
-      <c r="E4" s="1" cm="1">
+      <c r="E4" s="3" cm="1">
         <f t="array" ref="E4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
         <v>36695</v>
       </c>
-      <c r="F4" s="1" t="str" cm="1">
+      <c r="F4" t="str" cm="1">
         <f t="array" ref="F4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
         <v>Wartburg</v>
       </c>
-      <c r="G4" s="1" t="str" cm="1">
-        <f t="array" ref="G4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="str" cm="1">
+        <f t="array" ref="I4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
         <v>Positive (8/20/21)</v>
       </c>
-      <c r="H4" s="4" t="str" cm="1">
-        <f t="array" ref="H4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
+      <c r="J4" s="3" t="str" cm="1">
+        <f t="array" ref="J4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
-      <c r="I4" s="1" t="str" cm="1">
-        <f t="array" ref="I4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+      <c r="K4" t="str" cm="1">
+        <f t="array" ref="K4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
         <v>Off-campus</v>
       </c>
-      <c r="J4" s="4" cm="1">
-        <f t="array" ref="J4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+      <c r="L4" s="3" cm="1">
+        <f t="array" ref="L4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
         <v>44428</v>
       </c>
-      <c r="K4" s="1" t="str" cm="1">
-        <f t="array" ref="K4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+      <c r="M4" t="str" cm="1">
+        <f t="array" ref="M4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
         <v>Home</v>
       </c>
-      <c r="L4" s="4" cm="1">
-        <f t="array" ref="L4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+      <c r="N4" s="3" cm="1">
+        <f t="array" ref="N4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
         <v>44438</v>
       </c>
-      <c r="M4" s="1" t="str" cm="1">
-        <f t="array" ref="M4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+      <c r="O4" t="str" cm="1">
+        <f t="array" ref="O4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
         <v>David</v>
       </c>
-      <c r="N4" s="1" t="str" cm="1">
-        <f t="array" ref="N4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+      <c r="P4" t="str" cm="1">
+        <f t="array" ref="P4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
         <v>N/A</v>
       </c>
-      <c r="O4" s="1" t="str" cm="1">
-        <f t="array" ref="O4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="P4" s="1" t="str" cm="1">
-        <f t="array" ref="P4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+      <c r="Q4" s="3" t="str" cm="1">
+        <f t="array" ref="Q4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R4" t="str" cm="1">
+        <f t="array" ref="R4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v>Danny</v>
       </c>
-      <c r="Q4" s="1" t="str" cm="1">
-        <f t="array" ref="Q4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="R4" s="1" t="str" cm="1">
-        <f t="array" ref="R4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="S4" s="1" t="str" cm="1">
+      <c r="S4" t="str" cm="1">
         <f t="array" ref="S4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="T4" s="1" t="str" cm="1">
+      <c r="T4" t="str" cm="1">
         <f t="array" ref="T4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B5" s="1">
+      <c r="U4" t="str" cm="1">
+        <f t="array" ref="U4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="V4" t="str" cm="1">
+        <f t="array" ref="V4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="B5">
         <v>1233601</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="str" cm="1">
+      <c r="D5" t="str" cm="1">
         <f t="array" ref="D5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
         <v>515-205-6696</v>
       </c>
-      <c r="E5" s="1" cm="1">
+      <c r="E5" s="3" cm="1">
         <f t="array" ref="E5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
         <v>37013</v>
       </c>
-      <c r="F5" s="1" t="str" cm="1">
+      <c r="F5" t="str" cm="1">
         <f t="array" ref="F5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
         <v>Wartburg</v>
       </c>
-      <c r="G5" s="1" t="str" cm="1">
-        <f t="array" ref="G5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="str" cm="1">
+        <f t="array" ref="I5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
         <v>Positive (8/20/21)</v>
       </c>
-      <c r="H5" s="4" t="str" cm="1">
-        <f t="array" ref="H5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
+      <c r="J5" s="3" t="str" cm="1">
+        <f t="array" ref="J5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
-      <c r="I5" s="1" t="str" cm="1">
-        <f t="array" ref="I5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+      <c r="K5" t="str" cm="1">
+        <f t="array" ref="K5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
         <v>Off-campus</v>
       </c>
-      <c r="J5" s="4" cm="1">
-        <f t="array" ref="J5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+      <c r="L5" s="3" cm="1">
+        <f t="array" ref="L5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
         <v>44428</v>
       </c>
-      <c r="K5" s="1" t="str" cm="1">
-        <f t="array" ref="K5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+      <c r="M5" t="str" cm="1">
+        <f t="array" ref="M5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
         <v>FOUNDERS APARTMENT</v>
       </c>
-      <c r="L5" s="4" cm="1">
-        <f t="array" ref="L5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+      <c r="N5" s="3" cm="1">
+        <f t="array" ref="N5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
         <v>44438</v>
       </c>
-      <c r="M5" s="1" t="str" cm="1">
-        <f t="array" ref="M5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+      <c r="O5" t="str" cm="1">
+        <f t="array" ref="O5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
         <v>David</v>
       </c>
-      <c r="N5" s="1" t="str" cm="1">
-        <f t="array" ref="N5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+      <c r="P5" t="str" cm="1">
+        <f t="array" ref="P5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
         <v>YES</v>
       </c>
-      <c r="O5" s="1" t="str" cm="1">
-        <f t="array" ref="O5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="P5" s="1" t="str" cm="1">
-        <f t="array" ref="P5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+      <c r="Q5" s="3" t="str" cm="1">
+        <f t="array" ref="Q5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R5" t="str" cm="1">
+        <f t="array" ref="R5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v>Danny</v>
       </c>
-      <c r="Q5" s="1" t="str" cm="1">
-        <f t="array" ref="Q5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="R5" s="1" t="str" cm="1">
-        <f t="array" ref="R5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="S5" s="1" t="str" cm="1">
+      <c r="S5" t="str" cm="1">
         <f t="array" ref="S5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="T5" s="1" t="str" cm="1">
+      <c r="T5" t="str" cm="1">
         <f t="array" ref="T5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="U5" t="str" cm="1">
+        <f t="array" ref="U5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="V5" t="str" cm="1">
+        <f t="array" ref="V5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>146</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="1" t="str" cm="1">
+      <c r="D6" t="str" cm="1">
         <f t="array" ref="D6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
         <v>(651)447-3716</v>
       </c>
-      <c r="E6" s="1" cm="1">
+      <c r="E6" s="3" cm="1">
         <f t="array" ref="E6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
         <v>37763</v>
       </c>
-      <c r="F6" s="1" t="str" cm="1">
+      <c r="F6" t="str" cm="1">
         <f t="array" ref="F6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
         <v xml:space="preserve">8/30 - Wartburg </v>
       </c>
-      <c r="G6" s="1" t="str" cm="1">
-        <f t="array" ref="G6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
+      <c r="G6" s="22">
+        <v>44438</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str" cm="1">
+        <f t="array" ref="I6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
         <v>Positive</v>
       </c>
-      <c r="H6" s="4" cm="1">
-        <f t="array" ref="H6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
+      <c r="J6" s="3" cm="1">
+        <f t="array" ref="J6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
         <v>44434</v>
       </c>
-      <c r="I6" s="1" t="str" cm="1">
-        <f t="array" ref="I6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+      <c r="K6" t="str" cm="1">
+        <f t="array" ref="K6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
         <v>Off Campus - Collin Meisenburg</v>
       </c>
-      <c r="J6" s="4" cm="1">
-        <f t="array" ref="J6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+      <c r="L6" s="3" cm="1">
+        <f t="array" ref="L6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
         <v>44438</v>
       </c>
-      <c r="K6" s="1" t="str" cm="1">
-        <f t="array" ref="K6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+      <c r="M6" t="str" cm="1">
+        <f t="array" ref="M6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
         <v>Home 8/30</v>
       </c>
-      <c r="L6" s="4" cm="1">
-        <f t="array" ref="L6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+      <c r="N6" s="3" cm="1">
+        <f t="array" ref="N6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
         <v>44448</v>
       </c>
-      <c r="M6" s="1" t="str" cm="1">
-        <f t="array" ref="M6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+      <c r="O6" t="str" cm="1">
+        <f t="array" ref="O6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
         <v>David</v>
       </c>
-      <c r="N6" s="1" t="str" cm="1">
-        <f t="array" ref="N6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+      <c r="P6" t="str" cm="1">
+        <f t="array" ref="P6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
         <v>YES</v>
       </c>
-      <c r="O6" s="1" t="str" cm="1">
-        <f t="array" ref="O6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="P6" s="1" t="str" cm="1">
-        <f t="array" ref="P6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+      <c r="Q6" s="3" t="str" cm="1">
+        <f t="array" ref="Q6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R6" t="str" cm="1">
+        <f t="array" ref="R6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v>Kristin TT.</v>
       </c>
-      <c r="Q6" s="1" t="str" cm="1">
-        <f t="array" ref="Q6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+      <c r="S6" t="str" cm="1">
+        <f t="array" ref="S6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
         <v>8/29 - congestion</v>
       </c>
-      <c r="R6" s="1" t="str" cm="1">
-        <f t="array" ref="R6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="S6" s="1" t="str" cm="1">
-        <f t="array" ref="S6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="T6" s="1" t="str" cm="1">
+      <c r="T6" t="str" cm="1">
         <f t="array" ref="T6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="U6" t="str" cm="1">
+        <f t="array" ref="U6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="V6" t="str" cm="1">
+        <f t="array" ref="V6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>1250699</v>
       </c>
       <c r="C7" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="1" t="str" cm="1">
+      <c r="D7" t="str" cm="1">
         <f t="array" ref="D7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
         <v>563-203-2947</v>
       </c>
-      <c r="E7" s="1" t="str" cm="1">
+      <c r="E7" s="3" t="str" cm="1">
         <f t="array" ref="E7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="F7" s="1" t="str" cm="1">
+      <c r="F7" t="str" cm="1">
         <f t="array" ref="F7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
         <v xml:space="preserve">9/10/21 Wartburg </v>
       </c>
-      <c r="G7" s="1" t="str" cm="1">
-        <f t="array" ref="G7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
+      <c r="G7" s="22">
+        <v>44449</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="str" cm="1">
+        <f t="array" ref="I7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
         <v>Postive</v>
       </c>
-      <c r="H7" s="4" t="str" cm="1">
-        <f t="array" ref="H7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
+      <c r="J7" s="3" t="str" cm="1">
+        <f t="array" ref="J7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
         <v>Unknown</v>
       </c>
-      <c r="I7" s="1" t="str" cm="1">
-        <f t="array" ref="I7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+      <c r="K7" t="str" cm="1">
+        <f t="array" ref="K7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
         <v>Unknown</v>
       </c>
-      <c r="J7" s="4" cm="1">
-        <f t="array" ref="J7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+      <c r="L7" s="3" cm="1">
+        <f t="array" ref="L7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
         <v>44449</v>
       </c>
-      <c r="K7" s="1" t="str" cm="1">
-        <f t="array" ref="K7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+      <c r="M7" t="str" cm="1">
+        <f t="array" ref="M7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
         <v>HOME</v>
       </c>
-      <c r="L7" s="4" cm="1">
-        <f t="array" ref="L7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+      <c r="N7" s="3" cm="1">
+        <f t="array" ref="N7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
         <v>44459</v>
       </c>
-      <c r="M7" s="1" t="str" cm="1">
-        <f t="array" ref="M7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+      <c r="O7" t="str" cm="1">
+        <f t="array" ref="O7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
         <v>Danny</v>
       </c>
-      <c r="N7" s="1" t="str" cm="1">
-        <f t="array" ref="N7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+      <c r="P7" t="str" cm="1">
+        <f t="array" ref="P7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
         <v>YES</v>
       </c>
-      <c r="O7" s="1" cm="1">
-        <f t="array" ref="O7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+      <c r="Q7" s="3" cm="1">
+        <f t="array" ref="Q7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
         <v>44459</v>
       </c>
-      <c r="P7" s="1" t="str" cm="1">
-        <f t="array" ref="P7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+      <c r="R7" t="str" cm="1">
+        <f t="array" ref="R7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v>Cassie H.</v>
       </c>
-      <c r="Q7" s="1" t="str" cm="1">
-        <f t="array" ref="Q7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+      <c r="S7" t="str" cm="1">
+        <f t="array" ref="S7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
         <v>no communication returned</v>
       </c>
-      <c r="R7" s="1" t="str" cm="1">
-        <f t="array" ref="R7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="S7" s="1" t="str" cm="1">
-        <f t="array" ref="S7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="T7" s="1" t="str" cm="1">
+      <c r="T7" t="str" cm="1">
         <f t="array" ref="T7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:40" ht="16" x14ac:dyDescent="0.45">
+      <c r="U7" t="str" cm="1">
+        <f t="array" ref="U7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="V7" t="str" cm="1">
+        <f t="array" ref="V7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8">
         <v>1244320</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="1" t="str" cm="1">
+      <c r="D8" t="str" cm="1">
         <f t="array" ref="D8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
         <v>960)771-4998 - does not work</v>
       </c>
-      <c r="E8" s="1" t="str" cm="1">
+      <c r="E8" s="3" t="str" cm="1">
         <f t="array" ref="E8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="F8" s="1" t="str" cm="1">
+      <c r="F8" t="str" cm="1">
         <f t="array" ref="F8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
         <v xml:space="preserve">9/15/2021 Wartburg </v>
       </c>
-      <c r="G8" s="1" t="str" cm="1">
-        <f t="array" ref="G8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
+      <c r="G8" s="22">
+        <v>44454</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="str" cm="1">
+        <f t="array" ref="I8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
         <v>Positive</v>
       </c>
-      <c r="H8" s="4" cm="1">
-        <f t="array" ref="H8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
+      <c r="J8" s="3" cm="1">
+        <f t="array" ref="J8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
         <v>44449</v>
       </c>
-      <c r="I8" s="1" t="str" cm="1">
-        <f t="array" ref="I8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+      <c r="K8" t="str" cm="1">
+        <f t="array" ref="K8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
         <v>Roommate- Kade Munkel</v>
       </c>
-      <c r="J8" s="4" cm="1">
-        <f t="array" ref="J8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+      <c r="L8" s="3" cm="1">
+        <f t="array" ref="L8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
         <v>44450</v>
       </c>
-      <c r="K8" s="1" t="str" cm="1">
-        <f t="array" ref="K8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+      <c r="M8" t="str" cm="1">
+        <f t="array" ref="M8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
         <v>Hebron Apartment</v>
       </c>
-      <c r="L8" s="4" cm="1">
-        <f t="array" ref="L8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+      <c r="N8" s="3" cm="1">
+        <f t="array" ref="N8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
         <v>44248</v>
       </c>
-      <c r="M8" s="1" t="str" cm="1">
-        <f t="array" ref="M8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+      <c r="O8" t="str" cm="1">
+        <f t="array" ref="O8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
         <v xml:space="preserve">Ryan </v>
       </c>
-      <c r="N8" s="1" t="str" cm="1">
-        <f t="array" ref="N8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+      <c r="P8" t="str" cm="1">
+        <f t="array" ref="P8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
         <v>YES</v>
       </c>
-      <c r="O8" s="1" cm="1">
-        <f t="array" ref="O8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+      <c r="Q8" s="3" cm="1">
+        <f t="array" ref="Q8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
         <v>44460</v>
       </c>
-      <c r="P8" s="1" t="str" cm="1">
-        <f t="array" ref="P8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+      <c r="R8" t="str" cm="1">
+        <f t="array" ref="R8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v>Courtney TS</v>
       </c>
-      <c r="Q8" s="1" t="str" cm="1">
-        <f t="array" ref="Q8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+      <c r="S8" t="str" cm="1">
+        <f t="array" ref="S8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
         <v>Fever; cough, sore eyes/nose - 9/16; Cough, losing taste/smell - 9/17;</v>
       </c>
-      <c r="R8" s="1" t="str" cm="1">
-        <f t="array" ref="R8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+      <c r="T8" t="str" cm="1">
+        <f t="array" ref="T8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
         <v xml:space="preserve">No Pork, </v>
       </c>
-      <c r="S8" s="1" t="str" cm="1">
-        <f t="array" ref="S8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="T8" s="1" t="str" cm="1">
-        <f t="array" ref="T8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="U8" t="str" cm="1">
+        <f t="array" ref="U8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="V8" t="str" cm="1">
+        <f t="array" ref="V8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="1" t="str" cm="1">
+      <c r="D9" t="str" cm="1">
         <f t="array" ref="D9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
         <v>515-230-9859</v>
       </c>
-      <c r="E9" s="1" t="str" cm="1">
+      <c r="E9" s="3" t="str" cm="1">
         <f t="array" ref="E9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="F9" s="1" t="str" cm="1">
+      <c r="F9" t="str" cm="1">
         <f t="array" ref="F9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
         <v>9/20 Noah clinic</v>
       </c>
-      <c r="G9" s="1" t="str" cm="1">
-        <f t="array" ref="G9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!G$1,Ipaste!$1:$1,0)))</f>
+      <c r="G9" s="22">
+        <v>44459</v>
+      </c>
+      <c r="H9" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9" t="str" cm="1">
+        <f t="array" ref="I9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
         <v>Positive</v>
       </c>
-      <c r="H9" s="4" t="str" cm="1">
-        <f t="array" ref="H9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!H$1,Ipaste!$1:$1,0)))</f>
+      <c r="J9" s="3" t="str" cm="1">
+        <f t="array" ref="J9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
-      <c r="I9" s="1" t="str" cm="1">
-        <f t="array" ref="I9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+      <c r="K9" t="str" cm="1">
+        <f t="array" ref="K9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
         <v>Unknown</v>
       </c>
-      <c r="J9" s="4" cm="1">
-        <f t="array" ref="J9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+      <c r="L9" s="3" cm="1">
+        <f t="array" ref="L9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
         <v>44459</v>
       </c>
-      <c r="K9" s="1" t="str" cm="1">
-        <f t="array" ref="K9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+      <c r="M9" t="str" cm="1">
+        <f t="array" ref="M9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
         <v>Founders Apartment</v>
       </c>
-      <c r="L9" s="4" cm="1">
-        <f t="array" ref="L9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+      <c r="N9" s="3" cm="1">
+        <f t="array" ref="N9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
         <v>44465</v>
       </c>
-      <c r="M9" s="1" t="str" cm="1">
-        <f t="array" ref="M9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+      <c r="O9" t="str" cm="1">
+        <f t="array" ref="O9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
         <v>Danny</v>
       </c>
-      <c r="N9" s="1" t="str" cm="1">
-        <f t="array" ref="N9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+      <c r="P9" t="str" cm="1">
+        <f t="array" ref="P9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
         <v>YES</v>
       </c>
-      <c r="O9" s="1" t="str" cm="1">
-        <f t="array" ref="O9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="P9" s="1" t="str" cm="1">
-        <f t="array" ref="P9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+      <c r="Q9" s="3" t="str" cm="1">
+        <f t="array" ref="Q9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R9" t="str" cm="1">
+        <f t="array" ref="R9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v>Courtney TS</v>
       </c>
-      <c r="Q9" s="1" t="str" cm="1">
-        <f t="array" ref="Q9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+      <c r="S9" t="str" cm="1">
+        <f t="array" ref="S9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
         <v>Email sent, called but voicemail is full - 9/22; slightly congested, slight cough, runny nose - 9/23;</v>
       </c>
-      <c r="R9" s="1" t="str" cm="1">
-        <f t="array" ref="R9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="S9" s="1" t="str" cm="1">
-        <f t="array" ref="S9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+      <c r="T9" t="str" cm="1">
+        <f t="array" ref="T9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U9" t="str" cm="1">
+        <f t="array" ref="U9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
         <v>symptoms started 9/16</v>
       </c>
-      <c r="T9" s="1" t="str" cm="1">
-        <f t="array" ref="T9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+      <c r="V9" t="str" cm="1">
+        <f t="array" ref="V9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>1224643</v>
+      </c>
+      <c r="C10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" t="str" cm="1">
+        <f t="array" ref="D10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
+        <v>(309)634-1378</v>
+      </c>
+      <c r="E10" s="3" t="str" cm="1">
+        <f t="array" ref="E10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F10" t="str" cm="1">
+        <f t="array" ref="F10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
+        <v>Noah - 9/29</v>
+      </c>
+      <c r="G10" s="22">
+        <v>44468</v>
+      </c>
+      <c r="H10" t="s">
+        <v>234</v>
+      </c>
+      <c r="I10" t="str" cm="1">
+        <f t="array" ref="I10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+        <v>Positive</v>
+      </c>
+      <c r="J10" s="3" t="str" cm="1">
+        <f t="array" ref="J10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="K10" t="str" cm="1">
+        <f t="array" ref="K10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="L10" s="3" t="str" cm="1">
+        <f t="array" ref="L10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="M10" t="str" cm="1">
+        <f t="array" ref="M10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+        <v>Founders Apartment</v>
+      </c>
+      <c r="N10" s="3" cm="1">
+        <f t="array" ref="N10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+        <v>44482</v>
+      </c>
+      <c r="O10" t="str" cm="1">
+        <f t="array" ref="O10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P10" t="str" cm="1">
+        <f t="array" ref="P10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="Q10" s="3" t="str" cm="1">
+        <f t="array" ref="Q10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R10" t="str" cm="1">
+        <f t="array" ref="R10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+        <v>Josh B.</v>
+      </c>
+      <c r="S10" t="str" cm="1">
+        <f t="array" ref="S10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T10" t="str" cm="1">
+        <f t="array" ref="T10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U10" t="str" cm="1">
+        <f t="array" ref="U10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="V10" t="str" cm="1">
+        <f t="array" ref="V10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
     </row>
@@ -2119,753 +2154,541 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC357540-4F5F-4E17-B510-319E9A338038}">
-  <dimension ref="A1:AM12"/>
+  <dimension ref="A1:AM14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:T2"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.7265625" style="35"/>
+    <col min="4" max="4" width="9.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="35"/>
+    <col min="7" max="7" width="9.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.26953125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="35"/>
+    <col min="11" max="11" width="9.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-    </row>
-    <row r="2" spans="1:39" ht="204" x14ac:dyDescent="0.45">
-      <c r="A2" s="27">
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+    </row>
+    <row r="2" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1224643</v>
+      </c>
+      <c r="B2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2">
+        <v>44482</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1227963</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="E3" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I3">
         <v>44459</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J3" t="s">
         <v>206</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K3">
         <v>44465</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L3" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="45" t="s">
+      <c r="O3" t="s">
         <v>123</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P3" t="s">
         <v>225</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="9" t="s">
+      <c r="R3" t="s">
         <v>207</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-    </row>
-    <row r="3" spans="1:39" ht="131.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="27">
+    </row>
+    <row r="4" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1244320</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C4" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1" t="s">
+      <c r="E4" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G4">
         <v>44449</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I4">
         <v>44450</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J4" t="s">
         <v>121</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K4">
         <v>44248</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L4" t="s">
         <v>122</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M4" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="41">
+      <c r="N4">
         <v>44460</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="O4" t="s">
         <v>123</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P4" t="s">
         <v>148</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q4" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-    </row>
-    <row r="4" spans="1:39" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1" t="s">
+      <c r="E5" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" t="s">
         <v>205</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I5">
         <v>44459</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" t="s">
         <v>206</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K5">
         <v>44465</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1250699</v>
-      </c>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="3">
-        <v>44449</v>
-      </c>
-      <c r="J5" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" s="3">
-        <v>44459</v>
       </c>
       <c r="L5" t="s">
         <v>5</v>
       </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="R5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1250699</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6">
+        <v>44449</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6">
         <v>44459</v>
       </c>
-      <c r="O5" t="s">
-        <v>117</v>
-      </c>
-      <c r="P5" t="s">
-        <v>147</v>
-      </c>
-      <c r="T5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1244320</v>
-      </c>
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3">
-        <v>44449</v>
-      </c>
-      <c r="H6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I6" s="3">
-        <v>44450</v>
-      </c>
-      <c r="J6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K6" s="3">
-        <v>44248</v>
-      </c>
       <c r="L6" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="M6" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="3">
-        <v>44460</v>
+      <c r="N6">
+        <v>44459</v>
       </c>
       <c r="O6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A7" s="29">
+        <v>147</v>
+      </c>
+      <c r="T6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>1235116</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7">
         <v>44425</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7">
         <v>44435</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="29" t="s">
+      <c r="O7" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29" t="s">
+      <c r="T7" t="s">
         <v>7</v>
       </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29" t="s">
+    </row>
+    <row r="8" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="29" t="s">
+      <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8">
         <v>44427</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8">
         <v>44437</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M8" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="29" t="s">
+      <c r="O8" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    </row>
+    <row r="9" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>1232227</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>36695</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9">
         <v>44428</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9">
         <v>44438</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="1" t="s">
+      <c r="O9" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1" t="s">
+      <c r="T9" t="s">
         <v>16</v>
       </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    </row>
+    <row r="10" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>1233601</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>37013</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <v>44428</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10">
         <v>44438</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="1" t="s">
+      <c r="O10" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1" t="s">
+      <c r="T10" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30" t="s">
+    </row>
+    <row r="11" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11">
         <v>37763</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11">
         <v>44434</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11">
         <v>44438</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11">
         <v>44448</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="M11" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30" t="s">
+      <c r="O11" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="P11" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30" t="s">
+      <c r="T11" t="s">
         <v>47</v>
       </c>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-    </row>
+    </row>
+    <row r="12" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2951,7 +2774,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B2" s="17">
+      <c r="B2" s="12">
         <v>1248095</v>
       </c>
       <c r="C2" t="str">
@@ -3275,10 +3098,10 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="16" x14ac:dyDescent="0.45">
-      <c r="B6" s="27">
+      <c r="B6" s="21">
         <v>1249163</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="19" t="s">
         <v>109</v>
       </c>
       <c r="D6" t="e" cm="1">
@@ -3761,7 +3584,7 @@
       <c r="B12" s="1">
         <v>1233381</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="19" t="s">
         <v>198</v>
       </c>
       <c r="D12" t="str" cm="1">
@@ -3838,7 +3661,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="19" t="s">
         <v>223</v>
       </c>
       <c r="D13" t="str" cm="1">
@@ -3993,16 +3816,16 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="19" t="s">
         <v>223</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="19"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="1"/>
       <c r="F2" s="4">
         <v>44462</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="18" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -4024,23 +3847,23 @@
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="23"/>
+      <c r="S2" s="18"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1233381</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="23"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="1" t="s">
         <v>200</v>
       </c>
@@ -4058,7 +3881,7 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="23"/>
+      <c r="S3" s="18"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -4246,23 +4069,23 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="17">
+      <c r="A9" s="12">
         <v>1248095</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="4">
         <v>37619</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="15">
         <v>44434</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -4271,7 +4094,7 @@
       <c r="I9" s="4">
         <v>44434</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="5">
@@ -4283,10 +4106,10 @@
       <c r="M9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="16">
         <v>44448</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="17" t="s">
         <v>45</v>
       </c>
       <c r="P9" s="7" t="s">
@@ -4294,7 +4117,7 @@
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="23"/>
+      <c r="S9" s="18"/>
       <c r="T9" s="1" t="s">
         <v>47</v>
       </c>
@@ -4303,20 +4126,20 @@
       <c r="A10" s="1">
         <v>1248351</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="4">
         <v>37668</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="15">
         <v>44434</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -4325,7 +4148,7 @@
       <c r="I10" s="4">
         <v>44434</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="5">
@@ -4337,10 +4160,10 @@
       <c r="M10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="16">
         <v>44448</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="17" t="s">
         <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
@@ -4348,7 +4171,7 @@
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="23"/>
+      <c r="S10" s="18"/>
       <c r="T10" s="1" t="s">
         <v>47</v>
       </c>
@@ -4357,20 +4180,20 @@
       <c r="A11" s="1">
         <v>1246184</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="4">
         <v>37536</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="15">
         <v>44434</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -4379,7 +4202,7 @@
       <c r="I11" s="4">
         <v>44434</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="5">
@@ -4391,10 +4214,10 @@
       <c r="M11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="16">
         <v>44448</v>
       </c>
-      <c r="O11" s="22" t="s">
+      <c r="O11" s="17" t="s">
         <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
@@ -4402,7 +4225,7 @@
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="23"/>
+      <c r="S11" s="18"/>
       <c r="T11" s="1" t="s">
         <v>47</v>
       </c>
@@ -4411,18 +4234,18 @@
       <c r="A12" s="1">
         <v>1240577</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="18" t="s">
         <v>99</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -4444,7 +4267,7 @@
       <c r="N12" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="O12" s="25" t="s">
+      <c r="O12" s="20" t="s">
         <v>103</v>
       </c>
       <c r="P12" s="7" t="s">
@@ -4452,7 +4275,7 @@
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="23"/>
+      <c r="S12" s="18"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
@@ -4493,7 +4316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A10FFB-DB3F-470D-B9BC-87C08C3BCAF7}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
@@ -4752,7 +4575,7 @@
       <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="22">
         <v>44428</v>
       </c>
       <c r="H4" s="3" t="str">
@@ -4834,7 +4657,7 @@
       <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="22">
         <v>44428</v>
       </c>
       <c r="H5" s="3" t="str">
@@ -4916,7 +4739,7 @@
       <c r="F6" t="s">
         <v>195</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="22">
         <v>44445</v>
       </c>
       <c r="H6" s="3" t="str">
@@ -4998,7 +4821,7 @@
       <c r="F7" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="22">
         <v>44434</v>
       </c>
       <c r="H7" s="3" t="str">
@@ -5080,7 +4903,7 @@
       <c r="F8" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="22">
         <v>44440</v>
       </c>
       <c r="H8" s="3" t="str">
@@ -5162,7 +4985,7 @@
       <c r="F9" t="s">
         <v>195</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="22">
         <v>44441</v>
       </c>
       <c r="H9" s="3" t="str">
@@ -5241,7 +5064,7 @@
       <c r="F10" t="s">
         <v>195</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="22">
         <v>44440</v>
       </c>
       <c r="H10" s="3" t="str">
@@ -5395,7 +5218,7 @@
         <v/>
       </c>
       <c r="F12"/>
-      <c r="G12" s="28">
+      <c r="G12" s="22">
         <v>44447</v>
       </c>
       <c r="H12" s="3" t="str">
@@ -5472,7 +5295,7 @@
         <v/>
       </c>
       <c r="F13"/>
-      <c r="G13" s="28">
+      <c r="G13" s="22">
         <v>44449</v>
       </c>
       <c r="H13" s="3" t="str">
@@ -5554,7 +5377,7 @@
       <c r="F14" t="s">
         <v>195</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="22">
         <v>44452</v>
       </c>
       <c r="H14" s="3" t="str">
@@ -5634,7 +5457,7 @@
         <v/>
       </c>
       <c r="F15"/>
-      <c r="G15" s="28">
+      <c r="G15" s="22">
         <v>44453</v>
       </c>
       <c r="H15" s="3">
@@ -5714,7 +5537,7 @@
         <v/>
       </c>
       <c r="F16"/>
-      <c r="G16" s="28">
+      <c r="G16" s="22">
         <v>44453</v>
       </c>
       <c r="H16" s="3" t="str">
@@ -5794,7 +5617,7 @@
         <v/>
       </c>
       <c r="F17"/>
-      <c r="G17" s="28">
+      <c r="G17" s="22">
         <v>44454</v>
       </c>
       <c r="H17" s="3">
@@ -5874,7 +5697,7 @@
         <v/>
       </c>
       <c r="F18"/>
-      <c r="G18" s="28">
+      <c r="G18" s="22">
         <v>44455</v>
       </c>
       <c r="H18" s="3">
@@ -5956,7 +5779,7 @@
       <c r="F19" t="s">
         <v>195</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="22">
         <v>44455</v>
       </c>
       <c r="H19" s="3" t="str">
@@ -6038,7 +5861,7 @@
       <c r="F20" t="s">
         <v>195</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="22">
         <v>44455</v>
       </c>
       <c r="H20" s="3" t="str">
@@ -6120,7 +5943,7 @@
       <c r="F21" t="s">
         <v>195</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="22">
         <v>44455</v>
       </c>
       <c r="H21" s="3" t="str">
@@ -6197,7 +6020,7 @@
         <v/>
       </c>
       <c r="F22"/>
-      <c r="G22" s="28">
+      <c r="G22" s="22">
         <v>44455</v>
       </c>
       <c r="H22" s="3">
@@ -6426,10 +6249,10 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="27" t="s">
         <v>193</v>
       </c>
       <c r="C25" t="str">
@@ -6594,7 +6417,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.45">
-      <c r="A27" s="27">
+      <c r="A27" s="21">
         <v>1244320</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -7834,36 +7657,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697DB29A-8071-4245-AA70-F84BFB7723B1}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="30" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7874,13 +7699,13 @@
       <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="24">
         <v>36648</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="24">
         <v>44428</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -7894,13 +7719,13 @@
       <c r="C3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="24">
         <v>37180</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="24">
         <v>44428</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -7914,13 +7739,13 @@
       <c r="C4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="24">
         <v>37513</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="24">
         <v>44428</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -7934,13 +7759,13 @@
       <c r="C5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="24">
         <v>37221</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="24">
         <v>44428</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -7954,13 +7779,13 @@
       <c r="C6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="24">
         <v>36313</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="24">
         <v>44428</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -7974,13 +7799,13 @@
       <c r="C7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="24">
         <v>36852</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="24">
         <v>44428</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -7994,13 +7819,13 @@
       <c r="C8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="24">
         <v>37573</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="24">
         <v>44434</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -8014,13 +7839,13 @@
       <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="24">
         <v>37763</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="24">
         <v>44434</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -8034,13 +7859,13 @@
       <c r="C10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="24">
         <v>37754</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="24">
         <v>44438</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -8053,10 +7878,10 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="24">
         <v>44449</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -8069,11 +7894,16 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="44">
+      <c r="E12" s="24">
         <v>44461</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="24">
+        <f>E12-3</f>
+        <v>44458</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
@@ -8081,11 +7911,16 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="44">
+      <c r="E13" s="24">
         <v>44461</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="24">
+        <f t="shared" ref="F13:F27" si="0">E13-3</f>
+        <v>44458</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
@@ -8093,11 +7928,16 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="44">
+      <c r="E14" s="24">
         <v>44461</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="24">
+        <f t="shared" si="0"/>
+        <v>44458</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
@@ -8105,11 +7945,16 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="44">
+      <c r="E15" s="24">
         <v>44461</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="24">
+        <f t="shared" si="0"/>
+        <v>44458</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
@@ -8117,11 +7962,16 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="44">
+      <c r="E16" s="24">
         <v>44461</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="24">
+        <f t="shared" si="0"/>
+        <v>44458</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
@@ -8129,11 +7979,16 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="44">
+      <c r="E17" s="24">
         <v>44461</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="24">
+        <f t="shared" si="0"/>
+        <v>44458</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
@@ -8141,11 +7996,16 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="44">
+      <c r="E18" s="24">
         <v>44461</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="24">
+        <f t="shared" si="0"/>
+        <v>44458</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
@@ -8153,11 +8013,16 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="44">
+      <c r="E19" s="24">
         <v>44461</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="24">
+        <f t="shared" si="0"/>
+        <v>44458</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
@@ -8165,11 +8030,16 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="44">
+      <c r="E20" s="24">
         <v>44461</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="24">
+        <f t="shared" si="0"/>
+        <v>44458</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
@@ -8177,11 +8047,16 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="44">
+      <c r="E21" s="24">
         <v>44461</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="24">
+        <f t="shared" si="0"/>
+        <v>44458</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
@@ -8189,11 +8064,16 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="44">
+      <c r="E22" s="24">
         <v>44461</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="24">
+        <f t="shared" si="0"/>
+        <v>44458</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
@@ -8202,11 +8082,16 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="44">
+      <c r="E23" s="24">
         <v>44461</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="24">
+        <f t="shared" si="0"/>
+        <v>44458</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
@@ -8215,11 +8100,16 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="44">
+      <c r="E24" s="24">
         <v>44461</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="24">
+        <f t="shared" si="0"/>
+        <v>44458</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
@@ -8228,11 +8118,16 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="44">
+      <c r="E25" s="24">
         <v>44461</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="F25" s="24">
+        <f t="shared" si="0"/>
+        <v>44458</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
@@ -8241,11 +8136,16 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="44">
+      <c r="E26" s="24">
         <v>44461</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="24">
+        <f t="shared" si="0"/>
+        <v>44458</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
@@ -8254,11 +8154,16 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="44">
+      <c r="E27" s="24">
         <v>44461</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="24">
+        <f t="shared" si="0"/>
+        <v>44458</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2021-22 Wartburg COVID Tracing.xlsx
+++ b/2021-22 Wartburg COVID Tracing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2021-2022\IowaCOVID19\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F86D8DB-8811-48FA-8CC8-CF24C4113E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B5C032-B1A1-45F5-A647-93A0CD0F967E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" firstSheet="1" activeTab="6" xr2:uid="{DC7C837F-5F10-4144-B236-1FECA5F0EA08}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{DC7C837F-5F10-4144-B236-1FECA5F0EA08}"/>
   </bookViews>
   <sheets>
     <sheet name="Infected Students" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="277">
   <si>
     <t>Preston Rochford</t>
   </si>
@@ -767,6 +767,132 @@
   </si>
   <si>
     <t>Noah</t>
+  </si>
+  <si>
+    <t>Wartburg 9/29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive Antigen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danny </t>
+  </si>
+  <si>
+    <t>9/30: sore throat/runny nose, fever broke last night, 10/1 -feeling much better</t>
+  </si>
+  <si>
+    <t>wants groceries delivered 10/1</t>
+  </si>
+  <si>
+    <t>Brayden Peterson</t>
+  </si>
+  <si>
+    <t>Wartburg 10/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off Campus </t>
+  </si>
+  <si>
+    <t>Grant Schnieders</t>
+  </si>
+  <si>
+    <t>(563)608-0106</t>
+  </si>
+  <si>
+    <t>Off Campus - St. Paul's</t>
+  </si>
+  <si>
+    <t>Manors: CHELL 001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is observing classes, is looking at holding off </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haylee Holten </t>
+  </si>
+  <si>
+    <t>563-203-7548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going to test 10/8 at home </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off campus- Home </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home </t>
+  </si>
+  <si>
+    <t>Rio Lujano</t>
+  </si>
+  <si>
+    <t>(319)548-0109</t>
+  </si>
+  <si>
+    <t>Lohe 337</t>
+  </si>
+  <si>
+    <t>double entree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going to test 10/13 at home </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reexposed at home, quarantine extended, going to test again </t>
+  </si>
+  <si>
+    <t>Abby Hamann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 10/18 at Wartburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off Campus - Kennedy Meister </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalie </t>
+  </si>
+  <si>
+    <t>Kennedy Meister</t>
+  </si>
+  <si>
+    <t>Wartburg 10/11</t>
+  </si>
+  <si>
+    <t>9/30: sore throat/runny nose, fever broke last night, 10/1 -10/7feeling much better, 10/8 - feeling great</t>
+  </si>
+  <si>
+    <t>katie steen</t>
+  </si>
+  <si>
+    <t>Liam McIntyre</t>
+  </si>
+  <si>
+    <t>Wartburg Antigen</t>
+  </si>
+  <si>
+    <t>Jagger Ignaszewski</t>
+  </si>
+  <si>
+    <t>507-381-0521</t>
+  </si>
+  <si>
+    <t>Emma Ammons</t>
+  </si>
+  <si>
+    <t>563-880-6419</t>
+  </si>
+  <si>
+    <t>10/25 @ 9:30</t>
+  </si>
+  <si>
+    <t>On Campus - Jagger Ignaszewski</t>
+  </si>
+  <si>
+    <t>Max Miller</t>
+  </si>
+  <si>
+    <t>Thomas Supper</t>
   </si>
 </sst>
 </file>
@@ -800,13 +926,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -853,7 +979,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -922,24 +1048,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -978,10 +1091,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -991,15 +1100,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1316,31 +1437,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B7C922-39ED-4AAC-B544-0C25322ECB9A}">
-  <dimension ref="A1:AP10"/>
+  <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="20.7265625" customWidth="1"/>
     <col min="5" max="5" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.54296875" style="3" customWidth="1"/>
     <col min="14" max="14" width="17.6328125" style="3" customWidth="1"/>
     <col min="17" max="17" width="9.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="30" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:42" s="28" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -1349,7 +1471,7 @@
       <c r="D1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -1364,19 +1486,19 @@
       <c r="I1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="27" t="s">
         <v>27</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="27" t="s">
         <v>29</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="27" t="s">
         <v>31</v>
       </c>
       <c r="O1" s="10" t="s">
@@ -1385,7 +1507,7 @@
       <c r="P1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="31" t="s">
         <v>34</v>
       </c>
       <c r="R1" s="10" t="s">
@@ -2069,7 +2191,7 @@
       <c r="B10">
         <v>1224643</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="33" t="s">
         <v>229</v>
       </c>
       <c r="D10" t="str" cm="1">
@@ -2082,17 +2204,17 @@
       </c>
       <c r="F10" t="str" cm="1">
         <f t="array" ref="F10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
-        <v>Noah - 9/29</v>
+        <v>Wartburg 9/29</v>
       </c>
       <c r="G10" s="22">
         <v>44468</v>
       </c>
       <c r="H10" t="s">
-        <v>234</v>
+        <v>1</v>
       </c>
       <c r="I10" t="str" cm="1">
         <f t="array" ref="I10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
-        <v>Positive</v>
+        <v xml:space="preserve">Positive Antigen </v>
       </c>
       <c r="J10" s="3" t="str" cm="1">
         <f t="array" ref="J10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
@@ -2102,9 +2224,9 @@
         <f t="array" ref="K10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
-      <c r="L10" s="3" t="str" cm="1">
+      <c r="L10" s="3" cm="1">
         <f t="array" ref="L10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
-        <v/>
+        <v>44468</v>
       </c>
       <c r="M10" t="str" cm="1">
         <f t="array" ref="M10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
@@ -2112,11 +2234,11 @@
       </c>
       <c r="N10" s="3" cm="1">
         <f t="array" ref="N10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
-        <v>44482</v>
+        <v>44476</v>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" ref="O10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
-        <v/>
+        <v xml:space="preserve">Danny </v>
       </c>
       <c r="P10" t="str" cm="1">
         <f t="array" ref="P10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
@@ -2132,7 +2254,7 @@
       </c>
       <c r="S10" t="str" cm="1">
         <f t="array" ref="S10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
-        <v/>
+        <v>9/30: sore throat/runny nose, fever broke last night, 10/1 -feeling much better</v>
       </c>
       <c r="T10" t="str" cm="1">
         <f t="array" ref="T10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
@@ -2140,574 +2262,1316 @@
       </c>
       <c r="U10" t="str" cm="1">
         <f t="array" ref="U10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
-        <v/>
+        <v>wants groceries delivered 10/1</v>
       </c>
       <c r="V10" t="str" cm="1">
         <f t="array" ref="V10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
     </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="C11" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" t="str" cm="1">
+        <f t="array" ref="D11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E11" s="3" t="str" cm="1">
+        <f t="array" ref="E11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F11" t="str" cm="1">
+        <f t="array" ref="F11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
+        <v>Wartburg 10/1</v>
+      </c>
+      <c r="G11" s="22">
+        <v>44470</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" t="str" cm="1">
+        <f t="array" ref="I11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Positive Antigen </v>
+      </c>
+      <c r="J11" s="3" t="str" cm="1">
+        <f t="array" ref="J11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="K11" t="str" cm="1">
+        <f t="array" ref="K11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="L11" s="3" cm="1">
+        <f t="array" ref="L11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+        <v>44470</v>
+      </c>
+      <c r="M11" t="str" cm="1">
+        <f t="array" ref="M11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Off Campus </v>
+      </c>
+      <c r="N11" s="3" cm="1">
+        <f t="array" ref="N11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+        <v>44480</v>
+      </c>
+      <c r="O11" t="str" cm="1">
+        <f t="array" ref="O11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Danny </v>
+      </c>
+      <c r="P11" t="str" cm="1">
+        <f t="array" ref="P11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q11" s="3" t="str" cm="1">
+        <f t="array" ref="Q11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R11" t="str" cm="1">
+        <f t="array" ref="R11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S11" t="str" cm="1">
+        <f t="array" ref="S11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T11" t="str" cm="1">
+        <f t="array" ref="T11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U11" t="str" cm="1">
+        <f t="array" ref="U11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="V11" t="str" cm="1">
+        <f t="array" ref="V11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="B12" s="9"/>
+      <c r="C12" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" t="str" cm="1">
+        <f t="array" ref="D12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E12" s="3" t="str" cm="1">
+        <f t="array" ref="E12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F12" t="str" cm="1">
+        <f t="array" ref="F12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
+        <v>Wartburg 10/11</v>
+      </c>
+      <c r="G12" s="22">
+        <v>44480</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="str" cm="1">
+        <f t="array" ref="I12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Positive Antigen </v>
+      </c>
+      <c r="J12" s="3" t="str" cm="1">
+        <f t="array" ref="J12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="K12" t="str" cm="1">
+        <f t="array" ref="K12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="L12" s="3" cm="1">
+        <f t="array" ref="L12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+        <v>44480</v>
+      </c>
+      <c r="M12" t="str" cm="1">
+        <f t="array" ref="M12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Off Campus </v>
+      </c>
+      <c r="N12" s="3" cm="1">
+        <f t="array" ref="N12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+        <v>44490</v>
+      </c>
+      <c r="O12" t="str" cm="1">
+        <f t="array" ref="O12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Natalie </v>
+      </c>
+      <c r="P12" t="str" cm="1">
+        <f t="array" ref="P12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q12" s="3" t="str" cm="1">
+        <f t="array" ref="Q12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R12" t="str" cm="1">
+        <f t="array" ref="R12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S12" t="str" cm="1">
+        <f t="array" ref="S12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T12" t="str" cm="1">
+        <f t="array" ref="T12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U12" t="str" cm="1">
+        <f t="array" ref="U12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="V12" t="str" cm="1">
+        <f t="array" ref="V12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" t="str" cm="1">
+        <f t="array" ref="D13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E13" s="3" t="str" cm="1">
+        <f t="array" ref="E13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F13" t="str" cm="1">
+        <f t="array" ref="F13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
+        <v>Wartburg Antigen</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" t="str" cm="1">
+        <f t="array" ref="I13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+        <v>Positive</v>
+      </c>
+      <c r="J13" s="3" t="str" cm="1">
+        <f t="array" ref="J13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="K13" t="str" cm="1">
+        <f t="array" ref="K13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="L13" s="3" cm="1">
+        <f t="array" ref="L13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+        <v>44488</v>
+      </c>
+      <c r="M13" t="str" cm="1">
+        <f t="array" ref="M13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+        <v>Home</v>
+      </c>
+      <c r="N13" s="3" cm="1">
+        <f t="array" ref="N13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+        <v>44498</v>
+      </c>
+      <c r="O13" t="str" cm="1">
+        <f t="array" ref="O13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+        <v>Danny</v>
+      </c>
+      <c r="P13" t="str" cm="1">
+        <f t="array" ref="P13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q13" s="3" t="str" cm="1">
+        <f t="array" ref="Q13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R13" t="str" cm="1">
+        <f t="array" ref="R13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S13" t="str" cm="1">
+        <f t="array" ref="S13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T13" t="str" cm="1">
+        <f t="array" ref="T13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U13" t="str" cm="1">
+        <f t="array" ref="U13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="V13" t="str" cm="1">
+        <f t="array" ref="V13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="C14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" t="str" cm="1">
+        <f t="array" ref="D14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
+        <v>507-381-0521</v>
+      </c>
+      <c r="E14" s="3" t="str" cm="1">
+        <f t="array" ref="E14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F14" t="str" cm="1">
+        <f t="array" ref="F14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
+        <v>Wartburg Antigen</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" t="str" cm="1">
+        <f t="array" ref="I14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+        <v>Positive</v>
+      </c>
+      <c r="J14" s="3" t="str" cm="1">
+        <f t="array" ref="J14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="K14" t="str" cm="1">
+        <f t="array" ref="K14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="L14" s="3" cm="1">
+        <f t="array" ref="L14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+        <v>44491</v>
+      </c>
+      <c r="M14" t="str" cm="1">
+        <f t="array" ref="M14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+        <v>Home</v>
+      </c>
+      <c r="N14" s="3" cm="1">
+        <f t="array" ref="N14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+        <v>44501</v>
+      </c>
+      <c r="O14" t="str" cm="1">
+        <f t="array" ref="O14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+        <v>Danny</v>
+      </c>
+      <c r="P14" t="str" cm="1">
+        <f t="array" ref="P14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q14" s="3" t="str" cm="1">
+        <f t="array" ref="Q14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R14" t="str" cm="1">
+        <f t="array" ref="R14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S14" t="str" cm="1">
+        <f t="array" ref="S14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T14" t="str" cm="1">
+        <f t="array" ref="T14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U14" t="str" cm="1">
+        <f t="array" ref="U14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="V14" t="str" cm="1">
+        <f t="array" ref="V14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC357540-4F5F-4E17-B510-319E9A338038}">
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="8.7265625" style="35"/>
-    <col min="4" max="4" width="9.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7265625" style="35"/>
-    <col min="7" max="7" width="9.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="35"/>
-    <col min="11" max="11" width="9.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="35"/>
+    <col min="1" max="3" width="8.7265625" style="29"/>
+    <col min="4" max="4" width="9.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="29"/>
+    <col min="7" max="7" width="9.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.26953125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="29"/>
+    <col min="11" max="11" width="9.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-    </row>
-    <row r="2" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+    </row>
+    <row r="2" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="4">
+        <v>44488</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="5">
+        <v>44498</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+    </row>
+    <row r="3" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="4">
+        <v>44491</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5">
+        <v>44501</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+    </row>
+    <row r="4" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="35"/>
+      <c r="B4" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="36">
+        <v>44480</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" s="36">
+        <v>44490</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="M4" s="34"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+    </row>
+    <row r="5" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35"/>
+      <c r="B5" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="36">
+        <v>44470</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="36">
+        <v>44480</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="M5" s="34"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="34"/>
+    </row>
+    <row r="6" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35"/>
+      <c r="B6" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="36">
+        <v>44480</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="K6" s="36">
+        <v>44490</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="M6" s="34"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+    </row>
+    <row r="7" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="35">
         <v>1224643</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="E2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I7" s="36">
+        <v>44468</v>
+      </c>
+      <c r="J7" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="K2">
-        <v>44482</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="K7" s="36">
+        <v>44476</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="M7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N7" s="37"/>
+      <c r="O7" s="34" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1227963</v>
-      </c>
-      <c r="B3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="P7" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="S7" s="38"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+    </row>
+    <row r="8" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35"/>
+      <c r="B8" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3">
-        <v>44459</v>
-      </c>
-      <c r="J3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K3">
-        <v>44465</v>
-      </c>
-      <c r="L3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>123</v>
-      </c>
-      <c r="P3" t="s">
-        <v>225</v>
-      </c>
-      <c r="R3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1244320</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>44449</v>
-      </c>
-      <c r="H4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4">
-        <v>44450</v>
-      </c>
-      <c r="J4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4">
-        <v>44248</v>
-      </c>
-      <c r="L4" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4">
-        <v>44460</v>
-      </c>
-      <c r="O4" t="s">
-        <v>123</v>
-      </c>
-      <c r="P4" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I5">
-        <v>44459</v>
-      </c>
-      <c r="J5" t="s">
-        <v>206</v>
-      </c>
-      <c r="K5">
-        <v>44465</v>
-      </c>
-      <c r="L5" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1250699</v>
-      </c>
-      <c r="B6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6">
-        <v>44449</v>
-      </c>
-      <c r="J6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6">
-        <v>44459</v>
-      </c>
-      <c r="L6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6">
-        <v>44459</v>
-      </c>
-      <c r="O6" t="s">
-        <v>117</v>
-      </c>
-      <c r="P6" t="s">
-        <v>147</v>
-      </c>
-      <c r="T6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>1235116</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>44425</v>
-      </c>
-      <c r="J7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>44435</v>
-      </c>
-      <c r="L7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" t="s">
-        <v>5</v>
-      </c>
-      <c r="T7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>44427</v>
-      </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8">
-        <v>44437</v>
-      </c>
-      <c r="L8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" t="s">
-        <v>5</v>
-      </c>
+      <c r="I8" s="36">
+        <v>44470</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="K8" s="36">
+        <v>44480</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="M8" s="34"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
     </row>
     <row r="9" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1232227</v>
+        <v>1224643</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>36695</v>
+        <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>44428</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="K9">
-        <v>44438</v>
-      </c>
-      <c r="L9" t="s">
-        <v>15</v>
+        <v>44482</v>
       </c>
       <c r="M9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O9" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>1233601</v>
+        <v>1227963</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>37013</v>
+        <v>203</v>
       </c>
       <c r="E10" t="s">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="I10">
-        <v>44428</v>
+        <v>44459</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="K10">
-        <v>44438</v>
+        <v>44465</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M10" t="s">
         <v>20</v>
       </c>
       <c r="O10" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" t="s">
-        <v>16</v>
+        <v>123</v>
+      </c>
+      <c r="P10" t="s">
+        <v>225</v>
+      </c>
+      <c r="R10" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1244320</v>
+      </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11">
-        <v>37763</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
       </c>
       <c r="G11">
-        <v>44434</v>
+        <v>44449</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="I11">
-        <v>44438</v>
+        <v>44450</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="K11">
-        <v>44448</v>
+        <v>44248</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="M11" t="s">
         <v>20</v>
       </c>
+      <c r="N11">
+        <v>44460</v>
+      </c>
       <c r="O11" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>205</v>
+      </c>
+      <c r="I12">
+        <v>44459</v>
+      </c>
+      <c r="J12" t="s">
+        <v>206</v>
+      </c>
+      <c r="K12">
+        <v>44465</v>
+      </c>
+      <c r="L12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1250699</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13">
+        <v>44449</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13">
+        <v>44459</v>
+      </c>
+      <c r="L13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13">
+        <v>44459</v>
+      </c>
+      <c r="O13" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" t="s">
+        <v>147</v>
+      </c>
+      <c r="T13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1235116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>44425</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>44435</v>
+      </c>
+      <c r="L14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>44427</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>44437</v>
+      </c>
+      <c r="L15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1232227</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>36695</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>44428</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>44438</v>
+      </c>
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1233601</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>37013</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>44428</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17">
+        <v>44438</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <v>37763</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>44434</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18">
+        <v>44438</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18">
+        <v>44448</v>
+      </c>
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" t="s">
         <v>45</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P18" t="s">
         <v>46</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:20" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:20" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:20" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6164E72-0B31-4D07-B897-5E56341DD845}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:U13"/>
+      <selection activeCell="D16" sqref="D16:U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="10.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="3"/>
+    <col min="12" max="12" width="10.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
@@ -2727,7 +3591,7 @@
       <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -2793,11 +3657,11 @@
         <f t="array" ref="F2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
         <v>37619</v>
       </c>
-      <c r="G2" t="str" cm="1">
+      <c r="G2" s="3" t="str" cm="1">
         <f t="array" ref="G2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
         <v>9/1 - Antigen - Negative</v>
       </c>
-      <c r="H2" cm="1">
+      <c r="H2" s="3" cm="1">
         <f t="array" ref="H2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
         <v>44434</v>
       </c>
@@ -2813,7 +3677,7 @@
         <f t="array" ref="K2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
         <v>Home</v>
       </c>
-      <c r="L2" cm="1">
+      <c r="L2" s="3" cm="1">
         <f t="array" ref="L2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
         <v>44442</v>
       </c>
@@ -2874,11 +3738,11 @@
         <f t="array" ref="F3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
         <v>37668</v>
       </c>
-      <c r="G3" t="str" cm="1">
+      <c r="G3" s="3" t="str" cm="1">
         <f t="array" ref="G3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
         <v>9/2 - Wartburg - Antigen - Negative</v>
       </c>
-      <c r="H3" cm="1">
+      <c r="H3" s="3" cm="1">
         <f t="array" ref="H3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
         <v>44434</v>
       </c>
@@ -2894,7 +3758,7 @@
         <f t="array" ref="K3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
         <v>Home</v>
       </c>
-      <c r="L3" cm="1">
+      <c r="L3" s="3" cm="1">
         <f t="array" ref="L3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
         <v>44442</v>
       </c>
@@ -2955,11 +3819,11 @@
         <f t="array" ref="F4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
         <v>37536</v>
       </c>
-      <c r="G4" t="str" cm="1">
+      <c r="G4" s="3" t="str" cm="1">
         <f t="array" ref="G4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
         <v>9/1 - Antigen - Negative</v>
       </c>
-      <c r="H4" cm="1">
+      <c r="H4" s="3" cm="1">
         <f t="array" ref="H4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
         <v>44434</v>
       </c>
@@ -2975,7 +3839,7 @@
         <f t="array" ref="K4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
         <v>Home</v>
       </c>
-      <c r="L4" cm="1">
+      <c r="L4" s="3" cm="1">
         <f t="array" ref="L4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
         <v>44442</v>
       </c>
@@ -3036,11 +3900,11 @@
         <f t="array" ref="F5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="G5" t="str" cm="1">
+      <c r="G5" s="3" t="str" cm="1">
         <f t="array" ref="G5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
         <v xml:space="preserve">9/6 Noah </v>
       </c>
-      <c r="H5" t="str" cm="1">
+      <c r="H5" s="3" t="str" cm="1">
         <f t="array" ref="H5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
         <v>Unknown</v>
       </c>
@@ -3056,7 +3920,7 @@
         <f t="array" ref="K5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
         <v>LOH 355C</v>
       </c>
-      <c r="L5" t="str" cm="1">
+      <c r="L5" s="3" t="str" cm="1">
         <f t="array" ref="L5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
         <v xml:space="preserve">Pending </v>
       </c>
@@ -3116,11 +3980,11 @@
         <f t="array" ref="F6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="G6" cm="1">
+      <c r="G6" s="3" cm="1">
         <f t="array" ref="G6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
         <v>44452</v>
       </c>
-      <c r="H6" t="str" cm="1">
+      <c r="H6" s="3" t="str" cm="1">
         <f t="array" ref="H6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
         <v xml:space="preserve">None </v>
       </c>
@@ -3136,7 +4000,7 @@
         <f t="array" ref="K6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
         <v>Complex: Heb 371</v>
       </c>
-      <c r="L6" t="str" cm="1">
+      <c r="L6" s="3" t="str" cm="1">
         <f t="array" ref="L6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
         <v xml:space="preserve">Pending </v>
       </c>
@@ -3196,11 +4060,11 @@
         <f t="array" ref="F7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="G7" t="str" cm="1">
+      <c r="G7" s="3" t="str" cm="1">
         <f t="array" ref="G7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
         <v>Hyvee - 9/14</v>
       </c>
-      <c r="H7" t="str" cm="1">
+      <c r="H7" s="3" t="str" cm="1">
         <f t="array" ref="H7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
         <v>none</v>
       </c>
@@ -3216,7 +4080,7 @@
         <f t="array" ref="K7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
         <v>CENT 004</v>
       </c>
-      <c r="L7" t="str" cm="1">
+      <c r="L7" s="3" t="str" cm="1">
         <f t="array" ref="L7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
         <v>Pending</v>
       </c>
@@ -3276,11 +4140,11 @@
         <f t="array" ref="F8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="G8" cm="1">
+      <c r="G8" s="3" cm="1">
         <f t="array" ref="G8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
         <v>44454</v>
       </c>
-      <c r="H8" t="str" cm="1">
+      <c r="H8" s="3" t="str" cm="1">
         <f t="array" ref="H8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
         <v>none</v>
       </c>
@@ -3296,7 +4160,7 @@
         <f t="array" ref="K8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
         <v>HEB 189</v>
       </c>
-      <c r="L8" t="str" cm="1">
+      <c r="L8" s="3" t="str" cm="1">
         <f t="array" ref="L8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
         <v>Pending</v>
       </c>
@@ -3356,11 +4220,11 @@
         <f t="array" ref="F9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="G9" cm="1">
+      <c r="G9" s="3" cm="1">
         <f t="array" ref="G9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
         <v>44455</v>
       </c>
-      <c r="H9" t="str" cm="1">
+      <c r="H9" s="3" t="str" cm="1">
         <f t="array" ref="H9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
         <v>none</v>
       </c>
@@ -3376,7 +4240,7 @@
         <f t="array" ref="K9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
         <v>CLNN 336</v>
       </c>
-      <c r="L9" t="str" cm="1">
+      <c r="L9" s="3" t="str" cm="1">
         <f t="array" ref="L9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
         <v>Pending</v>
       </c>
@@ -3436,11 +4300,11 @@
         <f t="array" ref="F10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="G10" cm="1">
+      <c r="G10" s="3" cm="1">
         <f t="array" ref="G10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
         <v>44455</v>
       </c>
-      <c r="H10" t="str" cm="1">
+      <c r="H10" s="3" t="str" cm="1">
         <f t="array" ref="H10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
         <v>none</v>
       </c>
@@ -3456,7 +4320,7 @@
         <f t="array" ref="K10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
         <v>FDS 211</v>
       </c>
-      <c r="L10" t="str" cm="1">
+      <c r="L10" s="3" t="str" cm="1">
         <f t="array" ref="L10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
         <v>Pending</v>
       </c>
@@ -3516,11 +4380,11 @@
         <f t="array" ref="F11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="G11" cm="1">
+      <c r="G11" s="3" cm="1">
         <f t="array" ref="G11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
         <v>44455</v>
       </c>
-      <c r="H11" t="str" cm="1">
+      <c r="H11" s="3" t="str" cm="1">
         <f t="array" ref="H11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
         <v>none</v>
       </c>
@@ -3536,7 +4400,7 @@
         <f t="array" ref="K11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
         <v>CLNS 109</v>
       </c>
-      <c r="L11" t="str" cm="1">
+      <c r="L11" s="3" t="str" cm="1">
         <f t="array" ref="L11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
         <v>Pending</v>
       </c>
@@ -3599,11 +4463,11 @@
         <f t="array" ref="F12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="G12" t="str" cm="1">
+      <c r="G12" s="3" t="str" cm="1">
         <f t="array" ref="G12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="H12" t="str" cm="1">
+      <c r="H12" s="3" t="str" cm="1">
         <f t="array" ref="H12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
         <v/>
       </c>
@@ -3619,7 +4483,7 @@
         <f t="array" ref="K12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
         <v>Manors: WIED 006</v>
       </c>
-      <c r="L12" t="str" cm="1">
+      <c r="L12" s="3" t="str" cm="1">
         <f t="array" ref="L12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
         <v/>
       </c>
@@ -3676,11 +4540,11 @@
         <f t="array" ref="F13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="G13" cm="1">
+      <c r="G13" s="3" cm="1">
         <f t="array" ref="G13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
         <v>44462</v>
       </c>
-      <c r="H13" t="str" cm="1">
+      <c r="H13" s="3" t="str" cm="1">
         <f t="array" ref="H13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
@@ -3696,7 +4560,7 @@
         <f t="array" ref="K13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="L13" t="str" cm="1">
+      <c r="L13" s="3" t="str" cm="1">
         <f t="array" ref="L13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
         <v xml:space="preserve">Pending </v>
       </c>
@@ -3734,6 +4598,400 @@
       </c>
       <c r="U13" t="str" cm="1">
         <f t="array" ref="U13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B14" s="12">
+        <v>1248577</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" t="str" cm="1">
+        <f t="array" ref="D14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
+        <v>(563)608-0106</v>
+      </c>
+      <c r="E14" t="str" cm="1">
+        <f t="array" ref="E14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F14" t="str" cm="1">
+        <f t="array" ref="F14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G14" s="3" cm="1">
+        <f t="array" ref="G14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v>44475</v>
+      </c>
+      <c r="H14" s="3" cm="1">
+        <f t="array" ref="H14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v>44469</v>
+      </c>
+      <c r="I14" t="str" cm="1">
+        <f t="array" ref="I14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v>Off Campus - St. Paul's</v>
+      </c>
+      <c r="J14" cm="1">
+        <f t="array" ref="J14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44471</v>
+      </c>
+      <c r="K14" t="str" cm="1">
+        <f t="array" ref="K14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v>Manors: CHELL 001</v>
+      </c>
+      <c r="L14" s="3" cm="1">
+        <f t="array" ref="L14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v>44477</v>
+      </c>
+      <c r="M14" t="str" cm="1">
+        <f t="array" ref="M14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="N14" t="str" cm="1">
+        <f t="array" ref="N14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O14" t="str" cm="1">
+        <f t="array" ref="O14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P14" t="str" cm="1">
+        <f t="array" ref="P14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v>Josh B.</v>
+      </c>
+      <c r="Q14" t="str" cm="1">
+        <f t="array" ref="Q14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">is observing classes, is looking at holding off </v>
+      </c>
+      <c r="R14" t="str" cm="1">
+        <f t="array" ref="R14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S14" t="str" cm="1">
+        <f t="array" ref="S14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T14" t="str" cm="1">
+        <f t="array" ref="T14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U14" t="str" cm="1">
+        <f t="array" ref="U14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" t="str" cm="1">
+        <f t="array" ref="D15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
+        <v>563-203-7548</v>
+      </c>
+      <c r="E15" t="str" cm="1">
+        <f t="array" ref="E15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F15" t="str" cm="1">
+        <f t="array" ref="F15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G15" s="3" t="str" cm="1">
+        <f t="array" ref="G15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Going to test 10/13 at home </v>
+      </c>
+      <c r="H15" s="3" cm="1">
+        <f t="array" ref="H15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v>44477</v>
+      </c>
+      <c r="I15" t="str" cm="1">
+        <f t="array" ref="I15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Off campus- Home </v>
+      </c>
+      <c r="J15" cm="1">
+        <f t="array" ref="J15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44485</v>
+      </c>
+      <c r="K15" t="str" cm="1">
+        <f t="array" ref="K15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Home </v>
+      </c>
+      <c r="L15" s="3" cm="1">
+        <f t="array" ref="L15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v>44485</v>
+      </c>
+      <c r="M15" t="str" cm="1">
+        <f t="array" ref="M15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="N15" t="str" cm="1">
+        <f t="array" ref="N15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O15" t="str" cm="1">
+        <f t="array" ref="O15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P15" t="str" cm="1">
+        <f t="array" ref="P15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q15" t="str" cm="1">
+        <f t="array" ref="Q15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">reexposed at home, quarantine extended, going to test again </v>
+      </c>
+      <c r="R15" t="str" cm="1">
+        <f t="array" ref="R15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S15" t="str" cm="1">
+        <f t="array" ref="S15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T15" t="str" cm="1">
+        <f t="array" ref="T15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U15" t="str" cm="1">
+        <f t="array" ref="U15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>1234773</v>
+      </c>
+      <c r="C16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" t="str" cm="1">
+        <f t="array" ref="D16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
+        <v>(319)548-0109</v>
+      </c>
+      <c r="E16" t="str" cm="1">
+        <f t="array" ref="E16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F16" t="str" cm="1">
+        <f t="array" ref="F16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G16" s="3" t="str" cm="1">
+        <f t="array" ref="G16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="H16" s="3" t="str" cm="1">
+        <f t="array" ref="H16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="I16" t="str" cm="1">
+        <f t="array" ref="I16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="J16" cm="1">
+        <f t="array" ref="J16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44473</v>
+      </c>
+      <c r="K16" t="str" cm="1">
+        <f t="array" ref="K16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v>Lohe 337</v>
+      </c>
+      <c r="L16" s="3" t="str" cm="1">
+        <f t="array" ref="L16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="M16" t="str" cm="1">
+        <f t="array" ref="M16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="N16" t="str" cm="1">
+        <f t="array" ref="N16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O16" t="str" cm="1">
+        <f t="array" ref="O16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P16" t="str" cm="1">
+        <f t="array" ref="P16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q16" t="str" cm="1">
+        <f t="array" ref="Q16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R16" t="str" cm="1">
+        <f t="array" ref="R16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v>double entree</v>
+      </c>
+      <c r="S16" t="str" cm="1">
+        <f t="array" ref="S16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T16" t="str" cm="1">
+        <f t="array" ref="T16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U16" t="str" cm="1">
+        <f t="array" ref="U16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" t="str" cm="1">
+        <f t="array" ref="D17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
+        <v>563-203-7548</v>
+      </c>
+      <c r="E17" t="str" cm="1">
+        <f t="array" ref="E17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F17" t="str" cm="1">
+        <f t="array" ref="F17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G17" s="3" t="str" cm="1">
+        <f t="array" ref="G17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Going to test 10/13 at home </v>
+      </c>
+      <c r="H17" s="3" cm="1">
+        <f t="array" ref="H17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v>44477</v>
+      </c>
+      <c r="I17" t="str" cm="1">
+        <f t="array" ref="I17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Off campus- Home </v>
+      </c>
+      <c r="J17" cm="1">
+        <f t="array" ref="J17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44485</v>
+      </c>
+      <c r="K17" t="str" cm="1">
+        <f t="array" ref="K17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Home </v>
+      </c>
+      <c r="L17" s="3" cm="1">
+        <f t="array" ref="L17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v>44485</v>
+      </c>
+      <c r="M17" t="str" cm="1">
+        <f t="array" ref="M17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="N17" t="str" cm="1">
+        <f t="array" ref="N17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O17" t="str" cm="1">
+        <f t="array" ref="O17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P17" t="str" cm="1">
+        <f t="array" ref="P17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q17" t="str" cm="1">
+        <f t="array" ref="Q17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">reexposed at home, quarantine extended, going to test again </v>
+      </c>
+      <c r="R17" t="str" cm="1">
+        <f t="array" ref="R17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S17" t="str" cm="1">
+        <f t="array" ref="S17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T17" t="str" cm="1">
+        <f t="array" ref="T17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U17" t="str" cm="1">
+        <f t="array" ref="U17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" t="str" cm="1">
+        <f t="array" ref="D18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E18" t="str" cm="1">
+        <f t="array" ref="E18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F18" t="str" cm="1">
+        <f t="array" ref="F18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G18" s="3" t="str" cm="1">
+        <f t="array" ref="G18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Test 10/18 at Wartburg </v>
+      </c>
+      <c r="H18" s="3" cm="1">
+        <f t="array" ref="H18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v>44478</v>
+      </c>
+      <c r="I18" t="str" cm="1">
+        <f t="array" ref="I18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Off Campus - Kennedy Meister </v>
+      </c>
+      <c r="J18" cm="1">
+        <f t="array" ref="J18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44480</v>
+      </c>
+      <c r="K18" t="str" cm="1">
+        <f t="array" ref="K18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Home </v>
+      </c>
+      <c r="L18" s="3" t="str" cm="1">
+        <f t="array" ref="L18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="M18" t="str" cm="1">
+        <f t="array" ref="M18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v xml:space="preserve">Natalie </v>
+      </c>
+      <c r="N18" t="str" cm="1">
+        <f t="array" ref="N18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O18" t="str" cm="1">
+        <f t="array" ref="O18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P18" t="str" cm="1">
+        <f t="array" ref="P18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q18" t="str" cm="1">
+        <f t="array" ref="Q18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R18" t="str" cm="1">
+        <f t="array" ref="R18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S18" t="str" cm="1">
+        <f t="array" ref="S18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T18" t="str" cm="1">
+        <f t="array" ref="T18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U18" t="str" cm="1">
+        <f t="array" ref="U18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
         <v/>
       </c>
     </row>
@@ -3744,10 +5002,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B86344-DAFC-46AC-8F96-5F97879FB6E3}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3817,33 +5075,37 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>248</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>249</v>
+      </c>
       <c r="D2" s="14"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="4">
-        <v>44462</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>3</v>
+      <c r="F2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="15">
+        <v>44477</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
       <c r="I2" s="4">
-        <v>44462</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="6" t="s">
-        <v>101</v>
+        <v>44485</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="K2" s="5">
+        <v>44485</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="1"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -3851,30 +5113,32 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1233381</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>199</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="14"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="15">
+        <v>44478</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="I3" s="4">
-        <v>44459</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>201</v>
+        <v>44480</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>262</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -3885,394 +5149,283 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1245755</v>
-      </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" t="s">
-        <v>128</v>
+        <v>257</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44477</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="I4" s="3">
-        <v>44454</v>
+        <v>44485</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
-        <v>131</v>
-      </c>
-      <c r="O4" t="s">
-        <v>123</v>
+        <v>252</v>
+      </c>
+      <c r="K4" s="3">
+        <v>44480</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1244590</v>
-      </c>
       <c r="B5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="3">
-        <v>44454</v>
-      </c>
-      <c r="G5" t="s">
-        <v>128</v>
+        <v>259</v>
+      </c>
+      <c r="F5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" s="3">
+        <v>44478</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>261</v>
       </c>
       <c r="I5" s="3">
-        <v>44454</v>
+        <v>44480</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
-      </c>
-      <c r="K5" t="s">
-        <v>131</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s">
-        <v>131</v>
-      </c>
-      <c r="O5" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" t="s">
-        <v>135</v>
+        <v>252</v>
+      </c>
+      <c r="L5" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1248196</v>
+        <v>1248577</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>244</v>
       </c>
       <c r="F6" s="3">
-        <v>44455</v>
-      </c>
-      <c r="G6" t="s">
-        <v>128</v>
+        <v>44475</v>
+      </c>
+      <c r="G6" s="3">
+        <v>44469</v>
       </c>
       <c r="H6" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="I6" s="3">
-        <v>44455</v>
+        <v>44471</v>
       </c>
       <c r="J6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K6" t="s">
-        <v>131</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>131</v>
+        <v>246</v>
+      </c>
+      <c r="K6" s="3">
+        <v>44477</v>
+      </c>
+      <c r="O6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>1235078</v>
-      </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="3">
-        <v>44455</v>
-      </c>
-      <c r="G7" t="s">
-        <v>128</v>
+        <v>249</v>
+      </c>
+      <c r="F7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="3">
+        <v>44472</v>
       </c>
       <c r="H7" t="s">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="I7" s="3">
-        <v>44455</v>
+        <v>44473</v>
       </c>
       <c r="J7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" t="s">
-        <v>131</v>
+        <v>252</v>
+      </c>
+      <c r="K7" s="3">
+        <v>44480</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1245967</v>
+        <v>1234773</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="3">
-        <v>44455</v>
-      </c>
-      <c r="G8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="I8" s="3">
-        <v>44455</v>
+        <v>44473</v>
       </c>
       <c r="J8" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" t="s">
-        <v>131</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
-        <v>131</v>
+        <v>255</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
-        <v>1248095</v>
+        <v>1248577</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>59</v>
+        <v>243</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>244</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="4">
-        <v>37619</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>60</v>
+      <c r="E9" s="1"/>
+      <c r="F9" s="4">
+        <v>44475</v>
       </c>
       <c r="G9" s="15">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>61</v>
+        <v>245</v>
       </c>
       <c r="I9" s="4">
-        <v>44434</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>11</v>
+        <v>44471</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="K9" s="5">
-        <v>44442</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="16">
-        <v>44448</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>45</v>
+        <v>44477</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>63</v>
+        <v>247</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>1248351</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>248</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="4">
-        <v>37668</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="G10" s="15">
-        <v>44434</v>
+        <v>44472</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>61</v>
+        <v>251</v>
       </c>
       <c r="I10" s="4">
-        <v>44434</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>11</v>
-      </c>
+        <v>44473</v>
+      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="5">
-        <v>44442</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="16">
-        <v>44448</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>67</v>
-      </c>
+        <v>44480</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="18"/>
-      <c r="T10" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>1246184</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="4">
-        <v>37536</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="15">
-        <v>44434</v>
+      <c r="E11" s="1"/>
+      <c r="F11" s="4">
+        <v>44462</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="I11" s="4">
-        <v>44434</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="5">
-        <v>44442</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="16">
-        <v>44448</v>
-      </c>
-      <c r="O11" s="17" t="s">
-        <v>45</v>
-      </c>
+        <v>44462</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="18"/>
-      <c r="T11" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>1240577</v>
+        <v>1233381</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>198</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>199</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>99</v>
-      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="1" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="I12" s="4">
-        <v>44445</v>
+        <v>44459</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>104</v>
-      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="18"/>
@@ -4280,30 +5433,424 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>1245755</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="3">
+        <v>44454</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1244590</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="3">
+        <v>44454</v>
+      </c>
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="3">
+        <v>44454</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>123</v>
+      </c>
+      <c r="P14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1248196</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="3">
+        <v>44455</v>
+      </c>
+      <c r="G15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="3">
+        <v>44455</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1235078</v>
+      </c>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="3">
+        <v>44455</v>
+      </c>
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="3">
+        <v>44455</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1245967</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="3">
+        <v>44455</v>
+      </c>
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="3">
+        <v>44455</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>1248095</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="4">
+        <v>37619</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="15">
+        <v>44434</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="4">
+        <v>44434</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="5">
+        <v>44442</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="16">
+        <v>44448</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>1248351</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="4">
+        <v>37668</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="15">
+        <v>44434</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="4">
+        <v>44434</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="5">
+        <v>44442</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="16">
+        <v>44448</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>1246184</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="4">
+        <v>37536</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="15">
+        <v>44434</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="4">
+        <v>44434</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="5">
+        <v>44442</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="16">
+        <v>44448</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>1240577</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="4">
+        <v>44445</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>1249163</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C13" t="e">
+      <c r="C22" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F13">
+      <c r="F22">
         <v>44452</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G22" t="s">
         <v>110</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H22" t="s">
         <v>111</v>
       </c>
-      <c r="I13">
+      <c r="I22">
         <v>44452</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J22" t="s">
         <v>112</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K22" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4314,11 +5861,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A10FFB-DB3F-470D-B9BC-87C08C3BCAF7}">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6099,15 +7646,11 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="F23" t="e">
-        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G23" t="e">
-        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H23">
+      <c r="F23"/>
+      <c r="G23" s="22">
+        <v>44456</v>
+      </c>
+      <c r="H23" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B23,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44456</v>
       </c>
@@ -6183,15 +7726,11 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="F24" t="e">
-        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G24" t="e">
-        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H24">
+      <c r="F24"/>
+      <c r="G24" s="22">
+        <v>44456</v>
+      </c>
+      <c r="H24" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B24,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44456</v>
       </c>
@@ -6248,11 +7787,8 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="B25" s="27" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>193</v>
       </c>
       <c r="C25" t="str">
@@ -6267,15 +7803,11 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="F25" t="e">
-        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G25" t="e">
-        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H25">
+      <c r="F25"/>
+      <c r="G25" s="22">
+        <v>44456</v>
+      </c>
+      <c r="H25" s="3">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B25,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>44456</v>
       </c>
@@ -6333,10 +7865,10 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>1250699</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>105</v>
       </c>
       <c r="C26" t="str">
@@ -6351,15 +7883,13 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">9/10/21 Wartburg </v>
       </c>
-      <c r="F26" t="e">
-        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G26" t="e">
-        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H26" t="str">
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="22">
+        <v>44449</v>
+      </c>
+      <c r="H26" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B26,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Postive</v>
       </c>
@@ -6416,11 +7946,11 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.45">
-      <c r="A27" s="21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>1244320</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>113</v>
       </c>
       <c r="C27" t="str">
@@ -6435,15 +7965,13 @@
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
         <v xml:space="preserve">9/15/2021 Wartburg </v>
       </c>
-      <c r="F27" t="e">
-        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!F$1,'Cleared Students'!$1:$1,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G27" t="e">
-        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!G$1,'Cleared Students'!$1:$1,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H27" t="str">
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="22">
+        <v>44454</v>
+      </c>
+      <c r="H27" s="3" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
         <v>Positive</v>
       </c>
@@ -6498,6 +8026,327 @@
       <c r="U27" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B27,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
         <v>n/a</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F28"/>
+      <c r="G28" s="22">
+        <v>44462</v>
+      </c>
+      <c r="H28" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44462</v>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="J28" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="K28" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44462</v>
+      </c>
+      <c r="L28" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="M28" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">Pending </v>
+      </c>
+      <c r="N28" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O28" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P28" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q28" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R28" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">Waiting for test results from doctor </v>
+      </c>
+      <c r="S28" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T28" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U28" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B28,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1227963</v>
+      </c>
+      <c r="B29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>515-230-9859</v>
+      </c>
+      <c r="D29" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>9/20 Noah clinic</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="22">
+        <v>44459</v>
+      </c>
+      <c r="H29" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Positive</v>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="J29" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="K29" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44459</v>
+      </c>
+      <c r="L29" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Founders Apartment</v>
+      </c>
+      <c r="M29" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44465</v>
+      </c>
+      <c r="N29" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Danny</v>
+      </c>
+      <c r="O29" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P29" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q29" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Courtney TS</v>
+      </c>
+      <c r="R29" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Email sent, called but voicemail is full - 9/22; slightly congested, slight cough, runny nose - 9/23;</v>
+      </c>
+      <c r="S29" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T29" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>symptoms started 9/16</v>
+      </c>
+      <c r="U29" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B29,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1248577</v>
+      </c>
+      <c r="B30" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>(563)608-0106</v>
+      </c>
+      <c r="D30" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F30"/>
+      <c r="G30" s="22">
+        <v>44475</v>
+      </c>
+      <c r="H30" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44475</v>
+      </c>
+      <c r="I30" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44469</v>
+      </c>
+      <c r="J30" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Off Campus - St. Paul's</v>
+      </c>
+      <c r="K30" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44471</v>
+      </c>
+      <c r="L30" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Manors: CHELL 001</v>
+      </c>
+      <c r="M30" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44477</v>
+      </c>
+      <c r="N30" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P30" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q30" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Josh B.</v>
+      </c>
+      <c r="R30" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">is observing classes, is looking at holding off </v>
+      </c>
+      <c r="S30" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T30" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U30" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1224643</v>
+      </c>
+      <c r="B31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>(309)634-1378</v>
+      </c>
+      <c r="D31" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!D$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!E$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Wartburg 9/29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="22">
+        <v>44468</v>
+      </c>
+      <c r="H31" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!H$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">Positive Antigen </v>
+      </c>
+      <c r="I31" s="3" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!I$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="J31" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!J$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="K31" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!K$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44468</v>
+      </c>
+      <c r="L31" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!L$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Founders Apartment</v>
+      </c>
+      <c r="M31" s="3">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!M$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>44476</v>
+      </c>
+      <c r="N31" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!N$1,'Cleared Students'!$1:$1,0)))</f>
+        <v xml:space="preserve">Danny </v>
+      </c>
+      <c r="O31" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!O$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="P31" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!P$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q31" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!Q$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>Josh B.</v>
+      </c>
+      <c r="R31" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!R$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>9/30: sore throat/runny nose, fever broke last night, 10/1 -10/7feeling much better, 10/8 - feeling great</v>
+      </c>
+      <c r="S31" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!S$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T31" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!T$1,'Cleared Students'!$1:$1,0)))</f>
+        <v>wants groceries delivered 10/1</v>
+      </c>
+      <c r="U31" t="str">
+        <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B31,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!U$1,'Cleared Students'!$1:$1,0)))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -6507,13 +8356,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B33359F-1ECB-4015-A969-E5B4078CAA66}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AN4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -7213,7 +9066,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1249163</v>
       </c>
@@ -7251,7 +9104,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1239366</v>
       </c>
@@ -7289,7 +9142,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1245755</v>
       </c>
@@ -7330,7 +9183,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1244590</v>
       </c>
@@ -7368,7 +9221,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1248196</v>
       </c>
@@ -7409,7 +9262,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1235078</v>
       </c>
@@ -7450,7 +9303,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1245967</v>
       </c>
@@ -7491,7 +9344,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1243914</v>
       </c>
@@ -7532,7 +9385,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>185</v>
       </c>
@@ -7558,7 +9411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1237558</v>
       </c>
@@ -7590,7 +9443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1212744</v>
       </c>
@@ -7622,7 +9475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>193</v>
       </c>
@@ -7646,6 +9499,264 @@
       </c>
       <c r="M28" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1250699</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="3">
+        <v>44449</v>
+      </c>
+      <c r="J29" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="3">
+        <v>44459</v>
+      </c>
+      <c r="L29" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="3">
+        <v>44459</v>
+      </c>
+      <c r="O29" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" t="s">
+        <v>147</v>
+      </c>
+      <c r="S29" s="3">
+        <v>44463</v>
+      </c>
+      <c r="T29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1244320</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>44449</v>
+      </c>
+      <c r="H30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="3">
+        <v>44450</v>
+      </c>
+      <c r="J30" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="3">
+        <v>44460</v>
+      </c>
+      <c r="L30" t="s">
+        <v>122</v>
+      </c>
+      <c r="M30" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="3">
+        <v>44460</v>
+      </c>
+      <c r="O30" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>124</v>
+      </c>
+      <c r="S30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>223</v>
+      </c>
+      <c r="F31" s="3">
+        <v>44462</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="3">
+        <v>44462</v>
+      </c>
+      <c r="K31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1227963</v>
+      </c>
+      <c r="B32" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="3">
+        <v>44459</v>
+      </c>
+      <c r="J32" t="s">
+        <v>206</v>
+      </c>
+      <c r="K32" s="3">
+        <v>44465</v>
+      </c>
+      <c r="L32" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" t="s">
+        <v>123</v>
+      </c>
+      <c r="P32" t="s">
+        <v>225</v>
+      </c>
+      <c r="R32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1248577</v>
+      </c>
+      <c r="B33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" t="s">
+        <v>244</v>
+      </c>
+      <c r="F33" s="3">
+        <v>44475</v>
+      </c>
+      <c r="G33" s="3">
+        <v>44469</v>
+      </c>
+      <c r="H33" t="s">
+        <v>245</v>
+      </c>
+      <c r="I33" s="3">
+        <v>44471</v>
+      </c>
+      <c r="J33" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" s="3">
+        <v>44477</v>
+      </c>
+      <c r="O33" t="s">
+        <v>103</v>
+      </c>
+      <c r="P33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1224643</v>
+      </c>
+      <c r="B34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C34" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="3">
+        <v>44468</v>
+      </c>
+      <c r="J34" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" s="3">
+        <v>44476</v>
+      </c>
+      <c r="L34" t="s">
+        <v>237</v>
+      </c>
+      <c r="M34" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" t="s">
+        <v>103</v>
+      </c>
+      <c r="P34" t="s">
+        <v>265</v>
+      </c>
+      <c r="R34" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -7655,10 +9766,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697DB29A-8071-4245-AA70-F84BFB7723B1}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7669,26 +9780,26 @@
     <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8165,6 +10276,70 @@
         <v>202</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="24">
+        <v>44483</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D29" s="24">
+        <v>36986</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F29" s="24">
+        <v>44490</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="24">
+        <v>44490</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="24">
+        <v>44490</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2021-22 Wartburg COVID Tracing.xlsx
+++ b/2021-22 Wartburg COVID Tracing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2021-2022\IowaCOVID19\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B5C032-B1A1-45F5-A647-93A0CD0F967E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E81806-CB3D-420E-A310-34346D45A5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{DC7C837F-5F10-4144-B236-1FECA5F0EA08}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="295">
   <si>
     <t>Preston Rochford</t>
   </si>
@@ -757,9 +757,6 @@
     <t>(309)634-1378</t>
   </si>
   <si>
-    <t>Noah - 9/29</t>
-  </si>
-  <si>
     <t>Test Location</t>
   </si>
   <si>
@@ -883,9 +880,6 @@
     <t>563-880-6419</t>
   </si>
   <si>
-    <t>10/25 @ 9:30</t>
-  </si>
-  <si>
     <t>On Campus - Jagger Ignaszewski</t>
   </si>
   <si>
@@ -893,6 +887,66 @@
   </si>
   <si>
     <t>Thomas Supper</t>
+  </si>
+  <si>
+    <t>Callum Maclearn</t>
+  </si>
+  <si>
+    <t>Thane Alexander</t>
+  </si>
+  <si>
+    <t>Xander Bradley</t>
+  </si>
+  <si>
+    <t>641-569-3332</t>
+  </si>
+  <si>
+    <t>11/1/2021 Wartburg</t>
+  </si>
+  <si>
+    <t>On Campus- Calum Maclearn</t>
+  </si>
+  <si>
+    <t>319-529-1463</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>10/25 - negative</t>
+  </si>
+  <si>
+    <t>Trace Schneider</t>
+  </si>
+  <si>
+    <t>815-814-7742</t>
+  </si>
+  <si>
+    <t>Cooper Smock</t>
+  </si>
+  <si>
+    <t>On Campus - Trace Schneider</t>
+  </si>
+  <si>
+    <t>Isaac Bender</t>
+  </si>
+  <si>
+    <t>Carter Johnson</t>
+  </si>
+  <si>
+    <t>James Devine</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>712-307-1030</t>
+  </si>
+  <si>
+    <t>On Campus - David Kragness</t>
+  </si>
+  <si>
+    <t>David Kragness</t>
   </si>
 </sst>
 </file>
@@ -1117,12 +1171,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1437,14 +1487,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B7C922-39ED-4AAC-B544-0C25322ECB9A}">
-  <dimension ref="A1:AP14"/>
+  <dimension ref="A1:AP17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1478,10 +1528,10 @@
         <v>25</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>26</v>
@@ -2128,7 +2178,7 @@
         <v>44459</v>
       </c>
       <c r="H9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I9" t="str" cm="1">
         <f t="array" ref="I9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
@@ -2271,7 +2321,7 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="C11" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" ref="D11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
@@ -2351,7 +2401,7 @@
     <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B12" s="9"/>
       <c r="C12" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" ref="D12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
@@ -2430,7 +2480,7 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="C13" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D13" t="str" cm="1">
         <f t="array" ref="D13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
@@ -2466,7 +2516,7 @@
       </c>
       <c r="M13" t="str" cm="1">
         <f t="array" ref="M13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
-        <v>Home</v>
+        <v>HOME</v>
       </c>
       <c r="N13" s="3" cm="1">
         <f t="array" ref="N13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
@@ -2507,7 +2557,7 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="C14" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14" t="str" cm="1">
         <f t="array" ref="D14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
@@ -2543,7 +2593,7 @@
       </c>
       <c r="M14" t="str" cm="1">
         <f t="array" ref="M14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
-        <v>Home</v>
+        <v>HOME</v>
       </c>
       <c r="N14" s="3" cm="1">
         <f t="array" ref="N14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
@@ -2580,6 +2630,162 @@
       <c r="V14" t="str" cm="1">
         <f t="array" ref="V14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="C15" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" t="str" cm="1">
+        <f t="array" ref="D15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E15" s="3" t="str" cm="1">
+        <f t="array" ref="E15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F15" t="str" cm="1">
+        <f t="array" ref="F15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
+        <v>Wartburg Antigen</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="I15" t="str" cm="1">
+        <f t="array" ref="I15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+        <v>positive</v>
+      </c>
+      <c r="J15" s="3" t="str" cm="1">
+        <f t="array" ref="J15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="K15" t="str" cm="1">
+        <f t="array" ref="K15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="L15" s="3" cm="1">
+        <f t="array" ref="L15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+        <v>44496</v>
+      </c>
+      <c r="M15" t="str" cm="1">
+        <f t="array" ref="M15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+        <v>HOME</v>
+      </c>
+      <c r="N15" s="3" cm="1">
+        <f t="array" ref="N15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+        <v>44505</v>
+      </c>
+      <c r="O15" t="str" cm="1">
+        <f t="array" ref="O15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P15" t="str" cm="1">
+        <f t="array" ref="P15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q15" s="3" t="str" cm="1">
+        <f t="array" ref="Q15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R15" t="str" cm="1">
+        <f t="array" ref="R15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S15" t="str" cm="1">
+        <f t="array" ref="S15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T15" t="str" cm="1">
+        <f t="array" ref="T15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U15" t="str" cm="1">
+        <f t="array" ref="U15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="V15" t="str" cm="1">
+        <f t="array" ref="V15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="C16" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" t="str" cm="1">
+        <f t="array" ref="D16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
+        <v>815-814-7742</v>
+      </c>
+      <c r="E16" s="3" t="str" cm="1">
+        <f t="array" ref="E16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F16" t="str" cm="1">
+        <f t="array" ref="F16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
+        <v>Wartburg Antigen</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" t="str" cm="1">
+        <f t="array" ref="I16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+        <v>Positive</v>
+      </c>
+      <c r="J16" s="3" t="str" cm="1">
+        <f t="array" ref="J16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="K16" t="str" cm="1">
+        <f t="array" ref="K16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="L16" s="3" cm="1">
+        <f t="array" ref="L16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+        <v>44498</v>
+      </c>
+      <c r="M16" t="str" cm="1">
+        <f t="array" ref="M16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+        <v>HOME</v>
+      </c>
+      <c r="N16" s="3" cm="1">
+        <f t="array" ref="N16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+        <v>44508</v>
+      </c>
+      <c r="O16" t="str" cm="1">
+        <f t="array" ref="O16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P16" t="str" cm="1">
+        <f t="array" ref="P16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q16" s="3" t="str" cm="1">
+        <f t="array" ref="Q16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R16" t="str" cm="1">
+        <f t="array" ref="R16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S16" t="str" cm="1">
+        <f t="array" ref="S16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T16" t="str" cm="1">
+        <f t="array" ref="T16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U16" t="str" cm="1">
+        <f t="array" ref="U16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="V16" t="str" cm="1">
+        <f t="array" ref="V16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="41" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2590,7 +2796,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC357540-4F5F-4E17-B510-319E9A338038}">
-  <dimension ref="A1:AM21"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
@@ -2689,44 +2895,42 @@
       <c r="AM1" s="34"/>
     </row>
     <row r="2" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="4">
-        <v>44488</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="5">
-        <v>44498</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="I2" s="36">
+        <v>44496</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="36">
+        <v>44505</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="34"/>
       <c r="V2" s="34"/>
       <c r="W2" s="34"/>
@@ -2748,46 +2952,44 @@
       <c r="AM2" s="34"/>
     </row>
     <row r="3" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="4">
-        <v>44491</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="5">
-        <v>44501</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="I3" s="36">
+        <v>44498</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="36">
+        <v>44508</v>
+      </c>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="34"/>
       <c r="U3" s="34"/>
       <c r="V3" s="34"/>
       <c r="W3" s="34"/>
@@ -2811,33 +3013,33 @@
     <row r="4" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35"/>
       <c r="B4" s="34" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="36"/>
       <c r="E4" s="34" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>236</v>
+        <v>2</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="I4" s="36">
-        <v>44480</v>
+        <v>44488</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>242</v>
+        <v>116</v>
       </c>
       <c r="K4" s="36">
-        <v>44490</v>
+        <v>44498</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="M4" s="34"/>
       <c r="N4" s="37"/>
@@ -2870,33 +3072,35 @@
     <row r="5" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35"/>
       <c r="B5" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" s="34"/>
+        <v>268</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>269</v>
+      </c>
       <c r="D5" s="36"/>
       <c r="E5" s="34" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>236</v>
+        <v>2</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="I5" s="36">
-        <v>44470</v>
+        <v>44491</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>242</v>
+        <v>116</v>
       </c>
       <c r="K5" s="36">
-        <v>44480</v>
+        <v>44501</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="M5" s="34"/>
       <c r="N5" s="37"/>
@@ -2929,34 +3133,20 @@
     <row r="6" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35"/>
       <c r="B6" s="34" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="36"/>
-      <c r="E6" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="36">
-        <v>44480</v>
-      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="K6" s="36">
-        <v>44490</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>262</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="34"/>
       <c r="N6" s="37"/>
       <c r="O6" s="34"/>
@@ -2986,54 +3176,38 @@
       <c r="AM6" s="34"/>
     </row>
     <row r="7" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35">
-        <v>1224643</v>
-      </c>
+      <c r="A7" s="35"/>
       <c r="B7" s="34" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="34" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>236</v>
+        <v>2</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="36">
-        <v>44468</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="I7" s="36"/>
       <c r="J7" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="K7" s="36">
-        <v>44476</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="M7" s="34" t="s">
-        <v>20</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
       <c r="N7" s="37"/>
-      <c r="O7" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="P7" s="34" t="s">
-        <v>238</v>
-      </c>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
       <c r="Q7" s="34"/>
-      <c r="R7" s="34" t="s">
-        <v>239</v>
-      </c>
+      <c r="R7" s="34"/>
       <c r="S7" s="38"/>
       <c r="T7" s="34"/>
       <c r="U7" s="34"/>
@@ -3059,15 +3233,15 @@
     <row r="8" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
       <c r="B8" s="34" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="36"/>
       <c r="E8" s="34" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>3</v>
@@ -3076,16 +3250,16 @@
         <v>3</v>
       </c>
       <c r="I8" s="36">
-        <v>44470</v>
+        <v>44480</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K8" s="36">
-        <v>44480</v>
+        <v>44490</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="M8" s="34"/>
       <c r="N8" s="37"/>
@@ -3115,288 +3289,445 @@
       <c r="AL8" s="34"/>
       <c r="AM8" s="34"/>
     </row>
-    <row r="9" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35"/>
+      <c r="B9" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="36">
+        <v>44470</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="K9" s="36">
+        <v>44480</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="M9" s="34"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+    </row>
+    <row r="10" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35">
         <v>1224643</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="E9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D10" s="36"/>
+      <c r="E10" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="36">
+        <v>44468</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" s="36">
+        <v>44476</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="37"/>
+      <c r="O10" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="S10" s="38"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+    </row>
+    <row r="11" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="40">
+        <v>1227963</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G11" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H11" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="40">
+        <v>44459</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="40">
+        <v>44465</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+    </row>
+    <row r="12" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="40">
+        <v>1244320</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="40">
+        <v>44449</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="40">
+        <v>44450</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="40">
+        <v>44248</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="40">
+        <v>44460</v>
+      </c>
+      <c r="O12" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q12" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
+    </row>
+    <row r="13" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
         <v>3</v>
       </c>
-      <c r="J9" t="s">
+      <c r="H13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13">
+        <v>44459</v>
+      </c>
+      <c r="J13" t="s">
         <v>206</v>
       </c>
-      <c r="K9">
-        <v>44482</v>
-      </c>
-      <c r="M9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>1227963</v>
-      </c>
-      <c r="B10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10">
-        <v>44459</v>
-      </c>
-      <c r="J10" t="s">
-        <v>206</v>
-      </c>
-      <c r="K10">
+      <c r="K13">
         <v>44465</v>
-      </c>
-      <c r="L10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" t="s">
-        <v>123</v>
-      </c>
-      <c r="P10" t="s">
-        <v>225</v>
-      </c>
-      <c r="R10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>1244320</v>
-      </c>
-      <c r="B11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>44449</v>
-      </c>
-      <c r="H11" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11">
-        <v>44450</v>
-      </c>
-      <c r="J11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11">
-        <v>44248</v>
-      </c>
-      <c r="L11" t="s">
-        <v>122</v>
-      </c>
-      <c r="M11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11">
-        <v>44460</v>
-      </c>
-      <c r="O11" t="s">
-        <v>123</v>
-      </c>
-      <c r="P11" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>205</v>
-      </c>
-      <c r="I12">
-        <v>44459</v>
-      </c>
-      <c r="J12" t="s">
-        <v>206</v>
-      </c>
-      <c r="K12">
-        <v>44465</v>
-      </c>
-      <c r="L12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>1250699</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13">
-        <v>44449</v>
-      </c>
-      <c r="J13" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13">
-        <v>44459</v>
       </c>
       <c r="L13" t="s">
         <v>5</v>
       </c>
-      <c r="M13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13">
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13" t="s">
+        <v>207</v>
+      </c>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
+    </row>
+    <row r="14" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1250699</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14">
+        <v>44449</v>
+      </c>
+      <c r="J14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14">
         <v>44459</v>
-      </c>
-      <c r="O13" t="s">
-        <v>117</v>
-      </c>
-      <c r="P13" t="s">
-        <v>147</v>
-      </c>
-      <c r="T13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>1235116</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14">
-        <v>44425</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <v>44435</v>
       </c>
       <c r="L14" t="s">
         <v>5</v>
       </c>
       <c r="M14" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>44459</v>
       </c>
       <c r="O14" t="s">
-        <v>5</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P14" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
       <c r="T14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+    </row>
+    <row r="15" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1235116</v>
+      </c>
       <c r="B15" t="s">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>44427</v>
+        <v>44425</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K15">
-        <v>44437</v>
+        <v>44435</v>
       </c>
       <c r="L15" t="s">
         <v>5</v>
@@ -3404,69 +3735,112 @@
       <c r="M15" t="s">
         <v>6</v>
       </c>
+      <c r="N15"/>
       <c r="O15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>1232227</v>
-      </c>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+    </row>
+    <row r="16" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16"/>
       <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16">
-        <v>36695</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
       <c r="E16" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
       </c>
       <c r="K16">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="L16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M16" t="s">
         <v>6</v>
       </c>
+      <c r="N16"/>
       <c r="O16" t="s">
         <v>5</v>
       </c>
-      <c r="T16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
+    </row>
+    <row r="17" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1233601</v>
+        <v>1232227</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>37013</v>
+        <v>36695</v>
       </c>
       <c r="E17" t="s">
         <v>1</v>
@@ -3484,7 +3858,7 @@
         <v>44428</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K17">
         <v>44438</v>
@@ -3493,45 +3867,72 @@
         <v>15</v>
       </c>
       <c r="M17" t="s">
-        <v>20</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N17"/>
       <c r="O17" t="s">
         <v>5</v>
       </c>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
       <c r="T17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+    </row>
+    <row r="18" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1233601</v>
+      </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>37763</v>
+        <v>37013</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>44434</v>
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="I18">
+        <v>44428</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18">
         <v>44438</v>
-      </c>
-      <c r="J18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18">
-        <v>44448</v>
       </c>
       <c r="L18" t="s">
         <v>15</v>
@@ -3540,18 +3941,70 @@
         <v>20</v>
       </c>
       <c r="O18" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>37763</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>44434</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19">
+        <v>44438</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19">
+        <v>44448</v>
+      </c>
+      <c r="L19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" t="s">
         <v>45</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P19" t="s">
         <v>46</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:20" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:20" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:20" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3560,17 +4013,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6164E72-0B31-4D07-B897-5E56341DD845}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:U18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="10.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.7265625" style="3"/>
   </cols>
@@ -3669,7 +4123,7 @@
         <f t="array" ref="I2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
         <v>Off-campus/Collin Meisenburg</v>
       </c>
-      <c r="J2" cm="1">
+      <c r="J2" s="3" cm="1">
         <f t="array" ref="J2">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B2,Qpaste!$A:$A,0),MATCH($C2,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
         <v>44434</v>
       </c>
@@ -3750,7 +4204,7 @@
         <f t="array" ref="I3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
         <v>Off-campus/Collin Meisenburg</v>
       </c>
-      <c r="J3" cm="1">
+      <c r="J3" s="3" cm="1">
         <f t="array" ref="J3">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B3,Qpaste!$A:$A,0),MATCH($C3,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
         <v>44434</v>
       </c>
@@ -3831,7 +4285,7 @@
         <f t="array" ref="I4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
         <v>Off-campus/Collin Meisenburg</v>
       </c>
-      <c r="J4" cm="1">
+      <c r="J4" s="3" cm="1">
         <f t="array" ref="J4">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B4,Qpaste!$A:$A,0),MATCH($C4,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
         <v>44434</v>
       </c>
@@ -3912,7 +4366,7 @@
         <f t="array" ref="I5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
         <v>Unknown</v>
       </c>
-      <c r="J5" cm="1">
+      <c r="J5" s="3" cm="1">
         <f t="array" ref="J5">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B5,Qpaste!$A:$A,0),MATCH($C5,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
         <v>44445</v>
       </c>
@@ -3992,7 +4446,7 @@
         <f t="array" ref="I6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
         <v xml:space="preserve">none </v>
       </c>
-      <c r="J6" cm="1">
+      <c r="J6" s="3" cm="1">
         <f t="array" ref="J6">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B6,Qpaste!$A:$A,0),MATCH($C6,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
         <v>44452</v>
       </c>
@@ -4072,7 +4526,7 @@
         <f t="array" ref="I7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
         <v xml:space="preserve">Unknown </v>
       </c>
-      <c r="J7" cm="1">
+      <c r="J7" s="3" cm="1">
         <f t="array" ref="J7">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B7,Qpaste!$A:$A,0),MATCH($C7,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
         <v>44454</v>
       </c>
@@ -4152,7 +4606,7 @@
         <f t="array" ref="I8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
         <v xml:space="preserve">Unknown </v>
       </c>
-      <c r="J8" cm="1">
+      <c r="J8" s="3" cm="1">
         <f t="array" ref="J8">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B8,Qpaste!$A:$A,0),MATCH($C8,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
         <v>44454</v>
       </c>
@@ -4232,7 +4686,7 @@
         <f t="array" ref="I9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
         <v xml:space="preserve">Unknown </v>
       </c>
-      <c r="J9" cm="1">
+      <c r="J9" s="3" cm="1">
         <f t="array" ref="J9">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B9,Qpaste!$A:$A,0),MATCH($C9,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
         <v>44455</v>
       </c>
@@ -4312,7 +4766,7 @@
         <f t="array" ref="I10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
         <v xml:space="preserve">Unknown </v>
       </c>
-      <c r="J10" cm="1">
+      <c r="J10" s="3" cm="1">
         <f t="array" ref="J10">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B10,Qpaste!$A:$A,0),MATCH($C10,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
         <v>44455</v>
       </c>
@@ -4392,7 +4846,7 @@
         <f t="array" ref="I11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
         <v xml:space="preserve">Unknown </v>
       </c>
-      <c r="J11" cm="1">
+      <c r="J11" s="3" cm="1">
         <f t="array" ref="J11">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B11,Qpaste!$A:$A,0),MATCH($C11,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
         <v>44455</v>
       </c>
@@ -4475,7 +4929,7 @@
         <f t="array" ref="I12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
         <v>On campus - Natalie Keenan</v>
       </c>
-      <c r="J12" cm="1">
+      <c r="J12" s="3" cm="1">
         <f t="array" ref="J12">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B12,Qpaste!$A:$A,0),MATCH($C12,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
         <v>44459</v>
       </c>
@@ -4552,7 +5006,7 @@
         <f t="array" ref="I13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
         <v>unknown</v>
       </c>
-      <c r="J13" cm="1">
+      <c r="J13" s="3" cm="1">
         <f t="array" ref="J13">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B13,Qpaste!$A:$A,0),MATCH($C13,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
         <v>44462</v>
       </c>
@@ -4606,7 +5060,7 @@
         <v>1248577</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D14" t="str" cm="1">
         <f t="array" ref="D14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
@@ -4632,7 +5086,7 @@
         <f t="array" ref="I14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
         <v>Off Campus - St. Paul's</v>
       </c>
-      <c r="J14" cm="1">
+      <c r="J14" s="3" cm="1">
         <f t="array" ref="J14">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B14,Qpaste!$A:$A,0),MATCH($C14,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
         <v>44471</v>
       </c>
@@ -4684,7 +5138,7 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D15" t="str" cm="1">
         <f t="array" ref="D15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
@@ -4710,7 +5164,7 @@
         <f t="array" ref="I15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
         <v xml:space="preserve">Off campus- Home </v>
       </c>
-      <c r="J15" cm="1">
+      <c r="J15" s="3" cm="1">
         <f t="array" ref="J15">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B15,Qpaste!$A:$A,0),MATCH($C15,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
         <v>44485</v>
       </c>
@@ -4764,7 +5218,7 @@
         <v>1234773</v>
       </c>
       <c r="C16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D16" t="str" cm="1">
         <f t="array" ref="D16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
@@ -4790,7 +5244,7 @@
         <f t="array" ref="I16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="J16" cm="1">
+      <c r="J16" s="3" cm="1">
         <f t="array" ref="J16">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B16,Qpaste!$A:$A,0),MATCH($C16,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
         <v>44473</v>
       </c>
@@ -4842,7 +5296,7 @@
     <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D17" t="str" cm="1">
         <f t="array" ref="D17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
@@ -4868,7 +5322,7 @@
         <f t="array" ref="I17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
         <v xml:space="preserve">Off campus- Home </v>
       </c>
-      <c r="J17" cm="1">
+      <c r="J17" s="3" cm="1">
         <f t="array" ref="J17">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B17,Qpaste!$A:$A,0),MATCH($C17,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
         <v>44485</v>
       </c>
@@ -4920,7 +5374,7 @@
     <row r="18" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D18" t="str" cm="1">
         <f t="array" ref="D18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
@@ -4946,7 +5400,7 @@
         <f t="array" ref="I18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
         <v xml:space="preserve">Off Campus - Kennedy Meister </v>
       </c>
-      <c r="J18" cm="1">
+      <c r="J18" s="3" cm="1">
         <f t="array" ref="J18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
         <v>44480</v>
       </c>
@@ -4992,6 +5446,156 @@
       </c>
       <c r="U18" t="str" cm="1">
         <f t="array" ref="U18">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B18,Qpaste!$A:$A,0),MATCH($C18,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="C19" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" t="str" cm="1">
+        <f t="array" ref="D19">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!C$1,Qpaste!$1:$1,0)))</f>
+        <v>641-569-3332</v>
+      </c>
+      <c r="E19" t="str" cm="1">
+        <f t="array" ref="E19">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F19" t="str" cm="1">
+        <f t="array" ref="F19">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G19" s="3" t="str" cm="1">
+        <f t="array" ref="G19">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v>11/1/2021 Wartburg</v>
+      </c>
+      <c r="H19" s="3" cm="1">
+        <f t="array" ref="H19">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v>44494</v>
+      </c>
+      <c r="I19" t="str" cm="1">
+        <f t="array" ref="I19">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v>On Campus- Calum Maclearn</v>
+      </c>
+      <c r="J19" s="3" cm="1">
+        <f t="array" ref="J19">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44496</v>
+      </c>
+      <c r="K19" t="str" cm="1">
+        <f t="array" ref="K19">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v>Home</v>
+      </c>
+      <c r="L19" s="3" cm="1">
+        <f t="array" ref="L19">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v>44502</v>
+      </c>
+      <c r="M19" t="str" cm="1">
+        <f t="array" ref="M19">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v>Danny</v>
+      </c>
+      <c r="N19" t="str" cm="1">
+        <f t="array" ref="N19">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O19" t="str" cm="1">
+        <f t="array" ref="O19">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P19" t="str" cm="1">
+        <f t="array" ref="P19">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q19" t="str" cm="1">
+        <f t="array" ref="Q19">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R19" t="str" cm="1">
+        <f t="array" ref="R19">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S19" t="str" cm="1">
+        <f t="array" ref="S19">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T19" t="str" cm="1">
+        <f t="array" ref="T19">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U19" t="str" cm="1">
+        <f t="array" ref="U19">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B19,Qpaste!$A:$A,0),MATCH($C19,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="C20" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E20" t="str" cm="1">
+        <f t="array" ref="E20">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!D$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F20" t="str" cm="1">
+        <f t="array" ref="F20">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!E$1,Qpaste!$1:$1,0)))</f>
+        <v>`</v>
+      </c>
+      <c r="G20" s="3" t="str" cm="1">
+        <f t="array" ref="G20">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!F$1,Qpaste!$1:$1,0)))</f>
+        <v>11/1/2021 Wartburg</v>
+      </c>
+      <c r="H20" s="3" cm="1">
+        <f t="array" ref="H20">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!G$1,Qpaste!$1:$1,0)))</f>
+        <v>44494</v>
+      </c>
+      <c r="I20" t="str" cm="1">
+        <f t="array" ref="I20">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!H$1,Qpaste!$1:$1,0)))</f>
+        <v>On Campus- Calum Maclearn</v>
+      </c>
+      <c r="J20" s="3" cm="1">
+        <f t="array" ref="J20">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!I$1,Qpaste!$1:$1,0)))</f>
+        <v>44496</v>
+      </c>
+      <c r="K20" t="str" cm="1">
+        <f t="array" ref="K20">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!J$1,Qpaste!$1:$1,0)))</f>
+        <v>Home</v>
+      </c>
+      <c r="L20" s="3" cm="1">
+        <f t="array" ref="L20">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!K$1,Qpaste!$1:$1,0)))</f>
+        <v>44502</v>
+      </c>
+      <c r="M20" t="str" cm="1">
+        <f t="array" ref="M20">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!L$1,Qpaste!$1:$1,0)))</f>
+        <v>Danny</v>
+      </c>
+      <c r="N20" t="str" cm="1">
+        <f t="array" ref="N20">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!M$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="O20" t="str" cm="1">
+        <f t="array" ref="O20">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!N$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P20" t="str" cm="1">
+        <f t="array" ref="P20">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!O$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q20" t="str" cm="1">
+        <f t="array" ref="Q20">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!P$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R20" t="str" cm="1">
+        <f t="array" ref="R20">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!Q$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S20" t="str" cm="1">
+        <f t="array" ref="S20">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!R$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T20" t="str" cm="1">
+        <f t="array" ref="T20">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!S$1,Qpaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U20" t="str" cm="1">
+        <f t="array" ref="U20">IF(INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0))=0,"",INDEX(Qpaste!$A:$T,_xlfn.IFNA(MATCH('Quarantined Students'!$B20,Qpaste!$A:$A,0),MATCH($C20,Qpaste!$B:$B,0)), MATCH(Qpaste!T$1,Qpaste!$1:$1,0)))</f>
         <v/>
       </c>
     </row>
@@ -5002,10 +5606,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B86344-DAFC-46AC-8F96-5F97879FB6E3}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="A2" sqref="A2:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5073,525 +5677,498 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G2" s="15">
-        <v>44477</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I2" s="4">
-        <v>44485</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="K2" s="5">
-        <v>44485</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="1"/>
+      <c r="B2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44494</v>
+      </c>
+      <c r="H2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44496</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3">
+        <v>44502</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G3" s="15">
-        <v>44478</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I3" s="4">
-        <v>44480</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="1"/>
+      <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44494</v>
+      </c>
+      <c r="H3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I3" s="3">
+        <v>44496</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44502</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="F4" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="G4" s="3">
-        <v>44477</v>
+        <v>44494</v>
       </c>
       <c r="H4" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="I4" s="3">
-        <v>44485</v>
+        <v>44496</v>
       </c>
       <c r="J4" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="K4" s="3">
-        <v>44480</v>
-      </c>
-      <c r="P4" t="s">
-        <v>258</v>
+        <v>44502</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="3">
+        <v>44494</v>
+      </c>
+      <c r="H5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" s="3">
+        <v>44496</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3">
+        <v>44502</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" s="15">
+        <v>44477</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I6" s="4">
+        <v>44485</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K6" s="5">
+        <v>44485</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G7" s="15">
+        <v>44478</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G5" s="3">
+      <c r="I7" s="4">
+        <v>44480</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44477</v>
+      </c>
+      <c r="H8" t="s">
+        <v>250</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44485</v>
+      </c>
+      <c r="J8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K8" s="3">
+        <v>44480</v>
+      </c>
+      <c r="P8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" s="3">
         <v>44478</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H9" t="s">
+        <v>260</v>
+      </c>
+      <c r="I9" s="3">
+        <v>44480</v>
+      </c>
+      <c r="J9" t="s">
+        <v>251</v>
+      </c>
+      <c r="L9" t="s">
         <v>261</v>
       </c>
-      <c r="I5" s="3">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1248577</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="3">
+        <v>44475</v>
+      </c>
+      <c r="G10" s="3">
+        <v>44469</v>
+      </c>
+      <c r="H10" t="s">
+        <v>244</v>
+      </c>
+      <c r="I10" s="3">
+        <v>44471</v>
+      </c>
+      <c r="J10" t="s">
+        <v>245</v>
+      </c>
+      <c r="K10" s="3">
+        <v>44477</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="3">
+        <v>44472</v>
+      </c>
+      <c r="H11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I11" s="3">
+        <v>44473</v>
+      </c>
+      <c r="J11" t="s">
+        <v>251</v>
+      </c>
+      <c r="K11" s="3">
         <v>44480</v>
       </c>
-      <c r="J5" t="s">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1234773</v>
+      </c>
+      <c r="B12" t="s">
         <v>252</v>
       </c>
-      <c r="L5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="C12" t="s">
+        <v>253</v>
+      </c>
+      <c r="I12" s="3">
+        <v>44473</v>
+      </c>
+      <c r="J12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
         <v>1248577</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B13" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="4">
+        <v>44475</v>
+      </c>
+      <c r="G13" s="15">
+        <v>44469</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F6" s="3">
-        <v>44475</v>
-      </c>
-      <c r="G6" s="3">
-        <v>44469</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I13" s="4">
+        <v>44471</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="I6" s="3">
-        <v>44471</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K13" s="5">
+        <v>44477</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K6" s="3">
-        <v>44477</v>
-      </c>
-      <c r="O6" t="s">
-        <v>103</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="19" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+      <c r="C14" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G14" s="15">
+        <v>44472</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G7" s="3">
-        <v>44472</v>
-      </c>
-      <c r="H7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="I14" s="4">
         <v>44473</v>
       </c>
-      <c r="J7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="J14" s="1"/>
+      <c r="K14" s="5">
         <v>44480</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>1234773</v>
-      </c>
-      <c r="B8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" t="s">
-        <v>254</v>
-      </c>
-      <c r="I8" s="3">
-        <v>44473</v>
-      </c>
-      <c r="J8" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>1248577</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="4">
-        <v>44475</v>
-      </c>
-      <c r="G9" s="15">
-        <v>44469</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I9" s="4">
-        <v>44471</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="K9" s="5">
-        <v>44477</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G10" s="15">
-        <v>44472</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I10" s="4">
-        <v>44473</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="5">
-        <v>44480</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="19" t="s">
+      <c r="L14" s="6"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="4">
+      <c r="C15" s="1"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="4">
         <v>44462</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G15" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I15" s="4">
         <v>44462</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="6" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7" t="s">
+      <c r="L15" s="6"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>1233381</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B16" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C16" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="1" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I16" s="4">
         <v>44459</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>1245755</v>
-      </c>
-      <c r="B13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" t="s">
-        <v>129</v>
-      </c>
-      <c r="I13" s="3">
-        <v>44454</v>
-      </c>
-      <c r="J13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K13" t="s">
-        <v>131</v>
-      </c>
-      <c r="M13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" t="s">
-        <v>131</v>
-      </c>
-      <c r="O13" t="s">
-        <v>123</v>
-      </c>
-      <c r="P13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>1244590</v>
-      </c>
-      <c r="B14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="3">
-        <v>44454</v>
-      </c>
-      <c r="G14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" t="s">
-        <v>129</v>
-      </c>
-      <c r="I14" s="3">
-        <v>44454</v>
-      </c>
-      <c r="J14" t="s">
-        <v>134</v>
-      </c>
-      <c r="K14" t="s">
-        <v>131</v>
-      </c>
-      <c r="M14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" t="s">
-        <v>131</v>
-      </c>
-      <c r="O14" t="s">
-        <v>123</v>
-      </c>
-      <c r="P14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>1248196</v>
-      </c>
-      <c r="B15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="3">
-        <v>44455</v>
-      </c>
-      <c r="G15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" t="s">
-        <v>129</v>
-      </c>
-      <c r="I15" s="3">
-        <v>44455</v>
-      </c>
-      <c r="J15" t="s">
-        <v>138</v>
-      </c>
-      <c r="K15" t="s">
-        <v>131</v>
-      </c>
-      <c r="M15" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>1235078</v>
-      </c>
-      <c r="B16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="3">
-        <v>44455</v>
-      </c>
-      <c r="G16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" s="3">
-        <v>44455</v>
-      </c>
-      <c r="J16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16" t="s">
-        <v>131</v>
-      </c>
-      <c r="M16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" t="s">
-        <v>131</v>
-      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1245967</v>
+        <v>1245755</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="3">
-        <v>44455</v>
+        <v>126</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
       </c>
       <c r="G17" t="s">
         <v>128</v>
@@ -5600,10 +6177,10 @@
         <v>129</v>
       </c>
       <c r="I17" s="3">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s">
         <v>131</v>
@@ -5614,243 +6191,392 @@
       <c r="N17" t="s">
         <v>131</v>
       </c>
+      <c r="O17" t="s">
+        <v>123</v>
+      </c>
+      <c r="P17" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
+      <c r="A18">
+        <v>1244590</v>
+      </c>
+      <c r="B18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="3">
+        <v>44454</v>
+      </c>
+      <c r="G18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="3">
+        <v>44454</v>
+      </c>
+      <c r="J18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" t="s">
+        <v>131</v>
+      </c>
+      <c r="O18" t="s">
+        <v>123</v>
+      </c>
+      <c r="P18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1248196</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="3">
+        <v>44455</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="3">
+        <v>44455</v>
+      </c>
+      <c r="J19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1235078</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="3">
+        <v>44455</v>
+      </c>
+      <c r="G20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="3">
+        <v>44455</v>
+      </c>
+      <c r="J20" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" t="s">
+        <v>131</v>
+      </c>
+      <c r="M20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1245967</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="3">
+        <v>44455</v>
+      </c>
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="3">
+        <v>44455</v>
+      </c>
+      <c r="J21" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" t="s">
+        <v>131</v>
+      </c>
+      <c r="M21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
         <v>1248095</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="4">
+      <c r="D22" s="14"/>
+      <c r="E22" s="4">
         <v>37619</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G22" s="15">
         <v>44434</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I22" s="4">
         <v>44434</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K22" s="5">
         <v>44442</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N22" s="16">
         <v>44448</v>
       </c>
-      <c r="O18" s="17" t="s">
+      <c r="O22" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="1" t="s">
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>1248351</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B23" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="4">
+      <c r="D23" s="14"/>
+      <c r="E23" s="4">
         <v>37668</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G23" s="15">
         <v>44434</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I23" s="4">
         <v>44434</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K23" s="5">
         <v>44442</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N23" s="16">
         <v>44448</v>
       </c>
-      <c r="O19" s="17" t="s">
+      <c r="O23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="1" t="s">
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>1246184</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B24" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="4">
+      <c r="D24" s="14"/>
+      <c r="E24" s="4">
         <v>37536</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G24" s="15">
         <v>44434</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I24" s="4">
         <v>44434</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K24" s="5">
         <v>44442</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L24" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N24" s="16">
         <v>44448</v>
       </c>
-      <c r="O20" s="17" t="s">
+      <c r="O24" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="1" t="s">
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>1240577</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B25" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G25" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I25" s="4">
         <v>44445</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K25" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="1" t="s">
+      <c r="L25" s="6"/>
+      <c r="M25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N25" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="O25" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="1"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>1249163</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="e">
+      <c r="C26" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F22">
+      <c r="F26">
         <v>44452</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G26" t="s">
         <v>110</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H26" t="s">
         <v>111</v>
       </c>
-      <c r="I22">
+      <c r="I26">
         <v>44452</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J26" t="s">
         <v>112</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K26" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8192,7 +8918,7 @@
         <v>1248577</v>
       </c>
       <c r="B30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C30" t="str">
         <f>IF(INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0))="","",INDEX('Cleared Students'!$A:$T,MATCH('Clean Clear'!$B30,'Cleared Students'!$B:$B,0),MATCH('Clean Clear'!C$1,'Cleared Students'!$1:$1,0)))</f>
@@ -9682,10 +10408,10 @@
         <v>1248577</v>
       </c>
       <c r="B33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" t="s">
         <v>243</v>
-      </c>
-      <c r="C33" t="s">
-        <v>244</v>
       </c>
       <c r="F33" s="3">
         <v>44475</v>
@@ -9694,13 +10420,13 @@
         <v>44469</v>
       </c>
       <c r="H33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I33" s="3">
         <v>44471</v>
       </c>
       <c r="J33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K33" s="3">
         <v>44477</v>
@@ -9709,7 +10435,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
@@ -9723,10 +10449,10 @@
         <v>230</v>
       </c>
       <c r="E34" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" t="s">
         <v>235</v>
-      </c>
-      <c r="F34" t="s">
-        <v>236</v>
       </c>
       <c r="G34" t="s">
         <v>3</v>
@@ -9744,7 +10470,7 @@
         <v>44476</v>
       </c>
       <c r="L34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M34" t="s">
         <v>20</v>
@@ -9753,10 +10479,10 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -9766,10 +10492,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697DB29A-8071-4245-AA70-F84BFB7723B1}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10279,7 +11005,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -10292,52 +11018,114 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="D29" s="24">
         <v>36986</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F29" s="24">
         <v>44490</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="F30" s="24">
         <v>44490</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="F31" s="24">
         <v>44490</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="24">
+        <v>44497</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="24">
+        <v>44497</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="24">
+        <v>44497</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="24">
+        <v>44496</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/2021-22 Wartburg COVID Tracing.xlsx
+++ b/2021-22 Wartburg COVID Tracing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2021-2022\IowaCOVID19\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E81806-CB3D-420E-A310-34346D45A5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73BD951-7C76-4844-9154-167832559BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{DC7C837F-5F10-4144-B236-1FECA5F0EA08}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="6" xr2:uid="{DC7C837F-5F10-4144-B236-1FECA5F0EA08}"/>
   </bookViews>
   <sheets>
     <sheet name="Infected Students" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="309">
   <si>
     <t>Preston Rochford</t>
   </si>
@@ -946,14 +946,56 @@
     <t>On Campus - David Kragness</t>
   </si>
   <si>
-    <t>David Kragness</t>
+    <t>No Board Plan</t>
+  </si>
+  <si>
+    <t>Sean Drewes</t>
+  </si>
+  <si>
+    <t>(319)419-8028</t>
+  </si>
+  <si>
+    <t>Off Campus - 11/11/21</t>
+  </si>
+  <si>
+    <t>Positve</t>
+  </si>
+  <si>
+    <t>Isabelle Schneider</t>
+  </si>
+  <si>
+    <t>Noah 11/16/21</t>
+  </si>
+  <si>
+    <t>Jess</t>
+  </si>
+  <si>
+    <t>Symptoms began 11/13</t>
+  </si>
+  <si>
+    <t>Camilla Wright</t>
+  </si>
+  <si>
+    <t>Wartburg 11/17</t>
+  </si>
+  <si>
+    <t>Symptoms began on 11/10</t>
+  </si>
+  <si>
+    <t>Off Campus</t>
+  </si>
+  <si>
+    <t>Ethan Shawgo</t>
+  </si>
+  <si>
+    <t>Malena Rumelhart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,6 +1029,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1033,7 +1081,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1102,11 +1150,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1172,7 +1229,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1487,14 +1558,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B7C922-39ED-4AAC-B544-0C25322ECB9A}">
-  <dimension ref="A1:AP17"/>
+  <dimension ref="A1:AP19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2649,6 +2720,9 @@
         <v>Wartburg Antigen</v>
       </c>
       <c r="G15" s="22"/>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
       <c r="I15" t="str" cm="1">
         <f t="array" ref="I15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
         <v>positive</v>
@@ -2783,9 +2857,244 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17" s="41" t="s">
-        <v>294</v>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B17" s="1">
+        <v>1238519</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" t="str" cm="1">
+        <f t="array" ref="D17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
+        <v>(319)419-8028</v>
+      </c>
+      <c r="E17" s="3" t="str" cm="1">
+        <f t="array" ref="E17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F17" t="str" cm="1">
+        <f t="array" ref="F17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
+        <v>Off Campus - 11/11/21</v>
+      </c>
+      <c r="G17" s="22">
+        <v>44511</v>
+      </c>
+      <c r="H17" t="s">
+        <v>306</v>
+      </c>
+      <c r="I17" t="str" cm="1">
+        <f t="array" ref="I17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+        <v>Positve</v>
+      </c>
+      <c r="J17" s="3" t="str" cm="1">
+        <f t="array" ref="J17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="K17" t="str" cm="1">
+        <f t="array" ref="K17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+        <v>unknown</v>
+      </c>
+      <c r="L17" s="3" cm="1">
+        <f t="array" ref="L17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+        <v>44511</v>
+      </c>
+      <c r="M17" t="str" cm="1">
+        <f t="array" ref="M17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+        <v>Founders Apartment</v>
+      </c>
+      <c r="N17" s="3" cm="1">
+        <f t="array" ref="N17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+        <v>44520</v>
+      </c>
+      <c r="O17" t="str" cm="1">
+        <f t="array" ref="O17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="P17" t="str" cm="1">
+        <f t="array" ref="P17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+        <v>YES</v>
+      </c>
+      <c r="Q17" s="3" cm="1">
+        <f t="array" ref="Q17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v>44522</v>
+      </c>
+      <c r="R17" t="str" cm="1">
+        <f t="array" ref="R17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+        <v>Cassie H.</v>
+      </c>
+      <c r="S17" t="str" cm="1">
+        <f t="array" ref="S17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="T17" t="str" cm="1">
+        <f t="array" ref="T17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U17" t="str" cm="1">
+        <f t="array" ref="U17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="V17" t="str" cm="1">
+        <f t="array" ref="V17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="C18" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" t="str" cm="1">
+        <f t="array" ref="D18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E18" s="3" t="str" cm="1">
+        <f t="array" ref="E18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F18" t="str" cm="1">
+        <f t="array" ref="F18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
+        <v>Noah 11/16/21</v>
+      </c>
+      <c r="G18" s="22">
+        <v>44516</v>
+      </c>
+      <c r="H18" t="s">
+        <v>233</v>
+      </c>
+      <c r="I18" t="str" cm="1">
+        <f t="array" ref="I18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+        <v>Positve</v>
+      </c>
+      <c r="J18" s="3" t="str" cm="1">
+        <f t="array" ref="J18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="K18" t="str" cm="1">
+        <f t="array" ref="K18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="L18" s="3" cm="1">
+        <f t="array" ref="L18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+        <v>44516</v>
+      </c>
+      <c r="M18" t="str" cm="1">
+        <f t="array" ref="M18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+        <v>Home</v>
+      </c>
+      <c r="N18" s="3" cm="1">
+        <f t="array" ref="N18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+        <v>44523</v>
+      </c>
+      <c r="O18" t="str" cm="1">
+        <f t="array" ref="O18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+        <v>Jess</v>
+      </c>
+      <c r="P18" t="str" cm="1">
+        <f t="array" ref="P18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q18" s="3" t="str" cm="1">
+        <f t="array" ref="Q18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R18" t="str" cm="1">
+        <f t="array" ref="R18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S18" t="str" cm="1">
+        <f t="array" ref="S18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+        <v>Symptoms began 11/13</v>
+      </c>
+      <c r="T18" t="str" cm="1">
+        <f t="array" ref="T18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U18" t="str" cm="1">
+        <f t="array" ref="U18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="V18" t="str" cm="1">
+        <f t="array" ref="V18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="C19" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" t="str" cm="1">
+        <f t="array" ref="D19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!D$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E19" s="3" t="str" cm="1">
+        <f t="array" ref="E19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!E$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F19" t="str" cm="1">
+        <f t="array" ref="F19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!F$1,Ipaste!$1:$1,0)))</f>
+        <v>Wartburg 11/17</v>
+      </c>
+      <c r="G19" s="22">
+        <v>44517</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="str" cm="1">
+        <f t="array" ref="I19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!I$1,Ipaste!$1:$1,0)))</f>
+        <v>Positve</v>
+      </c>
+      <c r="J19" s="3" t="str" cm="1">
+        <f t="array" ref="J19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!J$1,Ipaste!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="K19" t="str" cm="1">
+        <f t="array" ref="K19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!K$1,Ipaste!$1:$1,0)))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="L19" s="3" cm="1">
+        <f t="array" ref="L19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!L$1,Ipaste!$1:$1,0)))</f>
+        <v>44517</v>
+      </c>
+      <c r="M19" t="str" cm="1">
+        <f t="array" ref="M19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!M$1,Ipaste!$1:$1,0)))</f>
+        <v>Home</v>
+      </c>
+      <c r="N19" s="3" cm="1">
+        <f t="array" ref="N19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!N$1,Ipaste!$1:$1,0)))</f>
+        <v>44520</v>
+      </c>
+      <c r="O19" t="str" cm="1">
+        <f t="array" ref="O19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!O$1,Ipaste!$1:$1,0)))</f>
+        <v>Danny</v>
+      </c>
+      <c r="P19" t="str" cm="1">
+        <f t="array" ref="P19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!P$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="Q19" s="3" t="str" cm="1">
+        <f t="array" ref="Q19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!Q$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="R19" t="str" cm="1">
+        <f t="array" ref="R19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="S19" t="str" cm="1">
+        <f t="array" ref="S19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
+        <v>Symptoms began on 11/10</v>
+      </c>
+      <c r="T19" t="str" cm="1">
+        <f t="array" ref="T19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="U19" t="str" cm="1">
+        <f t="array" ref="U19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="V19" t="str" cm="1">
+        <f t="array" ref="V19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2796,10 +3105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC357540-4F5F-4E17-B510-319E9A338038}">
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2895,37 +3204,47 @@
       <c r="AM1" s="34"/>
     </row>
     <row r="2" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
+      <c r="A2" s="35">
+        <v>1238519</v>
+      </c>
       <c r="B2" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="34"/>
+        <v>295</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>296</v>
+      </c>
       <c r="D2" s="36"/>
       <c r="E2" s="34" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="I2" s="36">
-        <v>44496</v>
+        <v>44511</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="K2" s="36">
-        <v>44505</v>
+        <v>44520</v>
       </c>
       <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="34"/>
+      <c r="M2" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="47">
+        <v>44522</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>117</v>
+      </c>
       <c r="P2" s="34"/>
       <c r="Q2" s="34"/>
       <c r="R2" s="34"/>
@@ -2954,17 +3273,15 @@
     <row r="3" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35"/>
       <c r="B3" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>285</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C3" s="34"/>
       <c r="D3" s="36"/>
       <c r="E3" s="34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>2</v>
+        <v>298</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>99</v>
@@ -2973,19 +3290,23 @@
         <v>99</v>
       </c>
       <c r="I3" s="36">
-        <v>44498</v>
+        <v>44516</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="K3" s="36">
-        <v>44508</v>
-      </c>
-      <c r="L3" s="34"/>
+        <v>44523</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>301</v>
+      </c>
       <c r="M3" s="34"/>
       <c r="N3" s="37"/>
       <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
+      <c r="P3" s="34" t="s">
+        <v>302</v>
+      </c>
       <c r="Q3" s="34"/>
       <c r="R3" s="34"/>
       <c r="S3" s="38"/>
@@ -3013,15 +3334,15 @@
     <row r="4" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35"/>
       <c r="B4" s="34" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="36"/>
       <c r="E4" s="34" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>2</v>
+        <v>298</v>
       </c>
       <c r="G4" s="36" t="s">
         <v>99</v>
@@ -3030,13 +3351,13 @@
         <v>99</v>
       </c>
       <c r="I4" s="36">
-        <v>44488</v>
+        <v>44517</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="K4" s="36">
-        <v>44498</v>
+        <v>44520</v>
       </c>
       <c r="L4" s="34" t="s">
         <v>5</v>
@@ -3044,7 +3365,9 @@
       <c r="M4" s="34"/>
       <c r="N4" s="37"/>
       <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
+      <c r="P4" s="34" t="s">
+        <v>305</v>
+      </c>
       <c r="Q4" s="34"/>
       <c r="R4" s="34"/>
       <c r="S4" s="38"/>
@@ -3070,46 +3393,52 @@
       <c r="AM4" s="34"/>
     </row>
     <row r="5" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
-      <c r="B5" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="36">
-        <v>44491</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" s="36">
-        <v>44501</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="34"/>
+      <c r="A5" s="1">
+        <v>1238519</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>44511</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="5">
+        <v>44520</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="16">
+        <v>44522</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
       <c r="U5" s="34"/>
       <c r="V5" s="34"/>
       <c r="W5" s="34"/>
@@ -3137,15 +3466,27 @@
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="36"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="36"/>
+      <c r="E6" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="36">
+        <v>44496</v>
+      </c>
       <c r="J6" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="K6" s="36"/>
+      <c r="K6" s="36">
+        <v>44505</v>
+      </c>
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
       <c r="N6" s="37"/>
@@ -3196,11 +3537,15 @@
       <c r="H7" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="36"/>
+      <c r="I7" s="36">
+        <v>44498</v>
+      </c>
       <c r="J7" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="K7" s="36"/>
+      <c r="K7" s="36">
+        <v>44508</v>
+      </c>
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
       <c r="N7" s="37"/>
@@ -3233,33 +3578,33 @@
     <row r="8" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
       <c r="B8" s="34" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="36"/>
       <c r="E8" s="34" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="I8" s="36">
-        <v>44480</v>
+        <v>44488</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="K8" s="36">
-        <v>44490</v>
+        <v>44498</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>261</v>
+        <v>5</v>
       </c>
       <c r="M8" s="34"/>
       <c r="N8" s="37"/>
@@ -3292,33 +3637,35 @@
     <row r="9" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35"/>
       <c r="B9" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" s="34"/>
+        <v>268</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>269</v>
+      </c>
       <c r="D9" s="36"/>
       <c r="E9" s="34" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="I9" s="36">
-        <v>44470</v>
+        <v>44491</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="K9" s="36">
-        <v>44480</v>
+        <v>44501</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>236</v>
+        <v>5</v>
       </c>
       <c r="M9" s="34"/>
       <c r="N9" s="37"/>
@@ -3349,54 +3696,28 @@
       <c r="AM9" s="34"/>
     </row>
     <row r="10" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35">
-        <v>1224643</v>
-      </c>
+      <c r="A10" s="35"/>
       <c r="B10" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>230</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C10" s="34"/>
       <c r="D10" s="36"/>
-      <c r="E10" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="36">
-        <v>44468</v>
-      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="K10" s="36">
-        <v>44476</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>20</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="K10" s="36"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
       <c r="N10" s="37"/>
-      <c r="O10" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>237</v>
-      </c>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
-      <c r="R10" s="34" t="s">
-        <v>238</v>
-      </c>
+      <c r="R10" s="34"/>
       <c r="S10" s="38"/>
       <c r="T10" s="34"/>
       <c r="U10" s="34"/>
@@ -3420,56 +3741,40 @@
       <c r="AM10" s="34"/>
     </row>
     <row r="11" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="40">
-        <v>1227963</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11" s="40" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="40" t="s">
+      <c r="G11" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="40">
-        <v>44459</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="K11" s="40">
-        <v>44465</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="P11" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
+      <c r="H11" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="36"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="34"/>
       <c r="U11" s="34"/>
       <c r="V11" s="34"/>
       <c r="W11" s="34"/>
@@ -3491,58 +3796,44 @@
       <c r="AM11" s="34"/>
     </row>
     <row r="12" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="40">
-        <v>1244320</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="40">
-        <v>44449</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="I12" s="40">
-        <v>44450</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" s="40">
-        <v>44248</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="40">
-        <v>44460</v>
-      </c>
-      <c r="O12" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="P12" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q12" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="36">
+        <v>44480</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="K12" s="36">
+        <v>44490</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="M12" s="34"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="34"/>
       <c r="U12" s="34"/>
       <c r="V12" s="34"/>
       <c r="W12" s="34"/>
@@ -3564,48 +3855,44 @@
       <c r="AM12" s="34"/>
     </row>
     <row r="13" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13"/>
-      <c r="B13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13" t="s">
-        <v>204</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H13" t="s">
-        <v>205</v>
-      </c>
-      <c r="I13">
-        <v>44459</v>
-      </c>
-      <c r="J13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K13">
-        <v>44465</v>
-      </c>
-      <c r="L13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13" t="s">
-        <v>207</v>
-      </c>
-      <c r="S13"/>
-      <c r="T13"/>
+      <c r="H13" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="36">
+        <v>44470</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="K13" s="36">
+        <v>44480</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="34"/>
       <c r="U13" s="34"/>
       <c r="V13" s="34"/>
       <c r="W13" s="34"/>
@@ -3627,58 +3914,56 @@
       <c r="AM13" s="34"/>
     </row>
     <row r="14" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>1250699</v>
-      </c>
-      <c r="B14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14">
-        <v>44449</v>
-      </c>
-      <c r="J14" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14">
-        <v>44459</v>
-      </c>
-      <c r="L14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="A14" s="35">
+        <v>1224643</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="36">
+        <v>44468</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" s="36">
+        <v>44476</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="M14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="N14">
-        <v>44459</v>
-      </c>
-      <c r="O14" t="s">
-        <v>117</v>
-      </c>
-      <c r="P14" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14" t="s">
-        <v>108</v>
-      </c>
+      <c r="N14" s="37"/>
+      <c r="O14" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="S14" s="38"/>
+      <c r="T14" s="34"/>
       <c r="U14" s="34"/>
       <c r="V14" s="34"/>
       <c r="W14" s="34"/>
@@ -3700,52 +3985,56 @@
       <c r="AM14" s="34"/>
     </row>
     <row r="15" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>1235116</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="A15" s="40">
+        <v>1227963</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="H15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <v>44425</v>
-      </c>
-      <c r="J15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15">
-        <v>44435</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="H15" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="40">
+        <v>44459</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="K15" s="40">
+        <v>44465</v>
+      </c>
+      <c r="L15" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M15" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15"/>
-      <c r="O15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15" t="s">
-        <v>7</v>
-      </c>
+      <c r="M15" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
       <c r="U15" s="34"/>
       <c r="V15" s="34"/>
       <c r="W15" s="34"/>
@@ -3767,48 +4056,58 @@
       <c r="AM15" s="34"/>
     </row>
     <row r="16" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16"/>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>44427</v>
-      </c>
-      <c r="J16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16">
-        <v>44437</v>
-      </c>
-      <c r="L16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" t="s">
-        <v>6</v>
-      </c>
-      <c r="N16"/>
-      <c r="O16" t="s">
-        <v>5</v>
-      </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
+      <c r="A16" s="40">
+        <v>1244320</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="40">
+        <v>44449</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="40">
+        <v>44450</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="40">
+        <v>44248</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="40">
+        <v>44460</v>
+      </c>
+      <c r="O16" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="P16" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q16" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
       <c r="U16" s="34"/>
       <c r="V16" s="34"/>
       <c r="W16" s="34"/>
@@ -3830,56 +4129,48 @@
       <c r="AM16" s="34"/>
     </row>
     <row r="17" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>1232227</v>
-      </c>
+      <c r="A17"/>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17">
-        <v>36695</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D17"/>
       <c r="E17" t="s">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>4</v>
+        <v>205</v>
       </c>
       <c r="I17">
-        <v>44428</v>
+        <v>44459</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="K17">
-        <v>44438</v>
+        <v>44465</v>
       </c>
       <c r="L17" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M17"/>
       <c r="N17"/>
-      <c r="O17" t="s">
-        <v>5</v>
-      </c>
+      <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17"/>
+      <c r="R17" t="s">
+        <v>207</v>
+      </c>
       <c r="S17"/>
-      <c r="T17" t="s">
-        <v>16</v>
-      </c>
+      <c r="T17"/>
       <c r="U17" s="34"/>
       <c r="V17" s="34"/>
       <c r="W17" s="34"/>
@@ -3900,104 +4191,374 @@
       <c r="AL17" s="34"/>
       <c r="AM17" s="34"/>
     </row>
-    <row r="18" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1233601</v>
+        <v>1250699</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>37013</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D18"/>
       <c r="E18" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="G18" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="H18" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="I18">
-        <v>44428</v>
+        <v>44449</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="K18">
-        <v>44438</v>
+        <v>44459</v>
       </c>
       <c r="L18" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M18" t="s">
         <v>20</v>
       </c>
+      <c r="N18">
+        <v>44459</v>
+      </c>
       <c r="O18" t="s">
-        <v>5</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P18" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
       <c r="T18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+    </row>
+    <row r="19" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1235116</v>
+      </c>
       <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19">
-        <v>37763</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>2</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>44425</v>
+      </c>
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>44435</v>
+      </c>
+      <c r="L19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="34"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="34"/>
+    </row>
+    <row r="20" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>44427</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>44437</v>
+      </c>
+      <c r="L20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="34"/>
+      <c r="AK20" s="34"/>
+      <c r="AL20" s="34"/>
+      <c r="AM20" s="34"/>
+    </row>
+    <row r="21" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1232227</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>36695</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>44428</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>44438</v>
+      </c>
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="34"/>
+      <c r="AH21" s="34"/>
+      <c r="AI21" s="34"/>
+      <c r="AJ21" s="34"/>
+      <c r="AK21" s="34"/>
+      <c r="AL21" s="34"/>
+      <c r="AM21" s="34"/>
+    </row>
+    <row r="22" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1233601</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>37013</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>44428</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22">
+        <v>44438</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23">
+        <v>37763</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23">
         <v>44434</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H23" t="s">
         <v>43</v>
       </c>
-      <c r="I19">
+      <c r="I23">
         <v>44438</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J23" t="s">
         <v>44</v>
       </c>
-      <c r="K19">
+      <c r="K23">
         <v>44448</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L23" t="s">
         <v>15</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M23" t="s">
         <v>20</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O23" t="s">
         <v>45</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P23" t="s">
         <v>46</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -4005,6 +4566,10 @@
     <row r="28" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9082,10 +9647,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B33359F-1ECB-4015-A969-E5B4078CAA66}">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:AM40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B34"/>
+      <selection activeCell="A35" sqref="A35:AM40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10403,7 +10968,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1248577</v>
       </c>
@@ -10438,7 +11003,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1224643</v>
       </c>
@@ -10484,6 +11049,376 @@
       <c r="R34" t="s">
         <v>238</v>
       </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>1250232</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="4">
+        <v>44470</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35" s="5">
+        <v>44480</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A36" s="44">
+        <v>1248364</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" s="15">
+        <v>44478</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I36" s="4">
+        <v>44480</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K36" s="5">
+        <v>44486</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="45">
+        <v>44497</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>1246544</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" s="15">
+        <v>44477</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I37" s="4">
+        <v>44485</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K37" s="5">
+        <v>44485</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>1229013</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="4">
+        <v>44480</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K38" s="5">
+        <v>44490</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="4">
+        <v>44488</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K39" s="5">
+        <v>44498</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I40" s="4">
+        <v>44491</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K40" s="5">
+        <v>44501</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10492,10 +11427,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697DB29A-8071-4245-AA70-F84BFB7723B1}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11128,6 +12063,21 @@
         <v>293</v>
       </c>
     </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2021-22 Wartburg COVID Tracing.xlsx
+++ b/2021-22 Wartburg COVID Tracing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariah.birgen\Dropbox\2021-2022\IowaCOVID19\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73BD951-7C76-4844-9154-167832559BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D053C4-6772-44DE-A69E-753777D81A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="6" xr2:uid="{DC7C837F-5F10-4144-B236-1FECA5F0EA08}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{DC7C837F-5F10-4144-B236-1FECA5F0EA08}"/>
   </bookViews>
   <sheets>
     <sheet name="Infected Students" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="312">
   <si>
     <t>Preston Rochford</t>
   </si>
@@ -989,13 +989,22 @@
   </si>
   <si>
     <t>Malena Rumelhart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/17 - Had symptoms for a few days but is alread feeling better. </t>
+  </si>
+  <si>
+    <t>Symptom Start</t>
+  </si>
+  <si>
+    <t>Symtoms to Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1029,12 +1038,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1163,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1242,8 +1245,11 @@
     <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1558,14 +1564,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B7C922-39ED-4AAC-B544-0C25322ECB9A}">
-  <dimension ref="A1:AP19"/>
+  <dimension ref="A1:AQ19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="X17" sqref="X17:X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1577,9 +1583,11 @@
     <col min="12" max="12" width="11.54296875" style="3" customWidth="1"/>
     <col min="14" max="14" width="17.6328125" style="3" customWidth="1"/>
     <col min="17" max="17" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.26953125" style="28" customWidth="1"/>
+    <col min="20" max="20" width="10.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="28" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" s="28" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>149</v>
       </c>
@@ -1637,17 +1645,21 @@
       <c r="S1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="U1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
+      <c r="X1" s="10" t="s">
+        <v>311</v>
+      </c>
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
       <c r="AA1" s="10"/>
@@ -1666,8 +1678,9 @@
       <c r="AN1" s="10"/>
       <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ1" s="10"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>1235116</v>
       </c>
@@ -1729,12 +1742,8 @@
         <f t="array" ref="R2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v>Danny</v>
       </c>
-      <c r="S2" t="str" cm="1">
+      <c r="S2" s="28" t="str" cm="1">
         <f t="array" ref="S2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="T2" t="str" cm="1">
-        <f t="array" ref="T2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
       <c r="U2" t="str" cm="1">
@@ -1745,8 +1754,12 @@
         <f t="array" ref="V2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="W2" t="str" cm="1">
+        <f t="array" ref="W2">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B2&gt;0,MATCH('Infected Students'!$B2,Ipaste!$A:$A,0), MATCH('Infected Students'!$C2,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -1805,12 +1818,8 @@
         <f t="array" ref="R3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v>Danny</v>
       </c>
-      <c r="S3" t="str" cm="1">
+      <c r="S3" s="28" t="str" cm="1">
         <f t="array" ref="S3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="T3" t="str" cm="1">
-        <f t="array" ref="T3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
       <c r="U3" t="str" cm="1">
@@ -1821,8 +1830,12 @@
         <f t="array" ref="V3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="W3" t="str" cm="1">
+        <f t="array" ref="W3">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B3&gt;0,MATCH('Infected Students'!$B3,Ipaste!$A:$A,0), MATCH('Infected Students'!$C3,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1232227</v>
       </c>
@@ -1884,12 +1897,8 @@
         <f t="array" ref="R4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v>Danny</v>
       </c>
-      <c r="S4" t="str" cm="1">
+      <c r="S4" s="28" t="str" cm="1">
         <f t="array" ref="S4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="T4" t="str" cm="1">
-        <f t="array" ref="T4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
       <c r="U4" t="str" cm="1">
@@ -1900,8 +1909,12 @@
         <f t="array" ref="V4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="W4" t="str" cm="1">
+        <f t="array" ref="W4">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B4&gt;0,MATCH('Infected Students'!$B4,Ipaste!$A:$A,0), MATCH('Infected Students'!$C4,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1233601</v>
       </c>
@@ -1963,12 +1976,8 @@
         <f t="array" ref="R5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v>Danny</v>
       </c>
-      <c r="S5" t="str" cm="1">
+      <c r="S5" s="28" t="str" cm="1">
         <f t="array" ref="S5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="T5" t="str" cm="1">
-        <f t="array" ref="T5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
       <c r="U5" t="str" cm="1">
@@ -1979,8 +1988,12 @@
         <f t="array" ref="V5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="W5" t="str" cm="1">
+        <f t="array" ref="W5">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B5&gt;0,MATCH('Infected Students'!$B5,Ipaste!$A:$A,0), MATCH('Infected Students'!$C5,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -2045,13 +2058,12 @@
         <f t="array" ref="R6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v>Kristin TT.</v>
       </c>
-      <c r="S6" t="str" cm="1">
+      <c r="S6" s="28" t="str" cm="1">
         <f t="array" ref="S6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
         <v>8/29 - congestion</v>
       </c>
-      <c r="T6" t="str" cm="1">
-        <f t="array" ref="T6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
-        <v/>
+      <c r="T6" s="3">
+        <v>44437</v>
       </c>
       <c r="U6" t="str" cm="1">
         <f t="array" ref="U6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
@@ -2061,8 +2073,12 @@
         <f t="array" ref="V6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="W6" t="str" cm="1">
+        <f t="array" ref="W6">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B6&gt;0,MATCH('Infected Students'!$B6,Ipaste!$A:$A,0), MATCH('Infected Students'!$C6,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="29" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>1250699</v>
       </c>
@@ -2127,14 +2143,10 @@
         <f t="array" ref="R7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v>Cassie H.</v>
       </c>
-      <c r="S7" t="str" cm="1">
+      <c r="S7" s="28" t="str" cm="1">
         <f t="array" ref="S7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
         <v>no communication returned</v>
       </c>
-      <c r="T7" t="str" cm="1">
-        <f t="array" ref="T7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
       <c r="U7" t="str" cm="1">
         <f t="array" ref="U7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
         <v/>
@@ -2143,8 +2155,12 @@
         <f t="array" ref="V7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="W7" t="str" cm="1">
+        <f t="array" ref="W7">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B7&gt;0,MATCH('Infected Students'!$B7,Ipaste!$A:$A,0), MATCH('Infected Students'!$C7,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:43" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -2212,24 +2228,24 @@
         <f t="array" ref="R8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v>Courtney TS</v>
       </c>
-      <c r="S8" t="str" cm="1">
+      <c r="S8" s="28" t="str" cm="1">
         <f t="array" ref="S8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
         <v>Fever; cough, sore eyes/nose - 9/16; Cough, losing taste/smell - 9/17;</v>
       </c>
-      <c r="T8" t="str" cm="1">
-        <f t="array" ref="T8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
-        <v xml:space="preserve">No Pork, </v>
-      </c>
       <c r="U8" t="str" cm="1">
         <f t="array" ref="U8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
-        <v/>
+        <v xml:space="preserve">No Pork, </v>
       </c>
       <c r="V8" t="str" cm="1">
         <f t="array" ref="V8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="W8" t="str" cm="1">
+        <f t="array" ref="W8">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B8&gt;0,MATCH('Infected Students'!$B8,Ipaste!$A:$A,0), MATCH('Infected Students'!$C8,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:43" ht="58" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>202</v>
       </c>
@@ -2291,24 +2307,24 @@
         <f t="array" ref="R9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v>Courtney TS</v>
       </c>
-      <c r="S9" t="str" cm="1">
+      <c r="S9" s="28" t="str" cm="1">
         <f t="array" ref="S9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
         <v>Email sent, called but voicemail is full - 9/22; slightly congested, slight cough, runny nose - 9/23;</v>
       </c>
-      <c r="T9" t="str" cm="1">
-        <f t="array" ref="T9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
       <c r="U9" t="str" cm="1">
         <f t="array" ref="U9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
-        <v>symptoms started 9/16</v>
+        <v/>
       </c>
       <c r="V9" t="str" cm="1">
         <f t="array" ref="V9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+        <v>symptoms started 9/16</v>
+      </c>
+      <c r="W9" t="str" cm="1">
+        <f t="array" ref="W9">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B9&gt;0,MATCH('Infected Students'!$B9,Ipaste!$A:$A,0), MATCH('Infected Students'!$C9,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:43" ht="58" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>1224643</v>
       </c>
@@ -2373,24 +2389,27 @@
         <f t="array" ref="R10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v>Josh B.</v>
       </c>
-      <c r="S10" t="str" cm="1">
+      <c r="S10" s="28" t="str" cm="1">
         <f t="array" ref="S10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
         <v>9/30: sore throat/runny nose, fever broke last night, 10/1 -feeling much better</v>
       </c>
-      <c r="T10" t="str" cm="1">
-        <f t="array" ref="T10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
-        <v/>
+      <c r="T10" s="3">
+        <v>44469</v>
       </c>
       <c r="U10" t="str" cm="1">
         <f t="array" ref="U10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
-        <v>wants groceries delivered 10/1</v>
+        <v/>
       </c>
       <c r="V10" t="str" cm="1">
         <f t="array" ref="V10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+        <v>wants groceries delivered 10/1</v>
+      </c>
+      <c r="W10" t="str" cm="1">
+        <f t="array" ref="W10">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B10&gt;0,MATCH('Infected Students'!$B10,Ipaste!$A:$A,0), MATCH('Infected Students'!$C10,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="C11" s="34" t="s">
         <v>239</v>
       </c>
@@ -2452,12 +2471,8 @@
         <f t="array" ref="R11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="S11" t="str" cm="1">
+      <c r="S11" s="28" t="str" cm="1">
         <f t="array" ref="S11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="T11" t="str" cm="1">
-        <f t="array" ref="T11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
       <c r="U11" t="str" cm="1">
@@ -2468,8 +2483,12 @@
         <f t="array" ref="V11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="W11" t="str" cm="1">
+        <f t="array" ref="W11">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B11&gt;0,MATCH('Infected Students'!$B11,Ipaste!$A:$A,0), MATCH('Infected Students'!$C11,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B12" s="9"/>
       <c r="C12" s="34" t="s">
         <v>262</v>
@@ -2532,12 +2551,8 @@
         <f t="array" ref="R12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="S12" t="str" cm="1">
+      <c r="S12" s="28" t="str" cm="1">
         <f t="array" ref="S12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="T12" t="str" cm="1">
-        <f t="array" ref="T12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
       <c r="U12" t="str" cm="1">
@@ -2548,8 +2563,12 @@
         <f t="array" ref="V12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="W12" t="str" cm="1">
+        <f t="array" ref="W12">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B12&gt;0,MATCH('Infected Students'!$B12,Ipaste!$A:$A,0), MATCH('Infected Students'!$C12,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="C13" s="1" t="s">
         <v>266</v>
       </c>
@@ -2609,12 +2628,8 @@
         <f t="array" ref="R13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="S13" t="str" cm="1">
+      <c r="S13" s="28" t="str" cm="1">
         <f t="array" ref="S13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="T13" t="str" cm="1">
-        <f t="array" ref="T13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
       <c r="U13" t="str" cm="1">
@@ -2625,8 +2640,12 @@
         <f t="array" ref="V13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="W13" t="str" cm="1">
+        <f t="array" ref="W13">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B13&gt;0,MATCH('Infected Students'!$B13,Ipaste!$A:$A,0), MATCH('Infected Students'!$C13,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="C14" s="1" t="s">
         <v>268</v>
       </c>
@@ -2686,12 +2705,8 @@
         <f t="array" ref="R14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="S14" t="str" cm="1">
+      <c r="S14" s="28" t="str" cm="1">
         <f t="array" ref="S14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="T14" t="str" cm="1">
-        <f t="array" ref="T14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
       <c r="U14" t="str" cm="1">
@@ -2702,8 +2717,12 @@
         <f t="array" ref="V14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="W14" t="str" cm="1">
+        <f t="array" ref="W14">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B14&gt;0,MATCH('Infected Students'!$B14,Ipaste!$A:$A,0), MATCH('Infected Students'!$C14,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="C15" s="34" t="s">
         <v>275</v>
       </c>
@@ -2763,12 +2782,8 @@
         <f t="array" ref="R15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="S15" t="str" cm="1">
+      <c r="S15" s="28" t="str" cm="1">
         <f t="array" ref="S15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="T15" t="str" cm="1">
-        <f t="array" ref="T15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
       <c r="U15" t="str" cm="1">
@@ -2779,8 +2794,12 @@
         <f t="array" ref="V15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="W15" t="str" cm="1">
+        <f t="array" ref="W15">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B15&gt;0,MATCH('Infected Students'!$B15,Ipaste!$A:$A,0), MATCH('Infected Students'!$C15,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="C16" s="34" t="s">
         <v>284</v>
       </c>
@@ -2840,12 +2859,8 @@
         <f t="array" ref="R16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="S16" t="str" cm="1">
+      <c r="S16" s="28" t="str" cm="1">
         <f t="array" ref="S16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="T16" t="str" cm="1">
-        <f t="array" ref="T16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
       <c r="U16" t="str" cm="1">
@@ -2856,8 +2871,12 @@
         <f t="array" ref="V16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="W16" t="str" cm="1">
+        <f t="array" ref="W16">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B16&gt;0,MATCH('Infected Students'!$B16,Ipaste!$A:$A,0), MATCH('Infected Students'!$C16,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>1238519</v>
       </c>
@@ -2922,13 +2941,12 @@
         <f t="array" ref="R17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v>Cassie H.</v>
       </c>
-      <c r="S17" t="str" cm="1">
+      <c r="S17" s="28" t="str" cm="1">
         <f t="array" ref="S17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="T17" t="str" cm="1">
-        <f t="array" ref="T17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
-        <v/>
+        <v xml:space="preserve">11/17 - Had symptoms for a few days but is alread feeling better. </v>
+      </c>
+      <c r="T17" s="3">
+        <v>44517</v>
       </c>
       <c r="U17" t="str" cm="1">
         <f t="array" ref="U17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
@@ -2938,8 +2956,16 @@
         <f t="array" ref="V17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="W17" t="str" cm="1">
+        <f t="array" ref="W17">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B17&gt;0,MATCH('Infected Students'!$B17,Ipaste!$A:$A,0), MATCH('Infected Students'!$C17,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>L17-T17</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C18" s="34" t="s">
         <v>299</v>
       </c>
@@ -3001,13 +3027,12 @@
         <f t="array" ref="R18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="S18" t="str" cm="1">
+      <c r="S18" s="28" t="str" cm="1">
         <f t="array" ref="S18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
         <v>Symptoms began 11/13</v>
       </c>
-      <c r="T18" t="str" cm="1">
-        <f t="array" ref="T18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
-        <v/>
+      <c r="T18" s="3">
+        <v>44513</v>
       </c>
       <c r="U18" t="str" cm="1">
         <f t="array" ref="U18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
@@ -3017,8 +3042,16 @@
         <f t="array" ref="V18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="W18" t="str" cm="1">
+        <f t="array" ref="W18">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B18&gt;0,MATCH('Infected Students'!$B18,Ipaste!$A:$A,0), MATCH('Infected Students'!$C18,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f t="shared" ref="X18:X19" si="0">L18-T18</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C19" s="34" t="s">
         <v>303</v>
       </c>
@@ -3080,13 +3113,12 @@
         <f t="array" ref="R19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!R$1,Ipaste!$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="S19" t="str" cm="1">
+      <c r="S19" s="28" t="str" cm="1">
         <f t="array" ref="S19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!S$1,Ipaste!$1:$1,0)))</f>
         <v>Symptoms began on 11/10</v>
       </c>
-      <c r="T19" t="str" cm="1">
-        <f t="array" ref="T19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!T$1,Ipaste!$1:$1,0)))</f>
-        <v/>
+      <c r="T19" s="3">
+        <v>44510</v>
       </c>
       <c r="U19" t="str" cm="1">
         <f t="array" ref="U19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!U$1,Ipaste!$1:$1,0)))</f>
@@ -3095,6 +3127,14 @@
       <c r="V19" t="str" cm="1">
         <f t="array" ref="V19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!V$1,Ipaste!$1:$1,0)))</f>
         <v/>
+      </c>
+      <c r="W19" t="str" cm="1">
+        <f t="array" ref="W19">IF(INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0))="","",INDEX(Ipaste!$A:$T,IF('Infected Students'!$B19&gt;0,MATCH('Infected Students'!$B19,Ipaste!$A:$A,0), MATCH('Infected Students'!$C19,Ipaste!$B:$B,0)), MATCH('Infected Students'!W$1,Ipaste!$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3105,10 +3145,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC357540-4F5F-4E17-B510-319E9A338038}">
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AM37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3239,13 +3279,15 @@
       <c r="M2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="47">
+      <c r="N2" s="46">
         <v>44522</v>
       </c>
       <c r="O2" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="34"/>
+      <c r="P2" s="34" t="s">
+        <v>309</v>
+      </c>
       <c r="Q2" s="34"/>
       <c r="R2" s="34"/>
       <c r="S2" s="38"/>
@@ -3393,52 +3435,42 @@
       <c r="AM4" s="34"/>
     </row>
     <row r="5" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>1238519</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <v>44511</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K5" s="5">
-        <v>44520</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="16">
-        <v>44522</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="36">
+        <v>44496</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="36">
+        <v>44505</v>
+      </c>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="34"/>
       <c r="U5" s="34"/>
       <c r="V5" s="34"/>
       <c r="W5" s="34"/>
@@ -3462,15 +3494,17 @@
     <row r="6" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35"/>
       <c r="B6" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="34"/>
+        <v>284</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>285</v>
+      </c>
       <c r="D6" s="36"/>
       <c r="E6" s="34" t="s">
         <v>267</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>291</v>
+        <v>2</v>
       </c>
       <c r="G6" s="36" t="s">
         <v>99</v>
@@ -3479,13 +3513,13 @@
         <v>99</v>
       </c>
       <c r="I6" s="36">
-        <v>44496</v>
+        <v>44498</v>
       </c>
       <c r="J6" s="34" t="s">
         <v>116</v>
       </c>
       <c r="K6" s="36">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
@@ -3519,11 +3553,9 @@
     <row r="7" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35"/>
       <c r="B7" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>285</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C7" s="34"/>
       <c r="D7" s="36"/>
       <c r="E7" s="34" t="s">
         <v>267</v>
@@ -3538,15 +3570,17 @@
         <v>99</v>
       </c>
       <c r="I7" s="36">
-        <v>44498</v>
+        <v>44488</v>
       </c>
       <c r="J7" s="34" t="s">
         <v>116</v>
       </c>
       <c r="K7" s="36">
-        <v>44508</v>
-      </c>
-      <c r="L7" s="34"/>
+        <v>44498</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>5</v>
+      </c>
       <c r="M7" s="34"/>
       <c r="N7" s="37"/>
       <c r="O7" s="34"/>
@@ -3576,44 +3610,46 @@
       <c r="AM7" s="34"/>
     </row>
     <row r="8" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
-      <c r="B8" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="34" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="I8" s="36">
-        <v>44488</v>
-      </c>
-      <c r="J8" s="34" t="s">
+      <c r="I8" s="49">
+        <v>44491</v>
+      </c>
+      <c r="J8" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="36">
-        <v>44498</v>
-      </c>
-      <c r="L8" s="34" t="s">
+      <c r="K8" s="49">
+        <v>44501</v>
+      </c>
+      <c r="L8" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="34"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="48"/>
       <c r="U8" s="34"/>
       <c r="V8" s="34"/>
       <c r="W8" s="34"/>
@@ -3637,35 +3673,33 @@
     <row r="9" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35"/>
       <c r="B9" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>269</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C9" s="34"/>
       <c r="D9" s="36"/>
       <c r="E9" s="34" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="I9" s="36">
-        <v>44491</v>
+        <v>44480</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>116</v>
+        <v>241</v>
       </c>
       <c r="K9" s="36">
-        <v>44501</v>
+        <v>44490</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>5</v>
+        <v>261</v>
       </c>
       <c r="M9" s="34"/>
       <c r="N9" s="37"/>
@@ -3698,20 +3732,34 @@
     <row r="10" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35"/>
       <c r="B10" s="34" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="36"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="36"/>
+      <c r="E10" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="36">
+        <v>44470</v>
+      </c>
       <c r="J10" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="34"/>
+        <v>241</v>
+      </c>
+      <c r="K10" s="36">
+        <v>44480</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>236</v>
+      </c>
       <c r="M10" s="34"/>
       <c r="N10" s="37"/>
       <c r="O10" s="34"/>
@@ -3741,38 +3789,54 @@
       <c r="AM10" s="34"/>
     </row>
     <row r="11" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
+      <c r="A11" s="35">
+        <v>1224643</v>
+      </c>
       <c r="B11" s="34" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="34" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="36"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="36">
+        <v>44468</v>
+      </c>
       <c r="J11" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
+        <v>206</v>
+      </c>
+      <c r="K11" s="36">
+        <v>44476</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="N11" s="37"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
+      <c r="O11" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>237</v>
+      </c>
       <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
+      <c r="R11" s="34" t="s">
+        <v>238</v>
+      </c>
       <c r="S11" s="38"/>
       <c r="T11" s="34"/>
       <c r="U11" s="34"/>
@@ -3796,44 +3860,56 @@
       <c r="AM11" s="34"/>
     </row>
     <row r="12" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="G12" s="36" t="s">
+      <c r="A12" s="47">
+        <v>1227963</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="36">
-        <v>44480</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="K12" s="36">
-        <v>44490</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="34"/>
+      <c r="H12" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="47">
+        <v>44459</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="K12" s="47">
+        <v>44465</v>
+      </c>
+      <c r="L12" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="P12" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
       <c r="U12" s="34"/>
       <c r="V12" s="34"/>
       <c r="W12" s="34"/>
@@ -3855,44 +3931,58 @@
       <c r="AM12" s="34"/>
     </row>
     <row r="13" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
-      <c r="B13" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="36">
-        <v>44470</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="K13" s="36">
-        <v>44480</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="34"/>
+      <c r="A13" s="47">
+        <v>1244320</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="47">
+        <v>44449</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="47">
+        <v>44450</v>
+      </c>
+      <c r="J13" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="47">
+        <v>44248</v>
+      </c>
+      <c r="L13" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="47">
+        <v>44460</v>
+      </c>
+      <c r="O13" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
       <c r="U13" s="34"/>
       <c r="V13" s="34"/>
       <c r="W13" s="34"/>
@@ -3914,56 +4004,48 @@
       <c r="AM13" s="34"/>
     </row>
     <row r="14" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35">
-        <v>1224643</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="G14" s="36" t="s">
+      <c r="A14"/>
+      <c r="B14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="36">
-        <v>44468</v>
-      </c>
-      <c r="J14" s="34" t="s">
+      <c r="H14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14">
+        <v>44459</v>
+      </c>
+      <c r="J14" t="s">
         <v>206</v>
       </c>
-      <c r="K14" s="36">
-        <v>44476</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="M14" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="P14" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="S14" s="38"/>
-      <c r="T14" s="34"/>
+      <c r="K14">
+        <v>44465</v>
+      </c>
+      <c r="L14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14" t="s">
+        <v>207</v>
+      </c>
+      <c r="S14"/>
+      <c r="T14"/>
       <c r="U14" s="34"/>
       <c r="V14" s="34"/>
       <c r="W14" s="34"/>
@@ -3985,56 +4067,58 @@
       <c r="AM14" s="34"/>
     </row>
     <row r="15" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="40">
-        <v>1227963</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="40" t="s">
+      <c r="A15">
+        <v>1250699</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="40">
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15">
+        <v>44449</v>
+      </c>
+      <c r="J15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15">
         <v>44459</v>
       </c>
-      <c r="J15" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="K15" s="40">
-        <v>44465</v>
-      </c>
-      <c r="L15" s="40" t="s">
+      <c r="L15" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="M15" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="P15" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
+      <c r="N15">
+        <v>44459</v>
+      </c>
+      <c r="O15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P15" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15" t="s">
+        <v>108</v>
+      </c>
       <c r="U15" s="34"/>
       <c r="V15" s="34"/>
       <c r="W15" s="34"/>
@@ -4056,58 +4140,52 @@
       <c r="AM15" s="34"/>
     </row>
     <row r="16" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40">
-        <v>1244320</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="40" t="s">
+      <c r="A16">
+        <v>1235116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="40">
-        <v>44449</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="40">
-        <v>44450</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="K16" s="40">
-        <v>44248</v>
-      </c>
-      <c r="L16" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="M16" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="40">
-        <v>44460</v>
-      </c>
-      <c r="O16" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="P16" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q16" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>44425</v>
+      </c>
+      <c r="J16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>44435</v>
+      </c>
+      <c r="L16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16" t="s">
+        <v>7</v>
+      </c>
       <c r="U16" s="34"/>
       <c r="V16" s="34"/>
       <c r="W16" s="34"/>
@@ -4131,44 +4209,44 @@
     <row r="17" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" t="s">
-        <v>203</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>204</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>205</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>44459</v>
+        <v>44427</v>
       </c>
       <c r="J17" t="s">
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="K17">
-        <v>44465</v>
+        <v>44437</v>
       </c>
       <c r="L17" t="s">
         <v>5</v>
       </c>
-      <c r="M17"/>
+      <c r="M17" t="s">
+        <v>6</v>
+      </c>
       <c r="N17"/>
-      <c r="O17"/>
+      <c r="O17" t="s">
+        <v>5</v>
+      </c>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17" t="s">
-        <v>207</v>
-      </c>
+      <c r="R17"/>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17" s="34"/>
@@ -4192,57 +4270,55 @@
       <c r="AM17" s="34"/>
     </row>
     <row r="18" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>1250699</v>
-      </c>
-      <c r="B18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18">
-        <v>44449</v>
-      </c>
-      <c r="J18" t="s">
-        <v>116</v>
-      </c>
-      <c r="K18">
-        <v>44459</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="A18" s="40">
+        <v>1232227</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="40">
+        <v>36695</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="40">
+        <v>44428</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="40">
+        <v>44438</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M18" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18">
-        <v>44459</v>
-      </c>
-      <c r="O18" t="s">
-        <v>117</v>
-      </c>
-      <c r="P18" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18" t="s">
-        <v>108</v>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40" t="s">
+        <v>16</v>
       </c>
       <c r="U18" s="34"/>
       <c r="V18" s="34"/>
@@ -4265,51 +4341,55 @@
       <c r="AM18" s="34"/>
     </row>
     <row r="19" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>1235116</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19" t="s">
+      <c r="A19" s="40">
+        <v>1233601</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="40">
+        <v>37013</v>
+      </c>
+      <c r="E19" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I19">
-        <v>44425</v>
-      </c>
-      <c r="J19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>44435</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="I19" s="40">
+        <v>44428</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="40">
+        <v>44438</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M19" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19"/>
-      <c r="O19" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19" t="s">
-        <v>7</v>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40" t="s">
+        <v>16</v>
       </c>
       <c r="U19" s="34"/>
       <c r="V19" s="34"/>
@@ -4334,46 +4414,54 @@
     <row r="20" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <v>37763</v>
+      </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>44434</v>
       </c>
       <c r="H20" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="I20">
-        <v>44427</v>
+        <v>44438</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>44437</v>
+        <v>44448</v>
       </c>
       <c r="L20" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M20" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N20"/>
       <c r="O20" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20"/>
+        <v>45</v>
+      </c>
+      <c r="P20" t="s">
+        <v>46</v>
+      </c>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
-      <c r="T20"/>
+      <c r="T20" t="s">
+        <v>47</v>
+      </c>
       <c r="U20" s="34"/>
       <c r="V20" s="34"/>
       <c r="W20" s="34"/>
@@ -4395,56 +4483,26 @@
       <c r="AM20" s="34"/>
     </row>
     <row r="21" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>1232227</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>36695</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21">
-        <v>44428</v>
-      </c>
-      <c r="J21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21">
-        <v>44438</v>
-      </c>
-      <c r="L21" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" t="s">
-        <v>6</v>
-      </c>
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
       <c r="N21"/>
-      <c r="O21" t="s">
-        <v>5</v>
-      </c>
+      <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
-      <c r="T21" t="s">
-        <v>16</v>
-      </c>
+      <c r="T21"/>
       <c r="U21" s="34"/>
       <c r="V21" s="34"/>
       <c r="W21" s="34"/>
@@ -4465,101 +4523,129 @@
       <c r="AL21" s="34"/>
       <c r="AM21" s="34"/>
     </row>
-    <row r="22" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>1233601</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>37013</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22">
-        <v>44428</v>
-      </c>
-      <c r="J22" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22">
-        <v>44438</v>
-      </c>
-      <c r="L22" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23">
-        <v>37763</v>
-      </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>44434</v>
-      </c>
-      <c r="H23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23">
-        <v>44438</v>
-      </c>
-      <c r="J23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23">
-        <v>44448</v>
-      </c>
-      <c r="L23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" t="s">
-        <v>45</v>
-      </c>
-      <c r="P23" t="s">
-        <v>46</v>
-      </c>
-      <c r="T23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="34"/>
+      <c r="AH22" s="34"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="34"/>
+      <c r="AK22" s="34"/>
+      <c r="AL22" s="34"/>
+      <c r="AM22" s="34"/>
+    </row>
+    <row r="23" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="34"/>
+      <c r="AJ23" s="34"/>
+      <c r="AK23" s="34"/>
+      <c r="AL23" s="34"/>
+      <c r="AM23" s="34"/>
+    </row>
+    <row r="24" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="34"/>
+      <c r="AK24" s="34"/>
+      <c r="AL24" s="34"/>
+      <c r="AM24" s="34"/>
+    </row>
     <row r="25" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -4570,6 +4656,9 @@
     <row r="32" spans="1:39" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11429,7 +11518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697DB29A-8071-4245-AA70-F84BFB7723B1}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
